--- a/EwaldTestValidation.xlsx
+++ b/EwaldTestValidation.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woongkyujee/Desktop/ProjectPAX/SLAM Extension Reference/Ewald/Validation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woongkyujee/Desktop/ProjectPAX/SLAM Extension Reference/Ewald/EwaldPreResearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4692B43-8A72-354D-859C-B1ADA5B55A63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238916B9-CB7F-9245-AEC8-42FFAD6F8673}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{ED569559-3BE8-BA43-B08A-1C36884B8A7F}"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="28800" windowHeight="17040" activeTab="1" xr2:uid="{ED569559-3BE8-BA43-B08A-1C36884B8A7F}"/>
   </bookViews>
   <sheets>
     <sheet name="CubicTegragonalCell" sheetId="1" r:id="rId1"/>
+    <sheet name="ForceTest" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="24">
   <si>
     <t>GULP</t>
   </si>
@@ -79,18 +80,50 @@
   <si>
     <t>Atom 4</t>
   </si>
+  <si>
+    <t>EforceSelf</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Force</t>
+  </si>
+  <si>
+    <t>atom2</t>
+  </si>
+  <si>
+    <t>dfrac</t>
+  </si>
+  <si>
+    <t>in Angs</t>
+  </si>
+  <si>
+    <t>By GULP</t>
+  </si>
+  <si>
+    <t>GULPInt</t>
+  </si>
+  <si>
+    <t>SELFRaw</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="168" formatCode="0.000000%"/>
-    <numFmt numFmtId="171" formatCode="0.0000"/>
-    <numFmt numFmtId="172" formatCode="0.00000"/>
-    <numFmt numFmtId="173" formatCode="0.000000"/>
+  <numFmts count="9">
+    <numFmt numFmtId="164" formatCode="0.000000%"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="170" formatCode="0.0000%"/>
+    <numFmt numFmtId="171" formatCode="0.00000%"/>
+    <numFmt numFmtId="180" formatCode="0.00000.E+00"/>
+    <numFmt numFmtId="187" formatCode="0.0000000"/>
+    <numFmt numFmtId="192" formatCode="0.000000000000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -119,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -127,17 +160,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,18 +503,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B432036-CDCA-A047-8664-542467F32788}">
-  <dimension ref="B2:AB44"/>
+  <dimension ref="B3:AB44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R40" sqref="R40"/>
+    <sheetView topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="14" width="11" style="6" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="11" style="7" bestFit="1" customWidth="1"/>
@@ -471,10 +522,7 @@
     <col min="22" max="27" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:28">
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
@@ -492,7 +540,7 @@
       <c r="AA3" s="6"/>
       <c r="AB3" s="6"/>
     </row>
-    <row r="4" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:28">
       <c r="P4" s="1"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
@@ -505,7 +553,7 @@
       <c r="AA4" s="6"/>
       <c r="AB4" s="6"/>
     </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:28">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -515,7 +563,6 @@
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="3"/>
       <c r="H5" s="6" t="s">
         <v>5</v>
       </c>
@@ -569,7 +616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:28">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -579,7 +626,7 @@
       <c r="D6" s="5">
         <v>-2.2212504908864998</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="9">
         <f>(C6-D6)/C6</f>
         <v>-3.2727402356337136E-2</v>
       </c>
@@ -642,7 +689,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="7" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:28">
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
@@ -652,7 +699,7 @@
       <c r="D7" s="5">
         <v>-27.0872304667405</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="9">
         <f t="shared" ref="E7:E8" si="0">(C7-D7)/C7</f>
         <v>2.6005382948405186E-3</v>
       </c>
@@ -697,7 +744,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:28">
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
@@ -707,7 +754,7 @@
       <c r="D8" s="5">
         <v>-29.308480957627001</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="9">
         <f t="shared" si="0"/>
         <v>7.9509586493455734E-6</v>
       </c>
@@ -740,7 +787,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:28">
       <c r="P9" s="1"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -761,7 +808,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:28">
       <c r="P10" s="1"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -774,7 +821,7 @@
       <c r="AA10" s="6"/>
       <c r="AB10" s="6"/>
     </row>
-    <row r="11" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:28">
       <c r="P11" s="1"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
@@ -787,7 +834,7 @@
       <c r="AA11" s="6"/>
       <c r="AB11" s="6"/>
     </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:28">
       <c r="B12" s="1">
         <v>2</v>
       </c>
@@ -811,7 +858,7 @@
       <c r="AA12" s="6"/>
       <c r="AB12" s="6"/>
     </row>
-    <row r="13" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:28">
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
@@ -821,7 +868,7 @@
       <c r="D13" s="5">
         <v>-5.89047030446992</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="9">
         <f>(C13-D13)/C13</f>
         <v>-1.7774046748794563E-2</v>
       </c>
@@ -881,7 +928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:28">
       <c r="B14" s="1" t="s">
         <v>2</v>
       </c>
@@ -891,7 +938,7 @@
       <c r="D14" s="5">
         <v>-28.1219632720566</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="9">
         <f t="shared" ref="E14:E15" si="2">(C14-D14)/C14</f>
         <v>3.6541772291932267E-3</v>
       </c>
@@ -936,7 +983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:28">
       <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
@@ -946,7 +993,7 @@
       <c r="D15" s="5">
         <v>-34.012433576526497</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="9">
         <f t="shared" si="2"/>
         <v>7.9509548380320734E-6</v>
       </c>
@@ -979,7 +1026,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:28">
       <c r="P16" s="1"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
@@ -1000,7 +1047,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:28">
       <c r="P17" s="1"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
@@ -1021,7 +1068,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:28">
       <c r="P18" s="1"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
@@ -1042,7 +1089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:28">
       <c r="B19" s="1">
         <v>3</v>
       </c>
@@ -1072,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:28">
       <c r="B20" s="1" t="s">
         <v>3</v>
       </c>
@@ -1082,7 +1129,7 @@
       <c r="D20" s="5">
         <v>-2.9583812330715999</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="9">
         <f>(C20-D20)/C20</f>
         <v>-2.7887855358667141E-2</v>
       </c>
@@ -1127,7 +1174,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:28">
       <c r="B21" s="1" t="s">
         <v>2</v>
       </c>
@@ -1137,7 +1184,7 @@
       <c r="D21" s="5">
         <v>-27.417896277500802</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="9">
         <f t="shared" ref="E21:E22" si="4">(C21-D21)/C21</f>
         <v>2.927662181665046E-3</v>
       </c>
@@ -1165,7 +1212,7 @@
       <c r="AA21" s="6"/>
       <c r="AB21" s="6"/>
     </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:28">
       <c r="B22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1175,7 +1222,7 @@
       <c r="D22" s="5">
         <v>-30.3762775105724</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="9">
         <f t="shared" si="4"/>
         <v>7.9511884585328138E-6</v>
       </c>
@@ -1191,7 +1238,7 @@
       <c r="AA22" s="6"/>
       <c r="AB22" s="6"/>
     </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:28">
       <c r="P23" s="1"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
@@ -1204,7 +1251,7 @@
       <c r="AA23" s="6"/>
       <c r="AB23" s="6"/>
     </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:28">
       <c r="P24" s="1"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
@@ -1217,7 +1264,7 @@
       <c r="AA24" s="6"/>
       <c r="AB24" s="6"/>
     </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:28">
       <c r="P25" s="1"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
@@ -1230,7 +1277,7 @@
       <c r="AA25" s="6"/>
       <c r="AB25" s="6"/>
     </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:28">
       <c r="B26" s="1">
         <v>4</v>
       </c>
@@ -1252,7 +1299,7 @@
       <c r="AA26" s="6"/>
       <c r="AB26" s="6"/>
     </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:28">
       <c r="B27" s="1" t="s">
         <v>3</v>
       </c>
@@ -1262,7 +1309,7 @@
       <c r="D27" s="5">
         <v>-11.034859423203301</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="9">
         <f>(C27-D27)/C27</f>
         <v>-1.159152931426743E-2</v>
       </c>
@@ -1299,7 +1346,7 @@
       <c r="AA27" s="6"/>
       <c r="AB27" s="6"/>
     </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:28">
       <c r="B28" s="1" t="s">
         <v>2</v>
       </c>
@@ -1309,7 +1356,7 @@
       <c r="D28" s="5">
         <v>-28.8265648269367</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="9">
         <f t="shared" ref="E28:E29" si="5">(C28-D28)/C28</f>
         <v>4.3781546485018421E-3</v>
       </c>
@@ -1337,7 +1384,7 @@
       <c r="AA28" s="6"/>
       <c r="AB28" s="6"/>
     </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:28">
       <c r="B29" s="1" t="s">
         <v>1</v>
       </c>
@@ -1347,7 +1394,7 @@
       <c r="D29" s="5">
         <v>-39.861424250139997</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="9">
         <f t="shared" si="5"/>
         <v>7.9509788217398646E-6</v>
       </c>
@@ -1363,7 +1410,7 @@
       <c r="AA29" s="6"/>
       <c r="AB29" s="6"/>
     </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:28">
       <c r="P30" s="1"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
@@ -1376,7 +1423,7 @@
       <c r="AA30" s="6"/>
       <c r="AB30" s="6"/>
     </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:28">
       <c r="P31" s="1"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
@@ -1389,7 +1436,7 @@
       <c r="AA31" s="6"/>
       <c r="AB31" s="6"/>
     </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:28">
       <c r="P32" s="1"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
@@ -1402,7 +1449,7 @@
       <c r="AA32" s="6"/>
       <c r="AB32" s="6"/>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28">
       <c r="B33" s="1">
         <v>5</v>
       </c>
@@ -1424,7 +1471,7 @@
       <c r="AA33" s="6"/>
       <c r="AB33" s="6"/>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28">
       <c r="B34" s="1" t="s">
         <v>3</v>
       </c>
@@ -1434,7 +1481,7 @@
       <c r="D34" s="5">
         <v>-8.3873044172211895</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="9">
         <f>(C34-D34)/C34</f>
         <v>-2.5419609376328055E-2</v>
       </c>
@@ -1474,7 +1521,7 @@
       <c r="AA34" s="6"/>
       <c r="AB34" s="6"/>
     </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:28">
       <c r="B35" s="1" t="s">
         <v>2</v>
       </c>
@@ -1484,7 +1531,7 @@
       <c r="D35" s="5">
         <v>-25.880045725294799</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="9">
         <f t="shared" ref="E35:E36" si="6">(C35-D35)/C35</f>
         <v>7.9801989082739638E-3</v>
       </c>
@@ -1512,7 +1559,7 @@
       <c r="AA35" s="6"/>
       <c r="AB35" s="6"/>
     </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:28">
       <c r="B36" s="1" t="s">
         <v>1</v>
       </c>
@@ -1522,7 +1569,7 @@
       <c r="D36" s="5">
         <v>-34.267350142516001</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="9">
         <f t="shared" si="6"/>
         <v>7.9511639046658193E-6</v>
       </c>
@@ -1538,7 +1585,7 @@
       <c r="AA36" s="6"/>
       <c r="AB36" s="6"/>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28">
       <c r="P37" s="1"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
@@ -1551,7 +1598,7 @@
       <c r="AA37" s="6"/>
       <c r="AB37" s="6"/>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28">
       <c r="P38" s="1"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
@@ -1564,7 +1611,7 @@
       <c r="AA38" s="6"/>
       <c r="AB38" s="6"/>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28">
       <c r="P39" s="1"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
@@ -1577,7 +1624,7 @@
       <c r="AA39" s="6"/>
       <c r="AB39" s="6"/>
     </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:28">
       <c r="B40" s="1">
         <v>6</v>
       </c>
@@ -1599,7 +1646,7 @@
       <c r="AA40" s="6"/>
       <c r="AB40" s="6"/>
     </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:28">
       <c r="B41" s="1" t="s">
         <v>3</v>
       </c>
@@ -1609,7 +1656,7 @@
       <c r="D41" s="5">
         <v>-42.981205333410202</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="9">
         <f>(C41-D41)/C41</f>
         <v>-7.5762169861889522E-2</v>
       </c>
@@ -1649,7 +1696,7 @@
       <c r="AA41" s="6"/>
       <c r="AB41" s="6"/>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28">
       <c r="B42" s="1" t="s">
         <v>2</v>
       </c>
@@ -1659,7 +1706,7 @@
       <c r="D42" s="5">
         <v>-18.2872676234919</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="9">
         <f t="shared" ref="E42:E43" si="7">(C42-D42)/C42</f>
         <v>0.14203780316540907</v>
       </c>
@@ -1687,7 +1734,7 @@
       <c r="AA42" s="6"/>
       <c r="AB42" s="6"/>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28">
       <c r="B43" s="1" t="s">
         <v>1</v>
       </c>
@@ -1697,7 +1744,7 @@
       <c r="D43" s="5">
         <v>-61.268472956902102</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="9">
         <f t="shared" si="7"/>
         <v>7.9510586931073241E-6</v>
       </c>
@@ -1713,7 +1760,7 @@
       <c r="AA43" s="6"/>
       <c r="AB43" s="6"/>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28">
       <c r="P44" s="1"/>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
@@ -1729,4 +1776,1003 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A587DBC6-6491-634F-8545-EB1CE76A2D50}">
+  <dimension ref="C5:AD56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="M11" workbookViewId="0">
+      <selection activeCell="Z37" sqref="Z37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="5" width="10.83203125" style="6"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="23" max="30" width="10.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:23">
+      <c r="C5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1">
+        <v>8</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="2"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="3:23">
+      <c r="C6" s="6">
+        <v>-4.6545589999999999</v>
+      </c>
+      <c r="D6" s="6">
+        <v>-0.24282899999999999</v>
+      </c>
+      <c r="E6" s="11">
+        <f>(C6-D6)/C6</f>
+        <v>0.94782985885451221</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="4">
+        <v>-57.38783815</v>
+      </c>
+      <c r="I6" s="4">
+        <v>-76.0729668945296</v>
+      </c>
+      <c r="J6" s="8">
+        <f>(H6-I6)/H6</f>
+        <v>-0.32559387749875712</v>
+      </c>
+      <c r="L6" s="6">
+        <v>4.2111999999999998</v>
+      </c>
+      <c r="M6" s="6">
+        <v>4.2111999999999998</v>
+      </c>
+      <c r="N6" s="6">
+        <v>4.2111999999999998</v>
+      </c>
+      <c r="O6" s="6">
+        <v>2</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:23">
+      <c r="C7" s="6">
+        <v>2.4303000000000002E-2</v>
+      </c>
+      <c r="D7" s="6">
+        <v>-0.10137400000000001</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" ref="E7:E12" si="0">(C7-D7)/C7</f>
+        <v>5.1712545776241621</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="4">
+        <v>-133.83079028</v>
+      </c>
+      <c r="I7" s="4">
+        <v>-115.144141151466</v>
+      </c>
+      <c r="J7" s="8">
+        <f t="shared" ref="J7:J8" si="1">(H7-I7)/H7</f>
+        <v>0.13962892313075265</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6">
+        <v>2</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="R7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:23">
+      <c r="C8" s="6">
+        <v>-4.6545589999999999</v>
+      </c>
+      <c r="D8" s="6">
+        <v>-0.24282899999999999</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.94782985885451221</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>-191.21862844</v>
+      </c>
+      <c r="I8" s="4">
+        <v>-191.21710804599601</v>
+      </c>
+      <c r="J8" s="8">
+        <f t="shared" si="1"/>
+        <v>7.9510768192058602E-6</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6">
+        <v>2</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>0</v>
+      </c>
+      <c r="R8" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:23">
+      <c r="C9" s="6">
+        <v>2.4303000000000002E-2</v>
+      </c>
+      <c r="D9" s="6">
+        <v>-0.10137400000000001</v>
+      </c>
+      <c r="E9" s="11">
+        <f t="shared" si="0"/>
+        <v>5.1712545776241621</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="2"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6">
+        <v>2</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="R9" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="3:23">
+      <c r="C10" s="6">
+        <v>-5.9154900000000001</v>
+      </c>
+      <c r="D10" s="6">
+        <v>-0.32852799999999999</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" si="0"/>
+        <v>0.94446309604107181</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="2"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6">
+        <v>-2</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="R10" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="3:23">
+      <c r="C11" s="6">
+        <v>10.545745</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.67273099999999997</v>
+      </c>
+      <c r="E11" s="11">
+        <f t="shared" si="0"/>
+        <v>0.93620830012483702</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>-0.24282899999999999</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6">
+        <v>-2</v>
+      </c>
+      <c r="P11" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>0</v>
+      </c>
+      <c r="R11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:23">
+      <c r="C12" s="6">
+        <v>-5.9154900000000001</v>
+      </c>
+      <c r="D12" s="6">
+        <v>-0.32852799999999999</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" si="0"/>
+        <v>0.94446309604107181</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>-0.10137400000000001</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6">
+        <v>-2</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="R12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:23">
+      <c r="C13" s="6">
+        <v>10.545745</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.67273099999999997</v>
+      </c>
+      <c r="E13" s="11">
+        <f>(C13-D13)/C13</f>
+        <v>0.93620830012483702</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>-0.24282899999999999</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6">
+        <v>-2</v>
+      </c>
+      <c r="P13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>0</v>
+      </c>
+      <c r="R13" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="3:23">
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>-0.10137400000000001</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="3:23">
+      <c r="C15" s="6">
+        <f>MAX(C6:C13)</f>
+        <v>10.545745</v>
+      </c>
+      <c r="D15" s="6">
+        <f>MAX(D6:D13)</f>
+        <v>0.67273099999999997</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>-0.32852799999999999</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:23">
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.67273099999999997</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="V16" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="W16" s="6">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="3:30">
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>-0.32852799999999999</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17">
+        <f>M16*M6</f>
+        <v>2.1055999999999998E-2</v>
+      </c>
+      <c r="V17" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="W17" s="6">
+        <f>W16*M6</f>
+        <v>2.1056E-3</v>
+      </c>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+    </row>
+    <row r="18" spans="3:30">
+      <c r="C18" s="6">
+        <f>C6/$C$15</f>
+        <v>-0.44136843817103483</v>
+      </c>
+      <c r="D18" s="6">
+        <f>D6/$D$15</f>
+        <v>-0.36096002711336328</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.67273099999999997</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>16</v>
+      </c>
+      <c r="R18" t="s">
+        <v>17</v>
+      </c>
+      <c r="V18" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+    </row>
+    <row r="19" spans="3:30">
+      <c r="C19" s="6">
+        <f t="shared" ref="C19:C30" si="2">C7/$C$15</f>
+        <v>2.3045313536407337E-3</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" ref="D19:D24" si="3">D7/$D$15</f>
+        <v>-0.1506902461756631</v>
+      </c>
+      <c r="L19" s="15">
+        <v>-191.21710804599601</v>
+      </c>
+      <c r="M19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O19" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="P19" s="6">
+        <v>0</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0</v>
+      </c>
+      <c r="S19" s="4">
+        <v>-0.10137400000000001</v>
+      </c>
+      <c r="T19" s="4">
+        <v>0</v>
+      </c>
+      <c r="V19" s="15">
+        <v>-191.21710804599601</v>
+      </c>
+      <c r="W19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="X19" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Y19" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="Z19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="13">
+        <v>-0.10137400000000001</v>
+      </c>
+      <c r="AD19" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:30">
+      <c r="C20" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.44136843817103483</v>
+      </c>
+      <c r="D20" s="6">
+        <f t="shared" si="3"/>
+        <v>-0.36096002711336328</v>
+      </c>
+      <c r="G20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="16"/>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <f>(L23-L22)/(M17*2)</f>
+        <v>-4.9527562928945515E-3</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="14">
+        <f>(V23-V22)/(W17*2)</f>
+        <v>5.7629174583369311E-3</v>
+      </c>
+      <c r="AD20" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30">
+      <c r="C21" s="6">
+        <f t="shared" si="2"/>
+        <v>2.3045313536407337E-3</v>
+      </c>
+      <c r="D21" s="6">
+        <f t="shared" si="3"/>
+        <v>-0.1506902461756631</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>-4.6545589999999999</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="L21" s="16"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
+    </row>
+    <row r="22" spans="3:30">
+      <c r="C22" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.56093618800758027</v>
+      </c>
+      <c r="D22" s="6">
+        <f t="shared" si="3"/>
+        <v>-0.48834972671097365</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>2.4303000000000002E-2</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="L22" s="16">
+        <v>-191.21782421172199</v>
+      </c>
+      <c r="N22" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O22" s="6">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="P22" s="6">
+        <v>0</v>
+      </c>
+      <c r="V22" s="16">
+        <v>-191.21712837489099</v>
+      </c>
+      <c r="X22" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Y22" s="6">
+        <f>Y19-W16</f>
+        <v>0.51950000000000007</v>
+      </c>
+      <c r="Z22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30">
+      <c r="C23" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D23" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>-4.6545589999999999</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+      <c r="L23" s="16">
+        <v>-191.218032782195</v>
+      </c>
+      <c r="N23" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O23" s="6">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="P23" s="6">
+        <v>0</v>
+      </c>
+      <c r="V23" s="16">
+        <v>-191.21710410609299</v>
+      </c>
+      <c r="X23" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Y23" s="6">
+        <f>Y19+W16</f>
+        <v>0.52049999999999996</v>
+      </c>
+      <c r="Z23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30">
+      <c r="C24" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.56093618800758027</v>
+      </c>
+      <c r="D24" s="6">
+        <f t="shared" si="3"/>
+        <v>-0.48834972671097365</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>2.4303000000000002E-2</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="L24" s="16"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+    </row>
+    <row r="25" spans="3:30">
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>-5.9154900000000001</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="L25" s="16">
+        <f>L23-L22</f>
+        <v>-2.0857047300637532E-4</v>
+      </c>
+      <c r="V25" s="16">
+        <f>V23-V22</f>
+        <v>2.4268798000548486E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30">
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>10.545745</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30">
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>-5.9154900000000001</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30">
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>10.545745</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30">
+      <c r="L29" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30">
+        <f>M29*$M$6</f>
+        <v>4.2112E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30">
+      <c r="L31" t="s">
+        <v>16</v>
+      </c>
+      <c r="R31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30">
+      <c r="I32" s="12"/>
+      <c r="L32" s="15">
+        <v>-191.21710804599601</v>
+      </c>
+      <c r="M32" t="s">
+        <v>18</v>
+      </c>
+      <c r="N32" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O32" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="P32" s="6">
+        <v>0</v>
+      </c>
+      <c r="R32" s="4">
+        <v>0</v>
+      </c>
+      <c r="S32" s="4">
+        <v>-0.10137400000000001</v>
+      </c>
+      <c r="T32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="9:23">
+      <c r="I33" s="12"/>
+      <c r="L33" s="15"/>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <f>(L36-L35)/(M30*2)</f>
+        <v>5.7383678052463898E-3</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="9:23">
+      <c r="I34" s="12"/>
+      <c r="L34" s="16"/>
+    </row>
+    <row r="35" spans="9:23">
+      <c r="I35" s="12"/>
+      <c r="L35" s="16">
+        <v>-191.21716499061</v>
+      </c>
+      <c r="N35" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O35" s="6">
+        <f>O32-M29</f>
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="P35" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="9:23">
+      <c r="I36" s="12"/>
+      <c r="L36" s="16">
+        <v>-191.217116659781</v>
+      </c>
+      <c r="N36" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O36" s="6">
+        <f>O32+M29</f>
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="P36" s="6">
+        <v>0</v>
+      </c>
+      <c r="V36" s="4">
+        <v>-0.10137400000000001</v>
+      </c>
+      <c r="W36" s="6">
+        <f>V36/S45</f>
+        <v>-17.666302040693928</v>
+      </c>
+    </row>
+    <row r="37" spans="9:23">
+      <c r="I37" s="12"/>
+      <c r="L37" s="16"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="W37" s="6">
+        <f>V36/AC20</f>
+        <v>-17.590743010442946</v>
+      </c>
+    </row>
+    <row r="38" spans="9:23">
+      <c r="I38" s="12"/>
+      <c r="L38" s="16">
+        <f>L36-L35</f>
+        <v>4.8330829002907194E-5</v>
+      </c>
+      <c r="W38" s="10">
+        <f>(W36-W37)</f>
+        <v>-7.5559030250982318E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="9:23">
+      <c r="I39" s="12"/>
+    </row>
+    <row r="40" spans="9:23">
+      <c r="I40" s="12"/>
+      <c r="L40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="9:23">
+      <c r="I41" s="12"/>
+      <c r="L41" t="s">
+        <v>19</v>
+      </c>
+      <c r="M41">
+        <v>1E-3</v>
+      </c>
+      <c r="W41" s="17">
+        <f>(S45-AC20)/S45</f>
+        <v>-4.2953859428293941E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="9:23">
+      <c r="I42" s="12"/>
+      <c r="L42" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42">
+        <f>M41*$M$6</f>
+        <v>4.2112E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="9:23">
+      <c r="L43" t="s">
+        <v>16</v>
+      </c>
+      <c r="R43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="9:23">
+      <c r="L44" s="15">
+        <v>-191.21862844</v>
+      </c>
+      <c r="M44" t="s">
+        <v>18</v>
+      </c>
+      <c r="N44" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O44" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="P44" s="6">
+        <v>0</v>
+      </c>
+      <c r="R44" s="4">
+        <v>0</v>
+      </c>
+      <c r="S44" s="4">
+        <v>-0.10137400000000001</v>
+      </c>
+      <c r="T44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="9:23">
+      <c r="L45" s="15"/>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <f>(L48-L47)/(M42*2)</f>
+        <v>5.7382693767199996E-3</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="9:23">
+      <c r="L46" s="16"/>
+    </row>
+    <row r="47" spans="9:23">
+      <c r="L47" s="16">
+        <v>-191.21868538000001</v>
+      </c>
+      <c r="N47" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O47" s="6">
+        <f>O44-M41</f>
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="P47" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="9:23">
+      <c r="L48" s="16">
+        <v>-191.21863705000001</v>
+      </c>
+      <c r="N48" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O48" s="6">
+        <f>O44+M41</f>
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="P48" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="8:16">
+      <c r="L49" s="16"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+    </row>
+    <row r="50" spans="8:16">
+      <c r="L50" s="16">
+        <f>L48-L47</f>
+        <v>4.8329999998486528E-5</v>
+      </c>
+    </row>
+    <row r="56" spans="8:16">
+      <c r="H56" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/EwaldTestValidation.xlsx
+++ b/EwaldTestValidation.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woongkyujee/Desktop/ProjectPAX/SLAM Extension Reference/Ewald/EwaldPreResearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238916B9-CB7F-9245-AEC8-42FFAD6F8673}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE747B03-CD97-0443-BAC0-06235352993A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="28800" windowHeight="17040" activeTab="1" xr2:uid="{ED569559-3BE8-BA43-B08A-1C36884B8A7F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" activeTab="2" xr2:uid="{ED569559-3BE8-BA43-B08A-1C36884B8A7F}"/>
   </bookViews>
   <sheets>
     <sheet name="CubicTegragonalCell" sheetId="1" r:id="rId1"/>
-    <sheet name="ForceTest" sheetId="2" r:id="rId2"/>
+    <sheet name="Ewald_Energy1stDer" sheetId="3" r:id="rId2"/>
+    <sheet name="ForceTest" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="33">
   <si>
     <t>GULP</t>
   </si>
@@ -106,6 +107,33 @@
   </si>
   <si>
     <t>SELFRaw</t>
+  </si>
+  <si>
+    <t>err</t>
+  </si>
+  <si>
+    <t>Why it returns cell params?</t>
+  </si>
+  <si>
+    <t>Strain</t>
+  </si>
+  <si>
+    <t>dE/de1(xx)</t>
+  </si>
+  <si>
+    <t>dE/de2(yy)</t>
+  </si>
+  <si>
+    <t>dE/de3(zz)</t>
+  </si>
+  <si>
+    <t>dE/de4(yz)</t>
+  </si>
+  <si>
+    <t>dE/de5(xz)</t>
+  </si>
+  <si>
+    <t>dE/de6(xy)</t>
   </si>
 </sst>
 </file>
@@ -117,13 +145,13 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="0.000000"/>
-    <numFmt numFmtId="170" formatCode="0.0000%"/>
-    <numFmt numFmtId="171" formatCode="0.00000%"/>
-    <numFmt numFmtId="180" formatCode="0.00000.E+00"/>
-    <numFmt numFmtId="187" formatCode="0.0000000"/>
-    <numFmt numFmtId="192" formatCode="0.000000000000"/>
+    <numFmt numFmtId="168" formatCode="0.0000%"/>
+    <numFmt numFmtId="169" formatCode="0.00000%"/>
+    <numFmt numFmtId="170" formatCode="0.00000.E+00"/>
+    <numFmt numFmtId="171" formatCode="0.0000000"/>
+    <numFmt numFmtId="172" formatCode="0.000000000000"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -131,13 +159,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -152,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -171,24 +212,25 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1779,22 +1821,59 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE25B2D-FE34-0E49-B6F0-4829524F93C3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A587DBC6-6491-634F-8545-EB1CE76A2D50}">
-  <dimension ref="C5:AD56"/>
+  <dimension ref="B3:AD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M11" workbookViewId="0">
-      <selection activeCell="Z37" sqref="Z37"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="5" width="10.83203125" style="6"/>
+    <col min="3" max="4" width="10.83203125" style="6"/>
+    <col min="5" max="5" width="10.83203125" style="16"/>
+    <col min="6" max="6" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.5" style="15" bestFit="1" customWidth="1"/>
     <col min="23" max="30" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
+    <row r="3" spans="3:23">
+      <c r="H3" s="1">
+        <v>8</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="3:23">
+      <c r="H4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="4">
+        <v>-57.38783815</v>
+      </c>
+      <c r="J4" s="4">
+        <v>-76.0729668945296</v>
+      </c>
+      <c r="K4" s="8">
+        <f>(I4-J4)/I4</f>
+        <v>-0.32559387749875712</v>
+      </c>
+    </row>
     <row r="5" spans="3:23">
       <c r="C5" s="6" t="s">
         <v>22</v>
@@ -1802,12 +1881,22 @@
       <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="1">
-        <v>8</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="2"/>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="4">
+        <v>-133.83079028</v>
+      </c>
+      <c r="J5" s="4">
+        <v>-115.144141151466</v>
+      </c>
+      <c r="K5" s="8">
+        <f t="shared" ref="K5:K6" si="0">(I5-J5)/I5</f>
+        <v>0.13962892313075265</v>
+      </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
@@ -1820,25 +1909,29 @@
       <c r="C6" s="6">
         <v>-4.6545589999999999</v>
       </c>
-      <c r="D6" s="6">
-        <v>-0.24282899999999999</v>
-      </c>
-      <c r="E6" s="11">
+      <c r="D6" s="4">
+        <v>-1.105272</v>
+      </c>
+      <c r="E6" s="16">
         <f>(C6-D6)/C6</f>
-        <v>0.94782985885451221</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="4">
-        <v>-57.38783815</v>
+        <v>0.76253990979596553</v>
+      </c>
+      <c r="F6">
+        <f>C6/D6</f>
+        <v>4.2112339767948521</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="I6" s="4">
-        <v>-76.0729668945296</v>
-      </c>
-      <c r="J6" s="8">
-        <f>(H6-I6)/H6</f>
-        <v>-0.32559387749875712</v>
+        <v>-191.21862844</v>
+      </c>
+      <c r="J6" s="4">
+        <v>-191.21710804599601</v>
+      </c>
+      <c r="K6" s="8">
+        <f t="shared" si="0"/>
+        <v>7.9510768192058602E-6</v>
       </c>
       <c r="L6" s="6">
         <v>4.2111999999999998</v>
@@ -1866,26 +1959,21 @@
       <c r="C7" s="6">
         <v>2.4303000000000002E-2</v>
       </c>
-      <c r="D7" s="6">
-        <v>-0.10137400000000001</v>
-      </c>
-      <c r="E7" s="11">
-        <f t="shared" ref="E7:E12" si="0">(C7-D7)/C7</f>
-        <v>5.1712545776241621</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="4">
-        <v>-133.83079028</v>
-      </c>
-      <c r="I7" s="4">
-        <v>-115.144141151466</v>
-      </c>
-      <c r="J7" s="8">
-        <f t="shared" ref="J7:J8" si="1">(H7-I7)/H7</f>
-        <v>0.13962892313075265</v>
-      </c>
+      <c r="D7" s="4">
+        <v>5.7710000000000001E-3</v>
+      </c>
+      <c r="E7" s="16">
+        <f t="shared" ref="E7:E12" si="1">(C7-D7)/C7</f>
+        <v>0.76253960416409494</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F7:F13" si="2">C7/D7</f>
+        <v>4.2112285565759837</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="2"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
@@ -1895,7 +1983,7 @@
       <c r="P7" s="6">
         <v>0.5</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="17">
         <v>0.52</v>
       </c>
       <c r="R7" s="6">
@@ -1906,26 +1994,23 @@
       <c r="C8" s="6">
         <v>-4.6545589999999999</v>
       </c>
-      <c r="D8" s="6">
-        <v>-0.24282899999999999</v>
-      </c>
-      <c r="E8" s="11">
-        <f t="shared" si="0"/>
-        <v>0.94782985885451221</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4">
-        <v>-191.21862844</v>
-      </c>
-      <c r="I8" s="4">
-        <v>-191.21710804599601</v>
-      </c>
-      <c r="J8" s="8">
+      <c r="D8" s="4">
+        <v>-1.105272</v>
+      </c>
+      <c r="E8" s="16">
         <f t="shared" si="1"/>
-        <v>7.9510768192058602E-6</v>
-      </c>
+        <v>0.76253990979596553</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>4.2112339767948521</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="2"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
@@ -1946,17 +2031,23 @@
       <c r="C9" s="6">
         <v>2.4303000000000002E-2</v>
       </c>
-      <c r="D9" s="6">
-        <v>-0.10137400000000001</v>
-      </c>
-      <c r="E9" s="11">
-        <f t="shared" si="0"/>
-        <v>5.1712545776241621</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="4"/>
+      <c r="D9" s="4">
+        <v>5.7710000000000001E-3</v>
+      </c>
+      <c r="E9" s="16">
+        <f t="shared" si="1"/>
+        <v>0.76253960416409494</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>4.2112285565759837</v>
+      </c>
+      <c r="H9" s="4">
+        <v>-1.105272</v>
+      </c>
       <c r="I9" s="4"/>
-      <c r="J9" s="2"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="2"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -1977,19 +2068,23 @@
       <c r="C10" s="6">
         <v>-5.9154900000000001</v>
       </c>
-      <c r="D10" s="6">
-        <v>-0.32852799999999999</v>
-      </c>
-      <c r="E10" s="11">
-        <f t="shared" si="0"/>
-        <v>0.94446309604107181</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="4"/>
+      <c r="D10" s="4">
+        <v>-1.404693</v>
+      </c>
+      <c r="E10" s="16">
+        <f t="shared" si="1"/>
+        <v>0.76253987412707991</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>4.2112333442253931</v>
+      </c>
+      <c r="H10" s="4">
+        <v>5.7710000000000001E-3</v>
+      </c>
       <c r="I10" s="4"/>
-      <c r="J10" s="2"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="2"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
@@ -2010,23 +2105,23 @@
       <c r="C11" s="6">
         <v>10.545745</v>
       </c>
-      <c r="D11" s="6">
-        <v>0.67273099999999997</v>
-      </c>
-      <c r="E11" s="11">
-        <f t="shared" si="0"/>
-        <v>0.93620830012483702</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
+      <c r="D11" s="4">
+        <v>2.504194</v>
+      </c>
+      <c r="E11" s="16">
+        <f t="shared" si="1"/>
+        <v>0.76253986797518813</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>4.2112332351247543</v>
       </c>
       <c r="H11" s="4">
-        <v>-0.24282899999999999</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2"/>
+        <v>-1.105272</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="3"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
@@ -2047,23 +2142,22 @@
       <c r="C12" s="6">
         <v>-5.9154900000000001</v>
       </c>
-      <c r="D12" s="6">
-        <v>-0.32852799999999999</v>
-      </c>
-      <c r="E12" s="11">
-        <f t="shared" si="0"/>
-        <v>0.94446309604107181</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
+      <c r="D12" s="4">
+        <v>-1.404693</v>
+      </c>
+      <c r="E12" s="16">
+        <f t="shared" si="1"/>
+        <v>0.76253987412707991</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>4.2112333442253931</v>
       </c>
       <c r="H12" s="4">
-        <v>-0.10137400000000001</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2"/>
+        <v>5.7710000000000001E-3</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
@@ -2084,23 +2178,22 @@
       <c r="C13" s="6">
         <v>10.545745</v>
       </c>
-      <c r="D13" s="6">
-        <v>0.67273099999999997</v>
-      </c>
-      <c r="E13" s="11">
+      <c r="D13" s="4">
+        <v>2.504194</v>
+      </c>
+      <c r="E13" s="16">
         <f>(C13-D13)/C13</f>
-        <v>0.93620830012483702</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0</v>
+        <v>0.76253986797518813</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>4.2112332351247543</v>
       </c>
       <c r="H13" s="4">
-        <v>-0.24282899999999999</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3"/>
+        <v>-1.404693</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -2118,15 +2211,11 @@
       </c>
     </row>
     <row r="14" spans="3:23">
-      <c r="G14" s="4">
-        <v>0</v>
-      </c>
       <c r="H14" s="4">
-        <v>-0.10137400000000001</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0</v>
-      </c>
+        <v>2.504194</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" spans="3:23">
       <c r="C15" s="6">
@@ -2135,50 +2224,45 @@
       </c>
       <c r="D15" s="6">
         <f>MAX(D6:D13)</f>
-        <v>0.67273099999999997</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0</v>
+        <v>2.504194</v>
+      </c>
+      <c r="F15" s="18">
+        <f>(F6-L$6)/F6</f>
+        <v>8.0681327704678561E-6</v>
       </c>
       <c r="H15" s="4">
-        <v>-0.32852799999999999</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0</v>
-      </c>
+        <v>-1.404693</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
     </row>
     <row r="16" spans="3:23">
-      <c r="G16" s="4">
-        <v>0</v>
+      <c r="F16" s="18">
+        <f t="shared" ref="F16:F20" si="3">(F7-L$6)/F7</f>
+        <v>6.7810558368513389E-6</v>
       </c>
       <c r="H16" s="4">
-        <v>0.67273099999999997</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0</v>
-      </c>
+        <v>2.504194</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
       <c r="L16" t="s">
         <v>19</v>
       </c>
       <c r="M16">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="V16" s="16" t="s">
+      <c r="V16" s="15" t="s">
         <v>19</v>
       </c>
       <c r="W16" s="6">
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="17" spans="3:30">
-      <c r="G17" s="4">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <v>-0.32852799999999999</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0</v>
+    <row r="17" spans="2:30">
+      <c r="F17" s="18">
+        <f t="shared" si="3"/>
+        <v>8.0681327704678561E-6</v>
       </c>
       <c r="L17" t="s">
         <v>20</v>
@@ -2187,35 +2271,33 @@
         <f>M16*M6</f>
         <v>2.1055999999999998E-2</v>
       </c>
-      <c r="V17" s="16" t="s">
+      <c r="V17" s="15" t="s">
         <v>20</v>
       </c>
       <c r="W17" s="6">
         <f>W16*M6</f>
         <v>2.1056E-3</v>
       </c>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="14"/>
-    </row>
-    <row r="18" spans="3:30">
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+    </row>
+    <row r="18" spans="2:30">
       <c r="C18" s="6">
         <f>C6/$C$15</f>
         <v>-0.44136843817103483</v>
       </c>
       <c r="D18" s="6">
         <f>D6/$D$15</f>
-        <v>-0.36096002711336328</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4">
-        <v>0.67273099999999997</v>
-      </c>
-      <c r="I18" s="4">
-        <v>0</v>
+        <v>-0.44136836043852834</v>
+      </c>
+      <c r="F18" s="18">
+        <f t="shared" si="3"/>
+        <v>6.7810558368513389E-6</v>
+      </c>
+      <c r="H18" t="s">
+        <v>22</v>
       </c>
       <c r="L18" t="s">
         <v>16</v>
@@ -2223,26 +2305,34 @@
       <c r="R18" t="s">
         <v>17</v>
       </c>
-      <c r="V18" s="16" t="s">
+      <c r="V18" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="14" t="s">
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="AC18" s="14"/>
-      <c r="AD18" s="14"/>
-    </row>
-    <row r="19" spans="3:30">
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+    </row>
+    <row r="19" spans="2:30">
       <c r="C19" s="6">
-        <f t="shared" ref="C19:C30" si="2">C7/$C$15</f>
+        <f t="shared" ref="C19:C24" si="4">C7/$C$15</f>
         <v>2.3045313536407337E-3</v>
       </c>
       <c r="D19" s="6">
-        <f t="shared" ref="D19:D24" si="3">D7/$D$15</f>
-        <v>-0.1506902461756631</v>
-      </c>
-      <c r="L19" s="15">
+        <f t="shared" ref="D19:D24" si="5">D7/$D$15</f>
+        <v>2.3045339139060312E-3</v>
+      </c>
+      <c r="F19" s="18">
+        <f t="shared" si="3"/>
+        <v>7.9179239590162412E-6</v>
+      </c>
+      <c r="H19">
+        <v>-4.6545589999999999</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="L19" s="14">
         <v>-191.21710804599601</v>
       </c>
       <c r="M19" t="s">
@@ -2266,7 +2356,7 @@
       <c r="T19" s="4">
         <v>0</v>
       </c>
-      <c r="V19" s="15">
+      <c r="V19" s="14">
         <v>-191.21710804599601</v>
       </c>
       <c r="W19" s="6" t="s">
@@ -2281,30 +2371,35 @@
       <c r="Z19" s="6">
         <v>0</v>
       </c>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="13">
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="12">
         <v>-0.10137400000000001</v>
       </c>
-      <c r="AD19" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="3:30">
+      <c r="AD19" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:30">
       <c r="C20" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.44136843817103483</v>
       </c>
       <c r="D20" s="6">
+        <f t="shared" si="5"/>
+        <v>-0.44136836043852834</v>
+      </c>
+      <c r="F20" s="18">
         <f t="shared" si="3"/>
-        <v>-0.36096002711336328</v>
-      </c>
-      <c r="G20" t="s">
-        <v>22</v>
-      </c>
-      <c r="L20" s="16"/>
+        <v>7.8920171120658164E-6</v>
+      </c>
+      <c r="H20">
+        <v>2.4303000000000002E-2</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="L20" s="15"/>
       <c r="R20">
         <v>0</v>
       </c>
@@ -2315,61 +2410,51 @@
       <c r="T20">
         <v>0</v>
       </c>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="14">
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="13">
         <f>(V23-V22)/(W17*2)</f>
         <v>5.7629174583369311E-3</v>
       </c>
-      <c r="AD20" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:30">
+      <c r="AD20" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30">
       <c r="C21" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.3045313536407337E-3</v>
       </c>
       <c r="D21" s="6">
-        <f t="shared" si="3"/>
-        <v>-0.1506902461756631</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>2.3045339139060312E-3</v>
       </c>
       <c r="H21">
         <v>-4.6545589999999999</v>
       </c>
-      <c r="I21" s="4">
-        <v>0</v>
-      </c>
-      <c r="L21" s="16"/>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="14"/>
-      <c r="AC21" s="14"/>
-      <c r="AD21" s="14"/>
-    </row>
-    <row r="22" spans="3:30">
+      <c r="J21" s="4"/>
+      <c r="L21" s="15"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+    </row>
+    <row r="22" spans="2:30">
       <c r="C22" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.56093618800758027</v>
       </c>
       <c r="D22" s="6">
-        <f t="shared" si="3"/>
-        <v>-0.48834972671097365</v>
-      </c>
-      <c r="G22" s="4">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>-0.56093617347537772</v>
       </c>
       <c r="H22">
         <v>2.4303000000000002E-2</v>
       </c>
-      <c r="I22" s="4">
-        <v>0</v>
-      </c>
-      <c r="L22" s="16">
+      <c r="J22" s="4"/>
+      <c r="L22" s="15">
         <v>-191.21782421172199</v>
       </c>
       <c r="N22" s="6">
@@ -2381,7 +2466,7 @@
       <c r="P22" s="6">
         <v>0</v>
       </c>
-      <c r="V22" s="16">
+      <c r="V22" s="15">
         <v>-191.21712837489099</v>
       </c>
       <c r="X22" s="6">
@@ -2395,25 +2480,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:30">
+    <row r="23" spans="2:30">
       <c r="C23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D23" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G23" s="4">
-        <v>0</v>
-      </c>
       <c r="H23">
-        <v>-4.6545589999999999</v>
-      </c>
-      <c r="I23" s="4">
-        <v>0</v>
-      </c>
-      <c r="L23" s="16">
+        <v>-5.9154900000000001</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="L23" s="15">
         <v>-191.218032782195</v>
       </c>
       <c r="N23" s="6">
@@ -2425,7 +2505,7 @@
       <c r="P23" s="6">
         <v>0</v>
       </c>
-      <c r="V23" s="16">
+      <c r="V23" s="15">
         <v>-191.21710410609299</v>
       </c>
       <c r="X23" s="6">
@@ -2439,82 +2519,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:30">
+    <row r="24" spans="2:30">
       <c r="C24" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.56093618800758027</v>
       </c>
       <c r="D24" s="6">
-        <f t="shared" si="3"/>
-        <v>-0.48834972671097365</v>
-      </c>
-      <c r="G24" s="4">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>-0.56093617347537772</v>
       </c>
       <c r="H24">
-        <v>2.4303000000000002E-2</v>
-      </c>
-      <c r="I24" s="4">
-        <v>0</v>
-      </c>
-      <c r="L24" s="16"/>
+        <v>10.545745</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="L24" s="15"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
     </row>
-    <row r="25" spans="3:30">
-      <c r="G25" s="4">
-        <v>0</v>
-      </c>
+    <row r="25" spans="2:30">
       <c r="H25">
         <v>-5.9154900000000001</v>
       </c>
-      <c r="I25" s="4">
-        <v>0</v>
-      </c>
-      <c r="L25" s="16">
+      <c r="J25" s="4"/>
+      <c r="L25" s="15">
         <f>L23-L22</f>
         <v>-2.0857047300637532E-4</v>
       </c>
-      <c r="V25" s="16">
+      <c r="V25" s="15">
         <f>V23-V22</f>
         <v>2.4268798000548486E-5</v>
       </c>
     </row>
-    <row r="26" spans="3:30">
-      <c r="G26" s="4">
-        <v>0</v>
-      </c>
+    <row r="26" spans="2:30">
       <c r="H26">
         <v>10.545745</v>
       </c>
-      <c r="I26" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:30">
-      <c r="G27" s="4">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>-5.9154900000000001</v>
-      </c>
-      <c r="I27" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:30">
-      <c r="G28" s="4">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>10.545745</v>
-      </c>
-      <c r="I28" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="3:30">
+      <c r="J26" s="4"/>
+    </row>
+    <row r="29" spans="2:30">
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
       <c r="L29" t="s">
         <v>19</v>
       </c>
@@ -2522,7 +2568,13 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="30" spans="3:30">
+    <row r="30" spans="2:30">
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="6">
+        <v>63.405757000000001</v>
+      </c>
       <c r="L30" t="s">
         <v>20</v>
       </c>
@@ -2531,7 +2583,13 @@
         <v>4.2112E-3</v>
       </c>
     </row>
-    <row r="31" spans="3:30">
+    <row r="31" spans="2:30">
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="6">
+        <v>64.407114000000007</v>
+      </c>
       <c r="L31" t="s">
         <v>16</v>
       </c>
@@ -2539,9 +2597,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="3:30">
-      <c r="I32" s="12"/>
-      <c r="L32" s="15">
+    <row r="32" spans="2:30">
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="6">
+        <v>63.405757000000001</v>
+      </c>
+      <c r="I32" s="11"/>
+      <c r="L32" s="14">
         <v>-191.21710804599601</v>
       </c>
       <c r="M32" t="s">
@@ -2566,9 +2630,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="9:23">
-      <c r="I33" s="12"/>
-      <c r="L33" s="15"/>
+    <row r="33" spans="2:23">
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0</v>
+      </c>
+      <c r="I33" s="11"/>
+      <c r="L33" s="14"/>
       <c r="R33">
         <v>0</v>
       </c>
@@ -2580,13 +2650,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="9:23">
-      <c r="I34" s="12"/>
-      <c r="L34" s="16"/>
-    </row>
-    <row r="35" spans="9:23">
-      <c r="I35" s="12"/>
-      <c r="L35" s="16">
+    <row r="34" spans="2:23">
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0</v>
+      </c>
+      <c r="I34" s="11"/>
+      <c r="L34" s="15"/>
+    </row>
+    <row r="35" spans="2:23">
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0</v>
+      </c>
+      <c r="I35" s="11"/>
+      <c r="L35" s="15">
         <v>-191.21716499061</v>
       </c>
       <c r="N35" s="6">
@@ -2599,10 +2681,14 @@
       <c r="P35" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="9:23">
-      <c r="I36" s="12"/>
-      <c r="L36" s="16">
+      <c r="S35">
+        <f>I10/S33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23">
+      <c r="I36" s="11"/>
+      <c r="L36" s="15">
         <v>-191.217116659781</v>
       </c>
       <c r="N36" s="6">
@@ -2615,6 +2701,13 @@
       <c r="P36" s="6">
         <v>0</v>
       </c>
+      <c r="R36" t="s">
+        <v>24</v>
+      </c>
+      <c r="S36" s="16" t="e">
+        <f>(I10-S33)/I10</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="V36" s="4">
         <v>-0.10137400000000001</v>
       </c>
@@ -2623,52 +2716,52 @@
         <v>-17.666302040693928</v>
       </c>
     </row>
-    <row r="37" spans="9:23">
-      <c r="I37" s="12"/>
-      <c r="L37" s="16"/>
+    <row r="37" spans="2:23">
+      <c r="I37" s="11"/>
+      <c r="L37" s="15"/>
       <c r="N37" s="6"/>
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
       <c r="W37" s="6">
-        <f>V36/AC20</f>
-        <v>-17.590743010442946</v>
-      </c>
-    </row>
-    <row r="38" spans="9:23">
-      <c r="I38" s="12"/>
-      <c r="L38" s="16">
+        <f>V36/S33</f>
+        <v>-17.665999015838143</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23">
+      <c r="I38" s="11"/>
+      <c r="L38" s="15">
         <f>L36-L35</f>
         <v>4.8330829002907194E-5</v>
       </c>
       <c r="W38" s="10">
         <f>(W36-W37)</f>
-        <v>-7.5559030250982318E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="9:23">
-      <c r="I39" s="12"/>
-    </row>
-    <row r="40" spans="9:23">
-      <c r="I40" s="12"/>
+        <v>-3.0302485578559413E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23">
+      <c r="I39" s="11"/>
+    </row>
+    <row r="40" spans="2:23">
+      <c r="I40" s="11"/>
       <c r="L40" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="9:23">
-      <c r="I41" s="12"/>
+    <row r="41" spans="2:23">
+      <c r="I41" s="11"/>
       <c r="L41" t="s">
         <v>19</v>
       </c>
       <c r="M41">
         <v>1E-3</v>
       </c>
-      <c r="W41" s="17">
-        <f>(S45-AC20)/S45</f>
-        <v>-4.2953859428293941E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="9:23">
-      <c r="I42" s="12"/>
+      <c r="W41" s="16">
+        <f>(S45-S33)/S45</f>
+        <v>-1.7152998565996375E-5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23">
+      <c r="I42" s="11"/>
       <c r="L42" t="s">
         <v>20</v>
       </c>
@@ -2677,7 +2770,7 @@
         <v>4.2112E-3</v>
       </c>
     </row>
-    <row r="43" spans="9:23">
+    <row r="43" spans="2:23">
       <c r="L43" t="s">
         <v>16</v>
       </c>
@@ -2685,8 +2778,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="9:23">
-      <c r="L44" s="15">
+    <row r="44" spans="2:23">
+      <c r="L44" s="14">
         <v>-191.21862844</v>
       </c>
       <c r="M44" t="s">
@@ -2711,8 +2804,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="9:23">
-      <c r="L45" s="15"/>
+    <row r="45" spans="2:23">
+      <c r="L45" s="14"/>
       <c r="R45">
         <v>0</v>
       </c>
@@ -2724,11 +2817,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="9:23">
-      <c r="L46" s="16"/>
-    </row>
-    <row r="47" spans="9:23">
-      <c r="L47" s="16">
+    <row r="46" spans="2:23">
+      <c r="L46" s="15"/>
+    </row>
+    <row r="47" spans="2:23">
+      <c r="L47" s="15">
         <v>-191.21868538000001</v>
       </c>
       <c r="N47" s="6">
@@ -2741,9 +2834,13 @@
       <c r="P47" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="9:23">
-      <c r="L48" s="16">
+      <c r="S47">
+        <f>I10/S45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23">
+      <c r="L48" s="15">
         <v>-191.21863705000001</v>
       </c>
       <c r="N48" s="6">
@@ -2758,13 +2855,13 @@
       </c>
     </row>
     <row r="49" spans="8:16">
-      <c r="L49" s="16"/>
+      <c r="L49" s="15"/>
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
     </row>
     <row r="50" spans="8:16">
-      <c r="L50" s="16">
+      <c r="L50" s="15">
         <f>L48-L47</f>
         <v>4.8329999998486528E-5</v>
       </c>

--- a/EwaldTestValidation.xlsx
+++ b/EwaldTestValidation.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woongkyujee/Desktop/ProjectPAX/SLAM Extension Reference/Ewald/EwaldPreResearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE747B03-CD97-0443-BAC0-06235352993A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBE602C-106C-2345-B626-74DFD767BF3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" activeTab="2" xr2:uid="{ED569559-3BE8-BA43-B08A-1C36884B8A7F}"/>
+    <workbookView xWindow="29300" yWindow="1240" windowWidth="37820" windowHeight="25100" activeTab="2" xr2:uid="{ED569559-3BE8-BA43-B08A-1C36884B8A7F}"/>
   </bookViews>
   <sheets>
     <sheet name="CubicTegragonalCell" sheetId="1" r:id="rId1"/>
-    <sheet name="Ewald_Energy1stDer" sheetId="3" r:id="rId2"/>
-    <sheet name="ForceTest" sheetId="2" r:id="rId3"/>
+    <sheet name="DerivativeVal" sheetId="3" r:id="rId2"/>
+    <sheet name="DerivativeVal_GULP_FDM" sheetId="4" r:id="rId3"/>
+    <sheet name="DerivativeMisc" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>GULP</t>
   </si>
@@ -134,13 +135,190 @@
   </si>
   <si>
     <t>dE/de6(xy)</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Abs</t>
+  </si>
+  <si>
+    <t>ABS_Sum</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>fracx</t>
+  </si>
+  <si>
+    <t>fracy</t>
+  </si>
+  <si>
+    <t>fracz</t>
+  </si>
+  <si>
+    <t>Internal Derivative</t>
+  </si>
+  <si>
+    <t>Internal</t>
+  </si>
+  <si>
+    <t>Raw</t>
+  </si>
+  <si>
+    <t>div r</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>GULP INTERNAL</t>
+  </si>
+  <si>
+    <t>dx</t>
+  </si>
+  <si>
+    <t>dy</t>
+  </si>
+  <si>
+    <t>dz</t>
+  </si>
+  <si>
+    <t>SelfRaw</t>
+  </si>
+  <si>
+    <t>CellParam</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>simple div</t>
+  </si>
+  <si>
+    <t>GULP E</t>
+  </si>
+  <si>
+    <t>Err</t>
+  </si>
+  <si>
+    <t>Self INTERNAL?</t>
+  </si>
+  <si>
+    <t>Err w.r.t GULP</t>
+  </si>
+  <si>
+    <t>Strain Derivative</t>
+  </si>
+  <si>
+    <t>Ewald Force Validation for self implementation : using point charges of MgO system</t>
+  </si>
+  <si>
+    <t>SelfRaw E</t>
+  </si>
+  <si>
+    <t>SUM 1-3</t>
+  </si>
+  <si>
+    <t>SUM 1-6</t>
+  </si>
+  <si>
+    <t>cartx</t>
+  </si>
+  <si>
+    <t>carty</t>
+  </si>
+  <si>
+    <t>caryz</t>
+  </si>
+  <si>
+    <t>cartx * dx</t>
+  </si>
+  <si>
+    <t>carty * dy</t>
+  </si>
+  <si>
+    <t>cartz * dz</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>* GULP Internal</t>
+  </si>
+  <si>
+    <t>* SelfRaw</t>
+  </si>
+  <si>
+    <t>Vol</t>
+  </si>
+  <si>
+    <t>GULP by hand</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>GULP FDM</t>
+  </si>
+  <si>
+    <t>Self Raw</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>Exf</t>
+  </si>
+  <si>
+    <t>Exb</t>
+  </si>
+  <si>
+    <t>Eyf</t>
+  </si>
+  <si>
+    <t>Eyb</t>
+  </si>
+  <si>
+    <t>Ezf</t>
+  </si>
+  <si>
+    <t>Ezb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="11">
     <numFmt numFmtId="164" formatCode="0.000000%"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
@@ -150,8 +328,10 @@
     <numFmt numFmtId="170" formatCode="0.00000.E+00"/>
     <numFmt numFmtId="171" formatCode="0.0000000"/>
     <numFmt numFmtId="172" formatCode="0.000000000000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="179" formatCode="0.0000000%"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -162,6 +342,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -193,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -231,6 +417,14 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B432036-CDCA-A047-8664-542467F32788}">
   <dimension ref="B3:AB44"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1822,22 +2016,2341 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE25B2D-FE34-0E49-B6F0-4829524F93C3}">
-  <dimension ref="A1"/>
+  <dimension ref="A3:W59"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24:J31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="22" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:21">
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="3:21">
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5">
+        <f>D6*E6*F6</f>
+        <v>74.11712</v>
+      </c>
+    </row>
+    <row r="6" spans="3:21">
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4.2111999999999998</v>
+      </c>
+      <c r="F6" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="3:21">
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>68</v>
+      </c>
+      <c r="R7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="3:21">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="E8" s="20">
+        <v>0</v>
+      </c>
+      <c r="F8" s="20">
+        <v>0</v>
+      </c>
+      <c r="H8" s="19">
+        <f>D8*D$6</f>
+        <v>0.2</v>
+      </c>
+      <c r="I8" s="19">
+        <f>E8*E$6</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="19">
+        <f>F8*F$6</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="19">
+        <f>C24*H8</f>
+        <v>-1.5795262000000001</v>
+      </c>
+      <c r="M8" s="19">
+        <f t="shared" ref="M8:N8" si="0">D24*I8</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="19">
+        <f>G24*H8</f>
+        <v>-0.39487840000000002</v>
+      </c>
+      <c r="Q8" s="19">
+        <f t="shared" ref="Q8:R8" si="1">H24*I8</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f>I8*C24*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f>H8*D24*0.5</f>
+        <v>-0.48381830000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="3:21">
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="20">
+        <v>0.52</v>
+      </c>
+      <c r="F9" s="20">
+        <v>0</v>
+      </c>
+      <c r="H9" s="19">
+        <f>D9*D$6</f>
+        <v>2</v>
+      </c>
+      <c r="I9" s="19">
+        <f>E9*E$6</f>
+        <v>2.1898239999999998</v>
+      </c>
+      <c r="J9" s="19">
+        <f>F9*F$6</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="19">
+        <f t="shared" ref="L9:L16" si="2">C25*H9</f>
+        <v>-10.176204</v>
+      </c>
+      <c r="M9" s="19">
+        <f t="shared" ref="M9:M16" si="3">D25*I9</f>
+        <v>1.2694037457919998</v>
+      </c>
+      <c r="N9" s="19">
+        <f t="shared" ref="N9:N16" si="4">E25*J9</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="19">
+        <f t="shared" ref="P9:P15" si="5">G25*H9</f>
+        <v>-2.5440299999999998</v>
+      </c>
+      <c r="Q9" s="19">
+        <f t="shared" ref="Q9:Q15" si="6">H25*I9</f>
+        <v>0.30143365324799998</v>
+      </c>
+      <c r="R9" s="19">
+        <f t="shared" ref="R9:R15" si="7">I25*J9</f>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f t="shared" ref="T9:T15" si="8">I9*C25*0.5</f>
+        <v>-5.5710239370239991</v>
+      </c>
+      <c r="U9">
+        <f t="shared" ref="U9:U15" si="9">H9*D25*0.5</f>
+        <v>0.57968299999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="3:21">
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="20">
+        <v>0</v>
+      </c>
+      <c r="F10" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="19">
+        <f>D10*D$6</f>
+        <v>2</v>
+      </c>
+      <c r="I10" s="19">
+        <f>E10*E$6</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="19">
+        <f>F10*F$6</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L10" s="19">
+        <f t="shared" si="2"/>
+        <v>-8.7039139999999993</v>
+      </c>
+      <c r="M10" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="19">
+        <f t="shared" si="4"/>
+        <v>40.376333800000005</v>
+      </c>
+      <c r="P10" s="19">
+        <f t="shared" si="5"/>
+        <v>-2.1759620000000002</v>
+      </c>
+      <c r="Q10" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="19">
+        <f t="shared" si="7"/>
+        <v>9.1763672000000014</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="9"/>
+        <v>-4.7496929999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="3:21">
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="20">
+        <v>0</v>
+      </c>
+      <c r="E11" s="20">
+        <v>0.52</v>
+      </c>
+      <c r="F11" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="19">
+        <f>D11*D$6</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="19">
+        <f>E11*E$6</f>
+        <v>2.1898239999999998</v>
+      </c>
+      <c r="J11" s="19">
+        <f>F11*F$6</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L11" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="19">
+        <f t="shared" si="3"/>
+        <v>0.52908118681599992</v>
+      </c>
+      <c r="N11" s="19">
+        <f t="shared" si="4"/>
+        <v>6.6076010000000007</v>
+      </c>
+      <c r="P11" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="19">
+        <f t="shared" si="6"/>
+        <v>0.12563458252799997</v>
+      </c>
+      <c r="R11" s="19">
+        <f t="shared" si="7"/>
+        <v>1.5017156000000003</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="8"/>
+        <v>2.3649902115839998</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:21">
+      <c r="C12">
+        <v>-2</v>
+      </c>
+      <c r="D12" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="19">
+        <f>D12*D$6</f>
+        <v>2</v>
+      </c>
+      <c r="I12" s="19">
+        <f>E12*E$6</f>
+        <v>2.1055999999999999</v>
+      </c>
+      <c r="J12" s="19">
+        <f>F12*F$6</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L12" s="19">
+        <f t="shared" si="2"/>
+        <v>4.1103680000000002</v>
+      </c>
+      <c r="M12" s="19">
+        <f t="shared" si="3"/>
+        <v>-12.848924972799999</v>
+      </c>
+      <c r="N12" s="19">
+        <f t="shared" si="4"/>
+        <v>-11.409633400000001</v>
+      </c>
+      <c r="P12" s="19">
+        <f t="shared" si="5"/>
+        <v>1.0275840000000001</v>
+      </c>
+      <c r="Q12" s="19">
+        <f t="shared" si="6"/>
+        <v>-3.0511070463999999</v>
+      </c>
+      <c r="R12" s="19">
+        <f t="shared" si="7"/>
+        <v>-2.5930784</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="8"/>
+        <v>2.1636977152000001</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="9"/>
+        <v>-6.1022629999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="3:21">
+      <c r="C13">
+        <v>-2</v>
+      </c>
+      <c r="D13" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="20">
+        <v>0</v>
+      </c>
+      <c r="F13" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="H13" s="19">
+        <f>D13*D$6</f>
+        <v>2</v>
+      </c>
+      <c r="I13" s="19">
+        <f>E13*E$6</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="19">
+        <f>F13*F$6</f>
+        <v>0.17600000000000002</v>
+      </c>
+      <c r="L13" s="19">
+        <f t="shared" si="2"/>
+        <v>48.820224000000003</v>
+      </c>
+      <c r="M13" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="19">
+        <f t="shared" si="4"/>
+        <v>0.38017161600000005</v>
+      </c>
+      <c r="P13" s="19">
+        <f t="shared" si="5"/>
+        <v>12.20496</v>
+      </c>
+      <c r="Q13" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="19">
+        <f t="shared" si="7"/>
+        <v>8.6401920000000007E-2</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="9"/>
+        <v>10.405001</v>
+      </c>
+    </row>
+    <row r="14" spans="3:21">
+      <c r="C14">
+        <v>-2</v>
+      </c>
+      <c r="D14" s="20">
+        <v>0</v>
+      </c>
+      <c r="E14" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="20">
+        <v>0</v>
+      </c>
+      <c r="H14" s="19">
+        <f>D14*D$6</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="19">
+        <f>E14*E$6</f>
+        <v>2.1055999999999999</v>
+      </c>
+      <c r="J14" s="19">
+        <f>F14*F$6</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="19">
+        <f t="shared" si="3"/>
+        <v>-12.848924972799999</v>
+      </c>
+      <c r="N14" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="19">
+        <f t="shared" si="6"/>
+        <v>-3.0511070463999999</v>
+      </c>
+      <c r="R14" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="8"/>
+        <v>-6.4628875807999995</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="3:21">
+      <c r="C15">
+        <v>-2</v>
+      </c>
+      <c r="D15" s="20">
+        <v>0</v>
+      </c>
+      <c r="E15" s="20">
+        <v>0</v>
+      </c>
+      <c r="F15" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="19">
+        <f>D15*D$6</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="19">
+        <f>E15*E$6</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="19">
+        <f>F15*F$6</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L15" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="19">
+        <f t="shared" si="4"/>
+        <v>-13.108033400000002</v>
+      </c>
+      <c r="P15" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="19">
+        <f t="shared" si="7"/>
+        <v>-2.9790750000000004</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:21">
+      <c r="L16" s="19">
+        <f>SUM(L8:L15)</f>
+        <v>32.470947800000005</v>
+      </c>
+      <c r="M16" s="19">
+        <f t="shared" ref="M16:N16" si="10">SUM(M8:M15)</f>
+        <v>-23.899365012992</v>
+      </c>
+      <c r="N16" s="19">
+        <f>SUM(N8:N15)</f>
+        <v>22.846439616000005</v>
+      </c>
+      <c r="T16">
+        <f>SUM(T8:T15)</f>
+        <v>-7.5052235910399983</v>
+      </c>
+      <c r="U16">
+        <f>SUM(U8:U15)</f>
+        <v>-0.35109029999999919</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="I17" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="19">
+        <f>D38/L16</f>
+        <v>2.4452645943399283</v>
+      </c>
+      <c r="M17" s="19">
+        <f>D39/M16</f>
+        <v>-2.589573863839322</v>
+      </c>
+      <c r="N17" s="19">
+        <f>D40/N16</f>
+        <v>2.2424049375344031</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="19">
+        <v>-192.52019942000001</v>
+      </c>
+      <c r="G18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18">
+        <v>-192.51866868401899</v>
+      </c>
+      <c r="I18" s="22">
+        <f>(D18-H18)/D18</f>
+        <v>7.9510409070447098E-6</v>
+      </c>
+      <c r="L18" s="19"/>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" t="s">
+        <v>51</v>
+      </c>
+      <c r="K22" t="s">
+        <v>54</v>
+      </c>
+      <c r="O22" t="s">
+        <v>57</v>
+      </c>
+      <c r="S22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="C24" s="6">
+        <v>-7.8976309999999996</v>
+      </c>
+      <c r="D24" s="6">
+        <v>-4.8381829999999999</v>
+      </c>
+      <c r="E24" s="6">
+        <v>-8.7959429999999994</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6">
+        <v>-1.9743919999999999</v>
+      </c>
+      <c r="H24" s="6">
+        <v>-1.148876</v>
+      </c>
+      <c r="I24" s="6">
+        <v>-1.9990619999999999</v>
+      </c>
+      <c r="K24" s="6">
+        <f>C24/G24</f>
+        <v>4.0000319085571663</v>
+      </c>
+      <c r="L24" s="6">
+        <f t="shared" ref="L24:M24" si="11">D24/H24</f>
+        <v>4.2112316733920805</v>
+      </c>
+      <c r="M24" s="6">
+        <f t="shared" si="11"/>
+        <v>4.4000351164696241</v>
+      </c>
+      <c r="O24" s="7">
+        <f>G24*D$6</f>
+        <v>-7.8975679999999997</v>
+      </c>
+      <c r="P24" s="7">
+        <f>H24*E$6</f>
+        <v>-4.8381466112</v>
+      </c>
+      <c r="Q24" s="7">
+        <f>I24*F$6</f>
+        <v>-8.7958727999999997</v>
+      </c>
+      <c r="S24" s="16">
+        <f>(C24-O24)/C24</f>
+        <v>7.9770756572349648E-6</v>
+      </c>
+      <c r="T24" s="16">
+        <f t="shared" ref="T24:U24" si="12">(D24-P24)/D24</f>
+        <v>7.5211706543340695E-6</v>
+      </c>
+      <c r="U24" s="16">
+        <f t="shared" si="12"/>
+        <v>7.9809521275532574E-6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="C25" s="6">
+        <v>-5.0881020000000001</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0.57968299999999995</v>
+      </c>
+      <c r="E25" s="6">
+        <v>-6.8415309999999998</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6">
+        <v>-1.2720149999999999</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0.137652</v>
+      </c>
+      <c r="I25" s="6">
+        <v>-1.554881</v>
+      </c>
+      <c r="K25" s="6">
+        <f t="shared" ref="K25:K31" si="13">C25/G25</f>
+        <v>4.0000330184785557</v>
+      </c>
+      <c r="L25" s="6">
+        <f t="shared" ref="L25:L31" si="14">D25/H25</f>
+        <v>4.2112210501845233</v>
+      </c>
+      <c r="M25" s="6">
+        <f t="shared" ref="M25:M31" si="15">E25/I25</f>
+        <v>4.4000351152274675</v>
+      </c>
+      <c r="O25" s="7">
+        <f>G25*D$6</f>
+        <v>-5.0880599999999996</v>
+      </c>
+      <c r="P25" s="7">
+        <f>H25*E$6</f>
+        <v>0.57968010240000001</v>
+      </c>
+      <c r="Q25" s="7">
+        <f>I25*F$6</f>
+        <v>-6.8414764000000003</v>
+      </c>
+      <c r="S25" s="16">
+        <f t="shared" ref="S25:S31" si="16">(C25-O25)/C25</f>
+        <v>8.2545515008428685E-6</v>
+      </c>
+      <c r="T25" s="16">
+        <f t="shared" ref="T25:T31" si="17">(D25-P25)/D25</f>
+        <v>4.9985940590638778E-6</v>
+      </c>
+      <c r="U25" s="16">
+        <f t="shared" ref="U25:U31" si="18">(E25-Q25)/E25</f>
+        <v>7.980669823678448E-6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="C26" s="6">
+        <v>-4.3519569999999996</v>
+      </c>
+      <c r="D26" s="6">
+        <v>-4.7496929999999997</v>
+      </c>
+      <c r="E26" s="6">
+        <v>18.352879000000001</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6">
+        <v>-1.0879810000000001</v>
+      </c>
+      <c r="H26" s="6">
+        <v>-1.1278630000000001</v>
+      </c>
+      <c r="I26" s="6">
+        <v>4.1710760000000002</v>
+      </c>
+      <c r="K26" s="6">
+        <f t="shared" si="13"/>
+        <v>4.0000303314120371</v>
+      </c>
+      <c r="L26" s="6">
+        <f t="shared" si="14"/>
+        <v>4.2112322152601864</v>
+      </c>
+      <c r="M26" s="6">
+        <f t="shared" si="15"/>
+        <v>4.4000346673136619</v>
+      </c>
+      <c r="O26" s="7">
+        <f>G26*D$6</f>
+        <v>-4.3519240000000003</v>
+      </c>
+      <c r="P26" s="7">
+        <f>H26*E$6</f>
+        <v>-4.7496566655999999</v>
+      </c>
+      <c r="Q26" s="7">
+        <f>I26*F$6</f>
+        <v>18.352734400000003</v>
+      </c>
+      <c r="S26" s="16">
+        <f t="shared" si="16"/>
+        <v>7.5827955099932293E-6</v>
+      </c>
+      <c r="T26" s="16">
+        <f t="shared" si="17"/>
+        <v>7.6498417897404718E-6</v>
+      </c>
+      <c r="U26" s="16">
+        <f t="shared" si="18"/>
+        <v>7.8788728459833448E-6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="C27" s="6">
+        <v>2.1599819999999998</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0.24160899999999999</v>
+      </c>
+      <c r="E27" s="6">
+        <v>3.0034550000000002</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6">
+        <v>0.539991</v>
+      </c>
+      <c r="H27" s="6">
+        <v>5.7371999999999999E-2</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0.68259800000000004</v>
+      </c>
+      <c r="K27" s="6">
+        <f t="shared" si="13"/>
+        <v>4.000033333888898</v>
+      </c>
+      <c r="L27" s="6">
+        <f t="shared" si="14"/>
+        <v>4.2112703060726489</v>
+      </c>
+      <c r="M27" s="6">
+        <f t="shared" si="15"/>
+        <v>4.4000348667883591</v>
+      </c>
+      <c r="O27" s="7">
+        <f>G27*D$6</f>
+        <v>2.159964</v>
+      </c>
+      <c r="P27" s="7">
+        <f>H27*E$6</f>
+        <v>0.24160496639999998</v>
+      </c>
+      <c r="Q27" s="7">
+        <f>I27*F$6</f>
+        <v>3.0034312000000005</v>
+      </c>
+      <c r="S27" s="16">
+        <f t="shared" si="16"/>
+        <v>8.3334027782877221E-6</v>
+      </c>
+      <c r="T27" s="16">
+        <f t="shared" si="17"/>
+        <v>1.6694742331653704E-5</v>
+      </c>
+      <c r="U27" s="16">
+        <f t="shared" si="18"/>
+        <v>7.9242072878352365E-6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="C28" s="6">
+        <v>2.0551840000000001</v>
+      </c>
+      <c r="D28" s="6">
+        <v>-6.1022629999999998</v>
+      </c>
+      <c r="E28" s="6">
+        <v>-5.1861969999999999</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6">
+        <v>0.51379200000000003</v>
+      </c>
+      <c r="H28" s="6">
+        <v>-1.449044</v>
+      </c>
+      <c r="I28" s="6">
+        <v>-1.1786719999999999</v>
+      </c>
+      <c r="K28" s="6">
+        <f t="shared" si="13"/>
+        <v>4.0000311410064775</v>
+      </c>
+      <c r="L28" s="6">
+        <f t="shared" si="14"/>
+        <v>4.2112337513560663</v>
+      </c>
+      <c r="M28" s="6">
+        <f t="shared" si="15"/>
+        <v>4.4000341061805148</v>
+      </c>
+      <c r="O28" s="7">
+        <f>G28*D$6</f>
+        <v>2.0551680000000001</v>
+      </c>
+      <c r="P28" s="7">
+        <f>H28*E$6</f>
+        <v>-6.1022140927999997</v>
+      </c>
+      <c r="Q28" s="7">
+        <f>I28*F$6</f>
+        <v>-5.1861568</v>
+      </c>
+      <c r="S28" s="16">
+        <f t="shared" si="16"/>
+        <v>7.785191009669208E-6</v>
+      </c>
+      <c r="T28" s="16">
+        <f t="shared" si="17"/>
+        <v>8.0146004851083925E-6</v>
+      </c>
+      <c r="U28" s="16">
+        <f t="shared" si="18"/>
+        <v>7.7513445786835195E-6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="C29" s="6">
+        <v>24.410112000000002</v>
+      </c>
+      <c r="D29" s="6">
+        <v>10.405001</v>
+      </c>
+      <c r="E29" s="6">
+        <v>2.160066</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6">
+        <v>6.1024799999999999</v>
+      </c>
+      <c r="H29" s="6">
+        <v>2.4707729999999999</v>
+      </c>
+      <c r="I29" s="6">
+        <v>0.49092000000000002</v>
+      </c>
+      <c r="K29" s="6">
+        <f t="shared" si="13"/>
+        <v>4.0000314626184768</v>
+      </c>
+      <c r="L29" s="6">
+        <f t="shared" si="14"/>
+        <v>4.2112330837353333</v>
+      </c>
+      <c r="M29" s="6">
+        <f t="shared" si="15"/>
+        <v>4.4000366658518697</v>
+      </c>
+      <c r="O29" s="7">
+        <f>G29*D$6</f>
+        <v>24.40992</v>
+      </c>
+      <c r="P29" s="7">
+        <f>H29*E$6</f>
+        <v>10.4049192576</v>
+      </c>
+      <c r="Q29" s="7">
+        <f>I29*F$6</f>
+        <v>2.1600480000000002</v>
+      </c>
+      <c r="S29" s="16">
+        <f t="shared" si="16"/>
+        <v>7.865592751150357E-6</v>
+      </c>
+      <c r="T29" s="16">
+        <f t="shared" si="17"/>
+        <v>7.8560684425504627E-6</v>
+      </c>
+      <c r="U29" s="16">
+        <f t="shared" si="18"/>
+        <v>8.3330787114150523E-6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" s="25" customFormat="1">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30" s="6">
+        <v>-6.1387609999999997</v>
+      </c>
+      <c r="D30" s="6">
+        <v>-6.1022629999999998</v>
+      </c>
+      <c r="E30" s="6">
+        <v>3.2654679999999998</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6">
+        <v>-1.534678</v>
+      </c>
+      <c r="H30" s="6">
+        <v>-1.449044</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0.74214599999999997</v>
+      </c>
+      <c r="J30"/>
+      <c r="K30" s="6">
+        <f t="shared" si="13"/>
+        <v>4.0000319285218131</v>
+      </c>
+      <c r="L30" s="6">
+        <f t="shared" si="14"/>
+        <v>4.2112337513560663</v>
+      </c>
+      <c r="M30" s="6">
+        <f t="shared" si="15"/>
+        <v>4.4000344945603693</v>
+      </c>
+      <c r="N30"/>
+      <c r="O30" s="7">
+        <f>G30*D$6</f>
+        <v>-6.1387119999999999</v>
+      </c>
+      <c r="P30" s="7">
+        <f>H30*E$6</f>
+        <v>-6.1022140927999997</v>
+      </c>
+      <c r="Q30" s="7">
+        <f>I30*F$6</f>
+        <v>3.2654424</v>
+      </c>
+      <c r="R30"/>
+      <c r="S30" s="16">
+        <f t="shared" si="16"/>
+        <v>7.982066739484352E-6</v>
+      </c>
+      <c r="T30" s="16">
+        <f t="shared" si="17"/>
+        <v>8.0146004851083925E-6</v>
+      </c>
+      <c r="U30" s="16">
+        <f t="shared" si="18"/>
+        <v>7.8396113512207042E-6</v>
+      </c>
+      <c r="V30"/>
+      <c r="W30"/>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="C31" s="6">
+        <v>-5.1488269999999998</v>
+      </c>
+      <c r="D31" s="6">
+        <v>10.566108</v>
+      </c>
+      <c r="E31" s="6">
+        <v>-5.9581970000000002</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6">
+        <v>-1.2871969999999999</v>
+      </c>
+      <c r="H31" s="6">
+        <v>2.509029</v>
+      </c>
+      <c r="I31" s="6">
+        <v>-1.354125</v>
+      </c>
+      <c r="K31" s="6">
+        <f t="shared" si="13"/>
+        <v>4.000030298392554</v>
+      </c>
+      <c r="L31" s="6">
+        <f t="shared" si="14"/>
+        <v>4.211233907619242</v>
+      </c>
+      <c r="M31" s="6">
+        <f t="shared" si="15"/>
+        <v>4.4000347087602698</v>
+      </c>
+      <c r="O31" s="7">
+        <f>G31*D$6</f>
+        <v>-5.1487879999999997</v>
+      </c>
+      <c r="P31" s="7">
+        <f>H31*E$6</f>
+        <v>10.566022924799999</v>
+      </c>
+      <c r="Q31" s="7">
+        <f>I31*F$6</f>
+        <v>-5.9581500000000007</v>
+      </c>
+      <c r="S31" s="16">
+        <f t="shared" si="16"/>
+        <v>7.5745407643570609E-6</v>
+      </c>
+      <c r="T31" s="16">
+        <f t="shared" si="17"/>
+        <v>8.0517064562682689E-6</v>
+      </c>
+      <c r="U31" s="16">
+        <f t="shared" si="18"/>
+        <v>7.8882923809776914E-6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="25"/>
+      <c r="B32" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="24">
+        <f>SUM(C24:C31)</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="24">
+        <f t="shared" ref="D32:F32" si="19">SUM(D24:D31)</f>
+        <v>-9.9999999747524271E-7</v>
+      </c>
+      <c r="E32" s="24">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24">
+        <f t="shared" ref="G32" si="20">SUM(G24:G31)</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="24">
+        <f t="shared" ref="H32:I32" si="21">SUM(H24:H31)</f>
+        <v>-1.000000000139778E-6</v>
+      </c>
+      <c r="I32" s="24">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24">
+        <f t="shared" ref="O32" si="22">SUM(O24:O31)</f>
+        <v>0</v>
+      </c>
+      <c r="P32" s="24">
+        <f t="shared" ref="P32" si="23">SUM(P24:P31)</f>
+        <v>-4.2112000002703098E-6</v>
+      </c>
+      <c r="Q32" s="24">
+        <f t="shared" ref="Q32" si="24">SUM(Q24:Q31)</f>
+        <v>0</v>
+      </c>
+      <c r="R32" s="24"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
+    </row>
+    <row r="33" spans="3:13">
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+    </row>
+    <row r="36" spans="3:13">
+      <c r="C36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13">
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13">
+      <c r="C38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="19">
+        <v>79.400058999999999</v>
+      </c>
+      <c r="E38" s="7">
+        <f>C59</f>
+        <v>32.470947800000005</v>
+      </c>
+      <c r="F38" s="21">
+        <f>(D38-E38)/D38</f>
+        <v>0.5910463013635795</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13">
+      <c r="C39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="19">
+        <v>61.889170999999997</v>
+      </c>
+      <c r="E39" s="7">
+        <f>D59</f>
+        <v>-23.899365012992</v>
+      </c>
+      <c r="F39" s="21">
+        <f t="shared" ref="F39:F43" si="25">(D39-E39)/D39</f>
+        <v>1.3861639221664805</v>
+      </c>
+    </row>
+    <row r="40" spans="3:13">
+      <c r="C40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="19">
+        <v>51.230969000000002</v>
+      </c>
+      <c r="E40" s="7">
+        <f>E59</f>
+        <v>22.846439616000005</v>
+      </c>
+      <c r="F40" s="21">
+        <f t="shared" si="25"/>
+        <v>0.55405021490028805</v>
+      </c>
+    </row>
+    <row r="41" spans="3:13">
+      <c r="C41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="19">
+        <v>0.28902899999999998</v>
+      </c>
+      <c r="E41" s="7">
+        <f>F59</f>
+        <v>-5.3575217725120012</v>
+      </c>
+      <c r="F41" s="21">
+        <f t="shared" si="25"/>
+        <v>19.536277579453969</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13">
+      <c r="C42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="19">
+        <v>1.0367519999999999</v>
+      </c>
+      <c r="E42" s="7">
+        <f>G59</f>
+        <v>3.9395327560000037</v>
+      </c>
+      <c r="F42" s="21">
+        <f t="shared" si="25"/>
+        <v>-2.799879581616437</v>
+      </c>
+    </row>
+    <row r="43" spans="3:13">
+      <c r="C43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="19">
+        <v>0.18586</v>
+      </c>
+      <c r="E43" s="7">
+        <f>H59</f>
+        <v>-7.8563138910399983</v>
+      </c>
+      <c r="F43" s="21">
+        <f t="shared" si="25"/>
+        <v>43.270062902399651</v>
+      </c>
+    </row>
+    <row r="45" spans="3:13">
+      <c r="C45" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="19">
+        <f>SUM(D38:D40)</f>
+        <v>192.52019899999999</v>
+      </c>
+    </row>
+    <row r="46" spans="3:13">
+      <c r="C46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" s="19">
+        <f>SUM(D38:D43)</f>
+        <v>194.03183999999999</v>
+      </c>
+      <c r="F46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16">
+      <c r="C49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16">
+      <c r="C50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" t="s">
+        <v>31</v>
+      </c>
+      <c r="H50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16">
+      <c r="C51" s="7">
+        <f>C24*H8</f>
+        <v>-1.5795262000000001</v>
+      </c>
+      <c r="D51" s="7">
+        <f>D24*I8</f>
+        <v>0</v>
+      </c>
+      <c r="E51" s="7">
+        <f>E24*J8</f>
+        <v>0</v>
+      </c>
+      <c r="F51" s="19">
+        <f>0.5*J8*D24+0.5*E24*I8</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="19">
+        <f>0.5*(C24*J8+E24*H8)</f>
+        <v>-0.87959429999999994</v>
+      </c>
+      <c r="H51" s="19">
+        <f>0.5*(C24*I8+D24*H8)</f>
+        <v>-0.48381830000000003</v>
+      </c>
+      <c r="I51" s="7"/>
+      <c r="J51" s="6">
+        <f>ABS(C51)</f>
+        <v>1.5795262000000001</v>
+      </c>
+      <c r="K51" s="6">
+        <f t="shared" ref="K51:O51" si="26">ABS(D51)</f>
+        <v>0</v>
+      </c>
+      <c r="L51" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N51" s="6">
+        <f t="shared" si="26"/>
+        <v>0.87959429999999994</v>
+      </c>
+      <c r="O51" s="6">
+        <f t="shared" si="26"/>
+        <v>0.48381830000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16">
+      <c r="C52" s="7">
+        <f>C25*H9</f>
+        <v>-10.176204</v>
+      </c>
+      <c r="D52" s="7">
+        <f>D25*I9</f>
+        <v>1.2694037457919998</v>
+      </c>
+      <c r="E52" s="7">
+        <f>E25*J9</f>
+        <v>0</v>
+      </c>
+      <c r="F52" s="19">
+        <f>0.5*J9*D25+0.5*E25*I9</f>
+        <v>-7.4908743902719994</v>
+      </c>
+      <c r="G52" s="19">
+        <f>0.5*(C25*J9+E25*H9)</f>
+        <v>-6.8415309999999998</v>
+      </c>
+      <c r="H52" s="19">
+        <f>0.5*(C25*I9+D25*H9)</f>
+        <v>-4.9913409370239989</v>
+      </c>
+      <c r="I52" s="7"/>
+      <c r="J52" s="6">
+        <f t="shared" ref="J52:J58" si="27">ABS(C52)</f>
+        <v>10.176204</v>
+      </c>
+      <c r="K52" s="6">
+        <f t="shared" ref="K52:K58" si="28">ABS(D52)</f>
+        <v>1.2694037457919998</v>
+      </c>
+      <c r="L52" s="6">
+        <f t="shared" ref="L52:L58" si="29">ABS(E52)</f>
+        <v>0</v>
+      </c>
+      <c r="M52" s="6">
+        <f t="shared" ref="M52:M58" si="30">ABS(F52)</f>
+        <v>7.4908743902719994</v>
+      </c>
+      <c r="N52" s="6">
+        <f t="shared" ref="N52:N58" si="31">ABS(G52)</f>
+        <v>6.8415309999999998</v>
+      </c>
+      <c r="O52" s="6">
+        <f t="shared" ref="O52:O58" si="32">ABS(H52)</f>
+        <v>4.9913409370239989</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16">
+      <c r="C53" s="7">
+        <f>C26*H10</f>
+        <v>-8.7039139999999993</v>
+      </c>
+      <c r="D53" s="7">
+        <f>D26*I10</f>
+        <v>0</v>
+      </c>
+      <c r="E53" s="7">
+        <f>E26*J10</f>
+        <v>40.376333800000005</v>
+      </c>
+      <c r="F53" s="19">
+        <f>0.5*J10*D26+0.5*E26*I10</f>
+        <v>-5.2246623000000003</v>
+      </c>
+      <c r="G53" s="19">
+        <f>0.5*(C26*J10+E26*H10)</f>
+        <v>13.565726300000001</v>
+      </c>
+      <c r="H53" s="19">
+        <f>0.5*(C26*I10+D26*H10)</f>
+        <v>-4.7496929999999997</v>
+      </c>
+      <c r="I53" s="7"/>
+      <c r="J53" s="6">
+        <f t="shared" si="27"/>
+        <v>8.7039139999999993</v>
+      </c>
+      <c r="K53" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="L53" s="6">
+        <f t="shared" si="29"/>
+        <v>40.376333800000005</v>
+      </c>
+      <c r="M53" s="6">
+        <f t="shared" si="30"/>
+        <v>5.2246623000000003</v>
+      </c>
+      <c r="N53" s="6">
+        <f t="shared" si="31"/>
+        <v>13.565726300000001</v>
+      </c>
+      <c r="O53" s="6">
+        <f t="shared" si="32"/>
+        <v>4.7496929999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16">
+      <c r="C54" s="7">
+        <f>C27*H11</f>
+        <v>0</v>
+      </c>
+      <c r="D54" s="7">
+        <f>D27*I11</f>
+        <v>0.52908118681599992</v>
+      </c>
+      <c r="E54" s="7">
+        <f>E27*J11</f>
+        <v>6.6076010000000007</v>
+      </c>
+      <c r="F54" s="19">
+        <f>0.5*J11*D27+0.5*E27*I11</f>
+        <v>3.5542888209600001</v>
+      </c>
+      <c r="G54" s="19">
+        <f>0.5*(C27*J11+E27*H11)</f>
+        <v>2.3759801999999999</v>
+      </c>
+      <c r="H54" s="19">
+        <f>0.5*(C27*I11+D27*H11)</f>
+        <v>2.3649902115839998</v>
+      </c>
+      <c r="I54" s="7"/>
+      <c r="J54" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="6">
+        <f t="shared" si="28"/>
+        <v>0.52908118681599992</v>
+      </c>
+      <c r="L54" s="6">
+        <f t="shared" si="29"/>
+        <v>6.6076010000000007</v>
+      </c>
+      <c r="M54" s="6">
+        <f t="shared" si="30"/>
+        <v>3.5542888209600001</v>
+      </c>
+      <c r="N54" s="6">
+        <f t="shared" si="31"/>
+        <v>2.3759801999999999</v>
+      </c>
+      <c r="O54" s="6">
+        <f t="shared" si="32"/>
+        <v>2.3649902115839998</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16">
+      <c r="C55" s="7">
+        <f>C28*H12</f>
+        <v>4.1103680000000002</v>
+      </c>
+      <c r="D55" s="7">
+        <f>D28*I12</f>
+        <v>-12.848924972799999</v>
+      </c>
+      <c r="E55" s="7">
+        <f>E28*J12</f>
+        <v>-11.409633400000001</v>
+      </c>
+      <c r="F55" s="19">
+        <f>0.5*J12*D28+0.5*E28*I12</f>
+        <v>-12.172517501600002</v>
+      </c>
+      <c r="G55" s="19">
+        <f>0.5*(C28*J12+E28*H12)</f>
+        <v>-2.9254945999999995</v>
+      </c>
+      <c r="H55" s="19">
+        <f>0.5*(C28*I12+D28*H12)</f>
+        <v>-3.9385652847999997</v>
+      </c>
+      <c r="I55" s="7"/>
+      <c r="J55" s="6">
+        <f t="shared" si="27"/>
+        <v>4.1103680000000002</v>
+      </c>
+      <c r="K55" s="6">
+        <f t="shared" si="28"/>
+        <v>12.848924972799999</v>
+      </c>
+      <c r="L55" s="6">
+        <f t="shared" si="29"/>
+        <v>11.409633400000001</v>
+      </c>
+      <c r="M55" s="6">
+        <f t="shared" si="30"/>
+        <v>12.172517501600002</v>
+      </c>
+      <c r="N55" s="6">
+        <f t="shared" si="31"/>
+        <v>2.9254945999999995</v>
+      </c>
+      <c r="O55" s="6">
+        <f t="shared" si="32"/>
+        <v>3.9385652847999997</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16">
+      <c r="C56" s="7">
+        <f>C29*H13</f>
+        <v>48.820224000000003</v>
+      </c>
+      <c r="D56" s="7">
+        <f>D29*I13</f>
+        <v>0</v>
+      </c>
+      <c r="E56" s="7">
+        <f>E29*J13</f>
+        <v>0.38017161600000005</v>
+      </c>
+      <c r="F56" s="19">
+        <f>0.5*J13*D29+0.5*E29*I13</f>
+        <v>0.91564008800000007</v>
+      </c>
+      <c r="G56" s="19">
+        <f>0.5*(C29*J13+E29*H13)</f>
+        <v>4.3081558560000008</v>
+      </c>
+      <c r="H56" s="19">
+        <f>0.5*(C29*I13+D29*H13)</f>
+        <v>10.405001</v>
+      </c>
+      <c r="I56" s="7"/>
+      <c r="J56" s="6">
+        <f t="shared" si="27"/>
+        <v>48.820224000000003</v>
+      </c>
+      <c r="K56" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="L56" s="6">
+        <f t="shared" si="29"/>
+        <v>0.38017161600000005</v>
+      </c>
+      <c r="M56" s="6">
+        <f t="shared" si="30"/>
+        <v>0.91564008800000007</v>
+      </c>
+      <c r="N56" s="6">
+        <f t="shared" si="31"/>
+        <v>4.3081558560000008</v>
+      </c>
+      <c r="O56" s="6">
+        <f t="shared" si="32"/>
+        <v>10.405001</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16">
+      <c r="C57" s="7">
+        <f>C30*H14</f>
+        <v>0</v>
+      </c>
+      <c r="D57" s="7">
+        <f>D30*I14</f>
+        <v>-12.848924972799999</v>
+      </c>
+      <c r="E57" s="7">
+        <f>E30*J14</f>
+        <v>0</v>
+      </c>
+      <c r="F57" s="19">
+        <f>0.5*J14*D30+0.5*E30*I14</f>
+        <v>3.4378847103999997</v>
+      </c>
+      <c r="G57" s="19">
+        <f>0.5*(C30*J14+E30*H14)</f>
+        <v>0</v>
+      </c>
+      <c r="H57" s="19">
+        <f>0.5*(C30*I14+D30*H14)</f>
+        <v>-6.4628875807999995</v>
+      </c>
+      <c r="I57" s="7"/>
+      <c r="J57" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="6">
+        <f t="shared" si="28"/>
+        <v>12.848924972799999</v>
+      </c>
+      <c r="L57" s="6">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="6">
+        <f t="shared" si="30"/>
+        <v>3.4378847103999997</v>
+      </c>
+      <c r="N57" s="6">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="O57" s="6">
+        <f t="shared" si="32"/>
+        <v>6.4628875807999995</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16">
+      <c r="C58" s="7">
+        <f>C31*H15</f>
+        <v>0</v>
+      </c>
+      <c r="D58" s="7">
+        <f>D31*I15</f>
+        <v>0</v>
+      </c>
+      <c r="E58" s="7">
+        <f>E31*J15</f>
+        <v>-13.108033400000002</v>
+      </c>
+      <c r="F58" s="19">
+        <f>0.5*J15*D31+0.5*E31*I15</f>
+        <v>11.622718800000001</v>
+      </c>
+      <c r="G58" s="19">
+        <f>0.5*(C31*J15+E31*H15)</f>
+        <v>-5.6637097000000001</v>
+      </c>
+      <c r="H58" s="19">
+        <f>0.5*(C31*I15+D31*H15)</f>
+        <v>0</v>
+      </c>
+      <c r="I58" s="7"/>
+      <c r="J58" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="L58" s="6">
+        <f t="shared" si="29"/>
+        <v>13.108033400000002</v>
+      </c>
+      <c r="M58" s="6">
+        <f t="shared" si="30"/>
+        <v>11.622718800000001</v>
+      </c>
+      <c r="N58" s="6">
+        <f t="shared" si="31"/>
+        <v>5.6637097000000001</v>
+      </c>
+      <c r="O58" s="6">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16">
+      <c r="B59" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="26">
+        <f>SUM(C51:C58)</f>
+        <v>32.470947800000005</v>
+      </c>
+      <c r="D59" s="26">
+        <f t="shared" ref="D59:F59" si="33">SUM(D51:D58)</f>
+        <v>-23.899365012992</v>
+      </c>
+      <c r="E59" s="26">
+        <f t="shared" si="33"/>
+        <v>22.846439616000005</v>
+      </c>
+      <c r="F59" s="26">
+        <f t="shared" ref="F59" si="34">SUM(F51:F58)</f>
+        <v>-5.3575217725120012</v>
+      </c>
+      <c r="G59" s="26">
+        <f t="shared" ref="G59:H59" si="35">SUM(G51:G58)</f>
+        <v>3.9395327560000037</v>
+      </c>
+      <c r="H59" s="26">
+        <f t="shared" si="35"/>
+        <v>-7.8563138910399983</v>
+      </c>
+      <c r="I59" s="7"/>
+      <c r="J59" s="26">
+        <f>SUM(J51:J58)</f>
+        <v>73.390236200000004</v>
+      </c>
+      <c r="K59" s="26">
+        <f t="shared" ref="K59:O59" si="36">SUM(K51:K58)</f>
+        <v>27.496334878207996</v>
+      </c>
+      <c r="L59" s="26">
+        <f t="shared" si="36"/>
+        <v>71.881773215999999</v>
+      </c>
+      <c r="M59" s="26">
+        <f t="shared" si="36"/>
+        <v>44.418586611232001</v>
+      </c>
+      <c r="N59" s="26">
+        <f t="shared" si="36"/>
+        <v>36.560191956000004</v>
+      </c>
+      <c r="O59" s="26">
+        <f t="shared" si="36"/>
+        <v>33.396296314208001</v>
+      </c>
+      <c r="P59" s="7"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AEEC43B-18CA-D24E-A264-E98DB9E2B980}">
+  <dimension ref="C2:U14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O23" sqref="N22:O23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="19" max="20" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:21">
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="3:21">
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="3:21">
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="6">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6">
+        <v>4.2111999999999998</v>
+      </c>
+      <c r="F5" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="3:21">
+      <c r="D6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="3:21">
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="7">
+        <v>-192.52819099000001</v>
+      </c>
+      <c r="E7" s="7">
+        <v>-192.51239514</v>
+      </c>
+      <c r="F7" s="7">
+        <v>-192.52504838999999</v>
+      </c>
+      <c r="G7" s="7">
+        <v>-192.51537206</v>
+      </c>
+      <c r="H7" s="7">
+        <v>-192.52896471</v>
+      </c>
+      <c r="I7" s="7">
+        <v>-192.51137301</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7">
+        <f>(D7-E7)/(2*$D$3*D$5)</f>
+        <v>-1.9744812500022135</v>
+      </c>
+      <c r="L7" s="7">
+        <f>(F7-G7)/(2*$D$3*E$5)</f>
+        <v>-1.1488803666402314</v>
+      </c>
+      <c r="M7" s="7">
+        <f>(H7-I7)/(2*$D$3*F$5)</f>
+        <v>-1.9990568181814761</v>
+      </c>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7">
+        <v>-1.9743919999999999</v>
+      </c>
+      <c r="P7" s="7">
+        <v>-1.148876</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>-1.9990619999999999</v>
+      </c>
+      <c r="R7" s="7"/>
+      <c r="S7" s="18">
+        <f>(O7-K7)/O7</f>
+        <v>-4.5203790439590193E-5</v>
+      </c>
+      <c r="T7" s="18">
+        <f t="shared" ref="T7:U7" si="0">(P7-L7)/P7</f>
+        <v>-3.8007933244330283E-6</v>
+      </c>
+      <c r="U7" s="18">
+        <f t="shared" si="0"/>
+        <v>2.5921249685227592E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:21">
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="7">
+        <v>-192.52536520000001</v>
+      </c>
+      <c r="E8" s="7">
+        <v>-192.51518905</v>
+      </c>
+      <c r="F8" s="7">
+        <v>-192.51963900000001</v>
+      </c>
+      <c r="G8" s="7">
+        <v>-192.52079809</v>
+      </c>
+      <c r="H8" s="7">
+        <v>-192.52702052999999</v>
+      </c>
+      <c r="I8" s="7">
+        <v>-192.5133376</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7">
+        <f t="shared" ref="K8:K14" si="1">(D8-E8)/(2*$D$3*D$5)</f>
+        <v>-1.2720187500008251</v>
+      </c>
+      <c r="L8" s="7">
+        <f t="shared" ref="L8:L14" si="2">(F8-G8)/(2*$D$3*E$5)</f>
+        <v>0.13761991831157067</v>
+      </c>
+      <c r="M8" s="7">
+        <f t="shared" ref="M8:M14" si="3">(H8-I8)/(2*$D$3*F$5)</f>
+        <v>-1.5548784090894814</v>
+      </c>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7">
+        <v>-1.2720149999999999</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0.137652</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>-1.554881</v>
+      </c>
+      <c r="R8" s="7"/>
+      <c r="S8" s="18">
+        <f t="shared" ref="S8:S14" si="4">(O8-K8)/O8</f>
+        <v>-2.9480790912039798E-6</v>
+      </c>
+      <c r="T8" s="18">
+        <f t="shared" ref="T8:T14" si="5">(P8-L8)/P8</f>
+        <v>2.3306372903648826E-4</v>
+      </c>
+      <c r="U8" s="18">
+        <f t="shared" ref="U8:U14" si="6">(Q8-M8)/Q8</f>
+        <v>1.6663079158945048E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="3:21">
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="7">
+        <v>-192.52462664999999</v>
+      </c>
+      <c r="E9" s="7">
+        <v>-192.51592278000001</v>
+      </c>
+      <c r="F9" s="7">
+        <v>-192.52496901999999</v>
+      </c>
+      <c r="G9" s="7">
+        <v>-192.51546966999999</v>
+      </c>
+      <c r="H9" s="7">
+        <v>-192.50182810000001</v>
+      </c>
+      <c r="I9" s="7">
+        <v>-192.53853412999999</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7">
+        <f t="shared" si="1"/>
+        <v>-1.087983749997079</v>
+      </c>
+      <c r="L9" s="7">
+        <f t="shared" si="2"/>
+        <v>-1.1278673537232482</v>
+      </c>
+      <c r="M9" s="7">
+        <f t="shared" si="3"/>
+        <v>4.171139772724592</v>
+      </c>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7">
+        <v>-1.0879810000000001</v>
+      </c>
+      <c r="P9" s="7">
+        <v>-1.1278630000000001</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>4.1710760000000002</v>
+      </c>
+      <c r="R9" s="7"/>
+      <c r="S9" s="18">
+        <f t="shared" si="4"/>
+        <v>-2.5276149849524232E-6</v>
+      </c>
+      <c r="T9" s="18">
+        <f t="shared" si="5"/>
+        <v>-3.860152561206937E-6</v>
+      </c>
+      <c r="U9" s="18">
+        <f t="shared" si="6"/>
+        <v>-1.5289274180521513E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="3:21">
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="7">
+        <v>-192.51811373000001</v>
+      </c>
+      <c r="E10" s="7">
+        <v>-192.52243365999999</v>
+      </c>
+      <c r="F10" s="7">
+        <v>-192.51998560000001</v>
+      </c>
+      <c r="G10" s="7">
+        <v>-192.52046854</v>
+      </c>
+      <c r="H10" s="7">
+        <v>-192.51717047</v>
+      </c>
+      <c r="I10" s="7">
+        <v>-192.52317733999999</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7">
+        <f t="shared" si="1"/>
+        <v>0.5399912499974846</v>
+      </c>
+      <c r="L10" s="7">
+        <f t="shared" si="2"/>
+        <v>5.7339950605943726E-2</v>
+      </c>
+      <c r="M10" s="7">
+        <f t="shared" si="3"/>
+        <v>0.68259886363558109</v>
+      </c>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7">
+        <v>0.539991</v>
+      </c>
+      <c r="P10" s="7">
+        <v>5.7371999999999999E-2</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>0.68259800000000004</v>
+      </c>
+      <c r="R10" s="7"/>
+      <c r="S10" s="18">
+        <f t="shared" si="4"/>
+        <v>-4.6296602092004791E-7</v>
+      </c>
+      <c r="T10" s="18">
+        <f t="shared" si="5"/>
+        <v>5.5862431249168571E-4</v>
+      </c>
+      <c r="U10" s="18">
+        <f t="shared" si="6"/>
+        <v>-1.2652184463620587E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="3:21">
+      <c r="C11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="7">
+        <v>-192.51822000999999</v>
+      </c>
+      <c r="E11" s="7">
+        <v>-192.52233036000001</v>
+      </c>
+      <c r="F11" s="7">
+        <v>-192.52632445</v>
+      </c>
+      <c r="G11" s="7">
+        <v>-192.51412002999999</v>
+      </c>
+      <c r="H11" s="7">
+        <v>-192.52536355000001</v>
+      </c>
+      <c r="I11" s="7">
+        <v>-192.5149912</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7">
+        <f t="shared" si="1"/>
+        <v>0.51379375000237815</v>
+      </c>
+      <c r="L11" s="7">
+        <f t="shared" si="2"/>
+        <v>-1.4490430281175835</v>
+      </c>
+      <c r="M11" s="7">
+        <f t="shared" si="3"/>
+        <v>-1.1786761363649392</v>
+      </c>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7">
+        <v>0.51379200000000003</v>
+      </c>
+      <c r="P11" s="7">
+        <v>-1.449044</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>-1.1786719999999999</v>
+      </c>
+      <c r="R11" s="7"/>
+      <c r="S11" s="18">
+        <f t="shared" si="4"/>
+        <v>-3.4060522120240983E-6</v>
+      </c>
+      <c r="T11" s="18">
+        <f t="shared" si="5"/>
+        <v>6.7070593891213805E-7</v>
+      </c>
+      <c r="U11" s="18">
+        <f t="shared" si="6"/>
+        <v>-3.5093435147635787E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="3:21">
+      <c r="C12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="7">
+        <v>-192.49587088999999</v>
+      </c>
+      <c r="E12" s="7">
+        <v>-192.54469148000001</v>
+      </c>
+      <c r="F12" s="7">
+        <v>-192.50980415999999</v>
+      </c>
+      <c r="G12" s="7">
+        <v>-192.53061428000001</v>
+      </c>
+      <c r="H12" s="7">
+        <v>-192.51802455999999</v>
+      </c>
+      <c r="I12" s="7">
+        <v>-192.5223441</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7">
+        <f t="shared" si="1"/>
+        <v>6.1025737500024491</v>
+      </c>
+      <c r="L12" s="7">
+        <f t="shared" si="2"/>
+        <v>2.4708064209751934</v>
+      </c>
+      <c r="M12" s="7">
+        <f t="shared" si="3"/>
+        <v>0.49085681818313143</v>
+      </c>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7">
+        <v>6.1024799999999999</v>
+      </c>
+      <c r="P12" s="7">
+        <v>2.4707729999999999</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>0.49092000000000002</v>
+      </c>
+      <c r="R12" s="7"/>
+      <c r="S12" s="18">
+        <f t="shared" si="4"/>
+        <v>-1.5362607079278513E-5</v>
+      </c>
+      <c r="T12" s="18">
+        <f t="shared" si="5"/>
+        <v>-1.3526525987431164E-5</v>
+      </c>
+      <c r="U12" s="18">
+        <f t="shared" si="6"/>
+        <v>1.2870084100993241E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="3:21">
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="7">
+        <v>-192.52641899</v>
+      </c>
+      <c r="E13" s="7">
+        <v>-192.51414156999999</v>
+      </c>
+      <c r="F13" s="7">
+        <v>-192.52632069000001</v>
+      </c>
+      <c r="G13" s="7">
+        <v>-192.51411628</v>
+      </c>
+      <c r="H13" s="7">
+        <v>-192.51690987000001</v>
+      </c>
+      <c r="I13" s="7">
+        <v>-192.52344074999999</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7">
+        <f t="shared" si="1"/>
+        <v>-1.5346775000004698</v>
+      </c>
+      <c r="L13" s="7">
+        <f t="shared" si="2"/>
+        <v>-1.4490418408066112</v>
+      </c>
+      <c r="M13" s="7">
+        <f t="shared" si="3"/>
+        <v>0.74214545454380365</v>
+      </c>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7">
+        <v>-1.534678</v>
+      </c>
+      <c r="P13" s="7">
+        <v>-1.449044</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>0.74214599999999997</v>
+      </c>
+      <c r="R13" s="7"/>
+      <c r="S13" s="18">
+        <f t="shared" si="4"/>
+        <v>3.2580093688937027E-7</v>
+      </c>
+      <c r="T13" s="18">
+        <f t="shared" si="5"/>
+        <v>1.490081314819312E-6</v>
+      </c>
+      <c r="U13" s="18">
+        <f t="shared" si="6"/>
+        <v>7.3497155050543058E-7</v>
+      </c>
+    </row>
+    <row r="14" spans="3:21">
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="7">
+        <v>-192.5254262</v>
+      </c>
+      <c r="E14" s="7">
+        <v>-192.51512862999999</v>
+      </c>
+      <c r="F14" s="7">
+        <v>-192.50965907</v>
+      </c>
+      <c r="G14" s="7">
+        <v>-192.53079141000001</v>
+      </c>
+      <c r="H14" s="7">
+        <v>-192.52612958</v>
+      </c>
+      <c r="I14" s="7">
+        <v>-192.51421323</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7">
+        <f t="shared" si="1"/>
+        <v>-1.2871962500007328</v>
+      </c>
+      <c r="L14" s="7">
+        <f t="shared" si="2"/>
+        <v>2.5090639247730215</v>
+      </c>
+      <c r="M14" s="7">
+        <f t="shared" si="3"/>
+        <v>-1.3541306818189789</v>
+      </c>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7">
+        <v>-1.2871969999999999</v>
+      </c>
+      <c r="P14" s="7">
+        <v>2.509029</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>-1.354125</v>
+      </c>
+      <c r="R14" s="7"/>
+      <c r="S14" s="18">
+        <f t="shared" si="4"/>
+        <v>5.8266082591521945E-7</v>
+      </c>
+      <c r="T14" s="18">
+        <f t="shared" si="5"/>
+        <v>-1.3919637047472518E-5</v>
+      </c>
+      <c r="U14" s="18">
+        <f t="shared" si="6"/>
+        <v>-4.1959338900502746E-6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A587DBC6-6491-634F-8545-EB1CE76A2D50}">
   <dimension ref="B3:AD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1851,7 +4364,7 @@
     <col min="23" max="30" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:23">
+    <row r="3" spans="2:27">
       <c r="H3" s="1">
         <v>8</v>
       </c>
@@ -1859,7 +4372,16 @@
       <c r="J3" s="4"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="3:23">
+    <row r="4" spans="2:27">
+      <c r="C4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
       <c r="H4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1874,7 +4396,10 @@
         <v>-0.32559387749875712</v>
       </c>
     </row>
-    <row r="5" spans="3:23">
+    <row r="5" spans="2:27">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
       <c r="C5" s="6" t="s">
         <v>22</v>
       </c>
@@ -1901,11 +4426,36 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-    </row>
-    <row r="6" spans="3:23">
+      <c r="P5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="T5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U5" t="s">
+        <v>37</v>
+      </c>
+      <c r="V5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27">
+      <c r="B6">
+        <f>ABS(C6)</f>
+        <v>4.6545589999999999</v>
+      </c>
       <c r="C6" s="6">
         <v>-4.6545589999999999</v>
       </c>
@@ -1954,8 +4504,40 @@
       <c r="R6" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="3:23">
+      <c r="T6" s="19">
+        <f>P6*L$6</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="19">
+        <f t="shared" ref="U6:V6" si="1">Q6*M$6</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="6">
+        <f>SQRT(T6*T6+U6*U6+V6*V6)</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="6" t="e">
+        <f>C6/W6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z6" s="6">
+        <f>U6*C6</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="6">
+        <f>Q6*C6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27">
+      <c r="B7">
+        <f t="shared" ref="B7:B13" si="2">ABS(C7)</f>
+        <v>2.4303000000000002E-2</v>
+      </c>
       <c r="C7" s="6">
         <v>2.4303000000000002E-2</v>
       </c>
@@ -1963,11 +4545,11 @@
         <v>5.7710000000000001E-3</v>
       </c>
       <c r="E7" s="16">
-        <f t="shared" ref="E7:E12" si="1">(C7-D7)/C7</f>
+        <f t="shared" ref="E7:E12" si="3">(C7-D7)/C7</f>
         <v>0.76253960416409494</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:F13" si="2">C7/D7</f>
+        <f t="shared" ref="F7:F13" si="4">C7/D7</f>
         <v>4.2112285565759837</v>
       </c>
       <c r="H7" s="1"/>
@@ -1989,8 +4571,40 @@
       <c r="R7" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="3:23">
+      <c r="T7" s="19">
+        <f t="shared" ref="T7:T13" si="5">P7*L$6</f>
+        <v>2.1055999999999999</v>
+      </c>
+      <c r="U7" s="19">
+        <f t="shared" ref="U7:U13" si="6">Q7*M$6</f>
+        <v>2.1898239999999998</v>
+      </c>
+      <c r="V7" s="19">
+        <f t="shared" ref="V7:V13" si="7">R7*N$6</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="6">
+        <f t="shared" ref="W7:W13" si="8">SQRT(T7*T7+U7*U7+V7*V7)</f>
+        <v>3.037907258455399</v>
+      </c>
+      <c r="X7" s="6">
+        <f t="shared" ref="X7:X13" si="9">C7/W7</f>
+        <v>7.9999150508487469E-3</v>
+      </c>
+      <c r="Z7" s="6">
+        <f t="shared" ref="Z7:Z13" si="10">U7*C7</f>
+        <v>5.3219292671999999E-2</v>
+      </c>
+      <c r="AA7" s="6">
+        <f t="shared" ref="AA7:AA13" si="11">Q7*C7</f>
+        <v>1.2637560000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27">
+      <c r="B8">
+        <f t="shared" si="2"/>
+        <v>4.6545589999999999</v>
+      </c>
       <c r="C8" s="6">
         <v>-4.6545589999999999</v>
       </c>
@@ -1998,11 +4612,11 @@
         <v>-1.105272</v>
       </c>
       <c r="E8" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.76253990979596553</v>
       </c>
       <c r="F8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.2112339767948521</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -2026,8 +4640,40 @@
       <c r="R8" s="6">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="9" spans="3:23">
+      <c r="T8" s="19">
+        <f t="shared" si="5"/>
+        <v>2.1055999999999999</v>
+      </c>
+      <c r="U8" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="19">
+        <f t="shared" si="7"/>
+        <v>2.1055999999999999</v>
+      </c>
+      <c r="W8" s="6">
+        <f t="shared" si="8"/>
+        <v>2.9777680769327888</v>
+      </c>
+      <c r="X8" s="6">
+        <f t="shared" si="9"/>
+        <v>-1.5631032638359021</v>
+      </c>
+      <c r="Z8" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27">
+      <c r="B9">
+        <f t="shared" si="2"/>
+        <v>2.4303000000000002E-2</v>
+      </c>
       <c r="C9" s="6">
         <v>2.4303000000000002E-2</v>
       </c>
@@ -2035,11 +4681,11 @@
         <v>5.7710000000000001E-3</v>
       </c>
       <c r="E9" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.76253960416409494</v>
       </c>
       <c r="F9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.2112285565759837</v>
       </c>
       <c r="H9" s="4">
@@ -2063,8 +4709,40 @@
       <c r="R9" s="6">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="10" spans="3:23">
+      <c r="T9" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="19">
+        <f t="shared" si="6"/>
+        <v>2.1898239999999998</v>
+      </c>
+      <c r="V9" s="19">
+        <f t="shared" si="7"/>
+        <v>2.1055999999999999</v>
+      </c>
+      <c r="W9" s="6">
+        <f t="shared" si="8"/>
+        <v>3.037907258455399</v>
+      </c>
+      <c r="X9" s="6">
+        <f t="shared" si="9"/>
+        <v>7.9999150508487469E-3</v>
+      </c>
+      <c r="Z9" s="6">
+        <f t="shared" si="10"/>
+        <v>5.3219292671999999E-2</v>
+      </c>
+      <c r="AA9" s="6">
+        <f t="shared" si="11"/>
+        <v>1.2637560000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27">
+      <c r="B10">
+        <f t="shared" si="2"/>
+        <v>5.9154900000000001</v>
+      </c>
       <c r="C10" s="6">
         <v>-5.9154900000000001</v>
       </c>
@@ -2072,11 +4750,11 @@
         <v>-1.404693</v>
       </c>
       <c r="E10" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.76253987412707991</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.2112333442253931</v>
       </c>
       <c r="H10" s="4">
@@ -2100,8 +4778,40 @@
       <c r="R10" s="6">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="11" spans="3:23">
+      <c r="T10" s="19">
+        <f t="shared" si="5"/>
+        <v>2.1055999999999999</v>
+      </c>
+      <c r="U10" s="19">
+        <f t="shared" si="6"/>
+        <v>2.1055999999999999</v>
+      </c>
+      <c r="V10" s="19">
+        <f t="shared" si="7"/>
+        <v>2.1055999999999999</v>
+      </c>
+      <c r="W10" s="6">
+        <f t="shared" si="8"/>
+        <v>3.6470061804170282</v>
+      </c>
+      <c r="X10" s="6">
+        <f t="shared" si="9"/>
+        <v>-1.6220126063300433</v>
+      </c>
+      <c r="Z10" s="6">
+        <f t="shared" si="10"/>
+        <v>-12.455655744</v>
+      </c>
+      <c r="AA10" s="6">
+        <f t="shared" si="11"/>
+        <v>-2.9577450000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27">
+      <c r="B11">
+        <f t="shared" si="2"/>
+        <v>10.545745</v>
+      </c>
       <c r="C11" s="6">
         <v>10.545745</v>
       </c>
@@ -2109,11 +4819,11 @@
         <v>2.504194</v>
       </c>
       <c r="E11" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.76253986797518813</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.2112332351247543</v>
       </c>
       <c r="H11" s="4">
@@ -2137,8 +4847,40 @@
       <c r="R11" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="3:23">
+      <c r="T11" s="19">
+        <f t="shared" si="5"/>
+        <v>2.1055999999999999</v>
+      </c>
+      <c r="U11" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="6">
+        <f t="shared" si="8"/>
+        <v>2.1055999999999999</v>
+      </c>
+      <c r="X11" s="6">
+        <f t="shared" si="9"/>
+        <v>5.008427526595745</v>
+      </c>
+      <c r="Z11" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27">
+      <c r="B12">
+        <f t="shared" si="2"/>
+        <v>5.9154900000000001</v>
+      </c>
       <c r="C12" s="6">
         <v>-5.9154900000000001</v>
       </c>
@@ -2146,11 +4888,11 @@
         <v>-1.404693</v>
       </c>
       <c r="E12" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.76253987412707991</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.2112333442253931</v>
       </c>
       <c r="H12" s="4">
@@ -2173,8 +4915,40 @@
       <c r="R12" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="3:23">
+      <c r="T12" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="19">
+        <f t="shared" si="6"/>
+        <v>2.1055999999999999</v>
+      </c>
+      <c r="V12" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="6">
+        <f t="shared" si="8"/>
+        <v>2.1055999999999999</v>
+      </c>
+      <c r="X12" s="6">
+        <f t="shared" si="9"/>
+        <v>-2.809408244680851</v>
+      </c>
+      <c r="Z12" s="6">
+        <f t="shared" si="10"/>
+        <v>-12.455655744</v>
+      </c>
+      <c r="AA12" s="6">
+        <f t="shared" si="11"/>
+        <v>-2.9577450000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27">
+      <c r="B13">
+        <f t="shared" si="2"/>
+        <v>10.545745</v>
+      </c>
       <c r="C13" s="6">
         <v>10.545745</v>
       </c>
@@ -2186,7 +4960,7 @@
         <v>0.76253986797518813</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.2112332351247543</v>
       </c>
       <c r="H13" s="4">
@@ -2209,15 +4983,54 @@
       <c r="R13" s="6">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="14" spans="3:23">
+      <c r="T13" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="19">
+        <f t="shared" si="7"/>
+        <v>2.1055999999999999</v>
+      </c>
+      <c r="W13" s="6">
+        <f t="shared" si="8"/>
+        <v>2.1055999999999999</v>
+      </c>
+      <c r="X13" s="6">
+        <f t="shared" si="9"/>
+        <v>5.008427526595745</v>
+      </c>
+      <c r="Z13" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27">
       <c r="H14" s="4">
         <v>2.504194</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="3:23">
+      <c r="Z14" s="6">
+        <f>SUM(Z6:Z13)</f>
+        <v>-24.804872902656001</v>
+      </c>
+      <c r="AA14" s="6">
+        <f>SUM(AA6:AA13)</f>
+        <v>-5.8902148800000003</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27">
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
       <c r="C15" s="6">
         <f>MAX(C6:C13)</f>
         <v>10.545745</v>
@@ -2236,9 +5049,16 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="3:23">
+    <row r="16" spans="2:27">
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="6">
+        <f>SUM(B6:B13)</f>
+        <v>42.280193999999995</v>
+      </c>
       <c r="F16" s="18">
-        <f t="shared" ref="F16:F20" si="3">(F7-L$6)/F7</f>
+        <f t="shared" ref="F16:F20" si="12">(F7-L$6)/F7</f>
         <v>6.7810558368513389E-6</v>
       </c>
       <c r="H16" s="4">
@@ -2261,7 +5081,7 @@
     </row>
     <row r="17" spans="2:30">
       <c r="F17" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>8.0681327704678561E-6</v>
       </c>
       <c r="L17" t="s">
@@ -2293,7 +5113,7 @@
         <v>-0.44136836043852834</v>
       </c>
       <c r="F18" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>6.7810558368513389E-6</v>
       </c>
       <c r="H18" t="s">
@@ -2317,15 +5137,15 @@
     </row>
     <row r="19" spans="2:30">
       <c r="C19" s="6">
-        <f t="shared" ref="C19:C24" si="4">C7/$C$15</f>
+        <f t="shared" ref="C19:C24" si="13">C7/$C$15</f>
         <v>2.3045313536407337E-3</v>
       </c>
       <c r="D19" s="6">
-        <f t="shared" ref="D19:D24" si="5">D7/$D$15</f>
+        <f t="shared" ref="D19:D24" si="14">D7/$D$15</f>
         <v>2.3045339139060312E-3</v>
       </c>
       <c r="F19" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>7.9179239590162412E-6</v>
       </c>
       <c r="H19">
@@ -2384,15 +5204,15 @@
     </row>
     <row r="20" spans="2:30">
       <c r="C20" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>-0.44136843817103483</v>
       </c>
       <c r="D20" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-0.44136836043852834</v>
       </c>
       <c r="F20" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>7.8920171120658164E-6</v>
       </c>
       <c r="H20">
@@ -2424,11 +5244,11 @@
     </row>
     <row r="21" spans="2:30">
       <c r="C21" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2.3045313536407337E-3</v>
       </c>
       <c r="D21" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2.3045339139060312E-3</v>
       </c>
       <c r="H21">
@@ -2443,11 +5263,11 @@
     </row>
     <row r="22" spans="2:30">
       <c r="C22" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>-0.56093618800758027</v>
       </c>
       <c r="D22" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-0.56093617347537772</v>
       </c>
       <c r="H22">
@@ -2482,11 +5302,11 @@
     </row>
     <row r="23" spans="2:30">
       <c r="C23" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="D23" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="H23">
@@ -2521,11 +5341,11 @@
     </row>
     <row r="24" spans="2:30">
       <c r="C24" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>-0.56093618800758027</v>
       </c>
       <c r="D24" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-0.56093617347537772</v>
       </c>
       <c r="H24">
@@ -2557,6 +5377,16 @@
       </c>
       <c r="J26" s="4"/>
     </row>
+    <row r="28" spans="2:30">
+      <c r="C28" s="6">
+        <f>SUM(C30:C32)</f>
+        <v>191.218628</v>
+      </c>
+      <c r="D28" s="6">
+        <f>I6/3</f>
+        <v>-63.739542813333337</v>
+      </c>
+    </row>
     <row r="29" spans="2:30">
       <c r="B29" t="s">
         <v>26</v>
@@ -2717,6 +5547,15 @@
       </c>
     </row>
     <row r="37" spans="2:23">
+      <c r="C37" s="13">
+        <v>63.405757000000001</v>
+      </c>
+      <c r="D37" s="13">
+        <v>0</v>
+      </c>
+      <c r="E37" s="13">
+        <v>0</v>
+      </c>
       <c r="I37" s="11"/>
       <c r="L37" s="15"/>
       <c r="N37" s="6"/>
@@ -2728,6 +5567,15 @@
       </c>
     </row>
     <row r="38" spans="2:23">
+      <c r="C38" s="13">
+        <v>0</v>
+      </c>
+      <c r="D38" s="13">
+        <v>64.407114000000007</v>
+      </c>
+      <c r="E38" s="13">
+        <v>0</v>
+      </c>
       <c r="I38" s="11"/>
       <c r="L38" s="15">
         <f>L36-L35</f>
@@ -2739,6 +5587,15 @@
       </c>
     </row>
     <row r="39" spans="2:23">
+      <c r="C39" s="13">
+        <v>0</v>
+      </c>
+      <c r="D39" s="13">
+        <v>0</v>
+      </c>
+      <c r="E39" s="13">
+        <v>63.405757000000001</v>
+      </c>
       <c r="I39" s="11"/>
     </row>
     <row r="40" spans="2:23">

--- a/EwaldTestValidation.xlsx
+++ b/EwaldTestValidation.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woongkyujee/Desktop/ProjectPAX/SLAM Extension Reference/Ewald/EwaldPreResearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBE602C-106C-2345-B626-74DFD767BF3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4848BCBD-82FF-F347-AA29-0CF4F4A7A9E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29300" yWindow="1240" windowWidth="37820" windowHeight="25100" activeTab="2" xr2:uid="{ED569559-3BE8-BA43-B08A-1C36884B8A7F}"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="28800" windowHeight="17040" activeTab="1" xr2:uid="{ED569559-3BE8-BA43-B08A-1C36884B8A7F}"/>
   </bookViews>
   <sheets>
     <sheet name="CubicTegragonalCell" sheetId="1" r:id="rId1"/>
-    <sheet name="DerivativeVal" sheetId="3" r:id="rId2"/>
-    <sheet name="DerivativeVal_GULP_FDM" sheetId="4" r:id="rId3"/>
-    <sheet name="DerivativeMisc" sheetId="2" r:id="rId4"/>
+    <sheet name="DerivativeVal-A" sheetId="3" r:id="rId2"/>
+    <sheet name="DerivativeVal_GULP_FDM-A" sheetId="4" r:id="rId3"/>
+    <sheet name="DerivativeVal-B" sheetId="5" r:id="rId4"/>
+    <sheet name="DerivativeMisc" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +36,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={57B6C565-2D39-8348-9305-9E0249C26C1A}</author>
+  </authors>
+  <commentList>
+    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{57B6C565-2D39-8348-9305-9E0249C26C1A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The derivatives are in the raw Cartesian form (in fractional?) need to be multiplied by lattice parameters</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={A4291FB5-B7C2-CA4C-B0AC-FBDE5B851B3C}</author>
+  </authors>
+  <commentList>
+    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{A4291FB5-B7C2-CA4C-B0AC-FBDE5B851B3C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The derivatives are in the raw Cartesian form (in fractional?) need to be multiplied by lattice parameters</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="111">
   <si>
     <t>GULP</t>
   </si>
@@ -215,9 +252,6 @@
     <t>Err w.r.t GULP</t>
   </si>
   <si>
-    <t>Strain Derivative</t>
-  </si>
-  <si>
     <t>Ewald Force Validation for self implementation : using point charges of MgO system</t>
   </si>
   <si>
@@ -260,9 +294,6 @@
     <t>Vol</t>
   </si>
   <si>
-    <t>GULP by hand</t>
-  </si>
-  <si>
     <t>delta</t>
   </si>
   <si>
@@ -312,6 +343,69 @@
   </si>
   <si>
     <t>Ezb</t>
+  </si>
+  <si>
+    <t>This calc done in the main periodic sum loop</t>
+  </si>
+  <si>
+    <t>Strain Derivative Self</t>
+  </si>
+  <si>
+    <t>Strain Derivative GULP</t>
+  </si>
+  <si>
+    <t>err E</t>
+  </si>
+  <si>
+    <t>NoReciContribution</t>
+  </si>
+  <si>
+    <t>ReciContribution</t>
+  </si>
+  <si>
+    <t>RC1</t>
+  </si>
+  <si>
+    <t>RC1+RC2</t>
+  </si>
+  <si>
+    <t>ExpectedSelf</t>
+  </si>
+  <si>
+    <t>errE</t>
+  </si>
+  <si>
+    <t>RC2</t>
+  </si>
+  <si>
+    <t>should</t>
+  </si>
+  <si>
+    <t>RC1 inc</t>
+  </si>
+  <si>
+    <t>RC2 inc</t>
+  </si>
+  <si>
+    <t>RC1 + RC2 inc</t>
+  </si>
+  <si>
+    <t>RC2 - 2*RC1</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>By G vector</t>
+  </si>
+  <si>
+    <t>By R vector</t>
+  </si>
+  <si>
+    <t>diff w.r.t Exp</t>
+  </si>
+  <si>
+    <t>less</t>
   </si>
 </sst>
 </file>
@@ -331,7 +425,7 @@
     <numFmt numFmtId="176" formatCode="0.000"/>
     <numFmt numFmtId="179" formatCode="0.0000000%"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -352,8 +446,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,6 +470,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -419,12 +538,24 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="169" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,6 +571,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Jee, Woongkyu" id="{C6EF7CDE-EC1F-8043-AD4D-43E3202D6667}" userId="S::uccawkj@ucl.ac.uk::c900b444-1aa9-4730-9954-d00d971a670e" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -737,6 +874,22 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="G22" dT="2022-07-12T11:34:22.20" personId="{C6EF7CDE-EC1F-8043-AD4D-43E3202D6667}" id="{57B6C565-2D39-8348-9305-9E0249C26C1A}">
+    <text>The derivatives are in the raw Cartesian form (in fractional?) need to be multiplied by lattice parameters</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="G22" dT="2022-07-12T11:34:22.20" personId="{C6EF7CDE-EC1F-8043-AD4D-43E3202D6667}" id="{A4291FB5-B7C2-CA4C-B0AC-FBDE5B851B3C}">
+    <text>The derivatives are in the raw Cartesian form (in fractional?) need to be multiplied by lattice parameters</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B432036-CDCA-A047-8664-542467F32788}">
   <dimension ref="B3:AB44"/>
@@ -745,7 +898,7 @@
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="5" bestFit="1" customWidth="1"/>
@@ -758,7 +911,7 @@
     <col min="22" max="27" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:28">
+    <row r="3" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
@@ -776,7 +929,7 @@
       <c r="AA3" s="6"/>
       <c r="AB3" s="6"/>
     </row>
-    <row r="4" spans="2:28">
+    <row r="4" spans="2:28" x14ac:dyDescent="0.2">
       <c r="P4" s="1"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
@@ -789,7 +942,7 @@
       <c r="AA4" s="6"/>
       <c r="AB4" s="6"/>
     </row>
-    <row r="5" spans="2:28">
+    <row r="5" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -852,7 +1005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:28">
+    <row r="6" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -925,7 +1078,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="7" spans="2:28">
+    <row r="7" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
@@ -980,7 +1133,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="2:28">
+    <row r="8" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
@@ -1023,7 +1176,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="2:28">
+    <row r="9" spans="2:28" x14ac:dyDescent="0.2">
       <c r="P9" s="1"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -1044,7 +1197,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="2:28">
+    <row r="10" spans="2:28" x14ac:dyDescent="0.2">
       <c r="P10" s="1"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -1057,7 +1210,7 @@
       <c r="AA10" s="6"/>
       <c r="AB10" s="6"/>
     </row>
-    <row r="11" spans="2:28">
+    <row r="11" spans="2:28" x14ac:dyDescent="0.2">
       <c r="P11" s="1"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
@@ -1070,7 +1223,7 @@
       <c r="AA11" s="6"/>
       <c r="AB11" s="6"/>
     </row>
-    <row r="12" spans="2:28">
+    <row r="12" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>2</v>
       </c>
@@ -1094,7 +1247,7 @@
       <c r="AA12" s="6"/>
       <c r="AB12" s="6"/>
     </row>
-    <row r="13" spans="2:28">
+    <row r="13" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
@@ -1164,7 +1317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:28">
+    <row r="14" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>2</v>
       </c>
@@ -1219,7 +1372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:28">
+    <row r="15" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
@@ -1262,7 +1415,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="2:28">
+    <row r="16" spans="2:28" x14ac:dyDescent="0.2">
       <c r="P16" s="1"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
@@ -1283,7 +1436,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="2:28">
+    <row r="17" spans="2:28" x14ac:dyDescent="0.2">
       <c r="P17" s="1"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
@@ -1304,7 +1457,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="2:28">
+    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
       <c r="P18" s="1"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
@@ -1325,7 +1478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:28">
+    <row r="19" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>3</v>
       </c>
@@ -1355,7 +1508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:28">
+    <row r="20" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>3</v>
       </c>
@@ -1410,7 +1563,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="2:28">
+    <row r="21" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>2</v>
       </c>
@@ -1448,7 +1601,7 @@
       <c r="AA21" s="6"/>
       <c r="AB21" s="6"/>
     </row>
-    <row r="22" spans="2:28">
+    <row r="22" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1474,7 +1627,7 @@
       <c r="AA22" s="6"/>
       <c r="AB22" s="6"/>
     </row>
-    <row r="23" spans="2:28">
+    <row r="23" spans="2:28" x14ac:dyDescent="0.2">
       <c r="P23" s="1"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
@@ -1487,7 +1640,7 @@
       <c r="AA23" s="6"/>
       <c r="AB23" s="6"/>
     </row>
-    <row r="24" spans="2:28">
+    <row r="24" spans="2:28" x14ac:dyDescent="0.2">
       <c r="P24" s="1"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
@@ -1500,7 +1653,7 @@
       <c r="AA24" s="6"/>
       <c r="AB24" s="6"/>
     </row>
-    <row r="25" spans="2:28">
+    <row r="25" spans="2:28" x14ac:dyDescent="0.2">
       <c r="P25" s="1"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
@@ -1513,7 +1666,7 @@
       <c r="AA25" s="6"/>
       <c r="AB25" s="6"/>
     </row>
-    <row r="26" spans="2:28">
+    <row r="26" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
         <v>4</v>
       </c>
@@ -1535,7 +1688,7 @@
       <c r="AA26" s="6"/>
       <c r="AB26" s="6"/>
     </row>
-    <row r="27" spans="2:28">
+    <row r="27" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>3</v>
       </c>
@@ -1582,7 +1735,7 @@
       <c r="AA27" s="6"/>
       <c r="AB27" s="6"/>
     </row>
-    <row r="28" spans="2:28">
+    <row r="28" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>2</v>
       </c>
@@ -1620,7 +1773,7 @@
       <c r="AA28" s="6"/>
       <c r="AB28" s="6"/>
     </row>
-    <row r="29" spans="2:28">
+    <row r="29" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>1</v>
       </c>
@@ -1646,7 +1799,7 @@
       <c r="AA29" s="6"/>
       <c r="AB29" s="6"/>
     </row>
-    <row r="30" spans="2:28">
+    <row r="30" spans="2:28" x14ac:dyDescent="0.2">
       <c r="P30" s="1"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
@@ -1659,7 +1812,7 @@
       <c r="AA30" s="6"/>
       <c r="AB30" s="6"/>
     </row>
-    <row r="31" spans="2:28">
+    <row r="31" spans="2:28" x14ac:dyDescent="0.2">
       <c r="P31" s="1"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
@@ -1672,7 +1825,7 @@
       <c r="AA31" s="6"/>
       <c r="AB31" s="6"/>
     </row>
-    <row r="32" spans="2:28">
+    <row r="32" spans="2:28" x14ac:dyDescent="0.2">
       <c r="P32" s="1"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
@@ -1685,7 +1838,7 @@
       <c r="AA32" s="6"/>
       <c r="AB32" s="6"/>
     </row>
-    <row r="33" spans="2:28">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
         <v>5</v>
       </c>
@@ -1707,7 +1860,7 @@
       <c r="AA33" s="6"/>
       <c r="AB33" s="6"/>
     </row>
-    <row r="34" spans="2:28">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>3</v>
       </c>
@@ -1757,7 +1910,7 @@
       <c r="AA34" s="6"/>
       <c r="AB34" s="6"/>
     </row>
-    <row r="35" spans="2:28">
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>2</v>
       </c>
@@ -1795,7 +1948,7 @@
       <c r="AA35" s="6"/>
       <c r="AB35" s="6"/>
     </row>
-    <row r="36" spans="2:28">
+    <row r="36" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>1</v>
       </c>
@@ -1821,7 +1974,7 @@
       <c r="AA36" s="6"/>
       <c r="AB36" s="6"/>
     </row>
-    <row r="37" spans="2:28">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="P37" s="1"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
@@ -1834,7 +1987,7 @@
       <c r="AA37" s="6"/>
       <c r="AB37" s="6"/>
     </row>
-    <row r="38" spans="2:28">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="P38" s="1"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
@@ -1847,7 +2000,7 @@
       <c r="AA38" s="6"/>
       <c r="AB38" s="6"/>
     </row>
-    <row r="39" spans="2:28">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="P39" s="1"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
@@ -1860,7 +2013,7 @@
       <c r="AA39" s="6"/>
       <c r="AB39" s="6"/>
     </row>
-    <row r="40" spans="2:28">
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B40" s="1">
         <v>6</v>
       </c>
@@ -1882,7 +2035,7 @@
       <c r="AA40" s="6"/>
       <c r="AB40" s="6"/>
     </row>
-    <row r="41" spans="2:28">
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>3</v>
       </c>
@@ -1932,7 +2085,7 @@
       <c r="AA41" s="6"/>
       <c r="AB41" s="6"/>
     </row>
-    <row r="42" spans="2:28">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>2</v>
       </c>
@@ -1970,7 +2123,7 @@
       <c r="AA42" s="6"/>
       <c r="AB42" s="6"/>
     </row>
-    <row r="43" spans="2:28">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>1</v>
       </c>
@@ -1996,7 +2149,7 @@
       <c r="AA43" s="6"/>
       <c r="AB43" s="6"/>
     </row>
-    <row r="44" spans="2:28">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="P44" s="1"/>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
@@ -2015,33 +2168,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE25B2D-FE34-0E49-B6F0-4829524F93C3}">
-  <dimension ref="A3:W59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE25B2D-FE34-0E49-B6F0-4829524F93C3}">
+  <dimension ref="A3:W72"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24:J31"/>
+    <sheetView tabSelected="1" topLeftCell="E22" zoomScale="94" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="S38" sqref="S38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="22" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:21">
+    <row r="3" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="3:21">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5">
         <f>D6*E6*F6</f>
         <v>74.11712</v>
       </c>
     </row>
-    <row r="6" spans="3:21">
+    <row r="6" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>52</v>
       </c>
@@ -2055,13 +2208,13 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="L6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" t="s">
         <v>71</v>
       </c>
-      <c r="P6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="3:21">
+    </row>
+    <row r="7" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>53</v>
       </c>
@@ -2075,34 +2228,34 @@
         <v>41</v>
       </c>
       <c r="H7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" t="s">
         <v>64</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>65</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>66</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>67</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>68</v>
       </c>
-      <c r="N7" t="s">
-        <v>69</v>
-      </c>
       <c r="P7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q7" t="s">
         <v>67</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>68</v>
       </c>
-      <c r="R7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="3:21">
+    </row>
+    <row r="8" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C8">
         <v>2</v>
       </c>
@@ -2160,7 +2313,7 @@
         <v>-0.48381830000000003</v>
       </c>
     </row>
-    <row r="9" spans="3:21">
+    <row r="9" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>2</v>
       </c>
@@ -2186,15 +2339,15 @@
         <v>0</v>
       </c>
       <c r="L9" s="19">
-        <f t="shared" ref="L9:L16" si="2">C25*H9</f>
+        <f t="shared" ref="L9:L15" si="2">C25*H9</f>
         <v>-10.176204</v>
       </c>
       <c r="M9" s="19">
-        <f t="shared" ref="M9:M16" si="3">D25*I9</f>
+        <f t="shared" ref="M9:M15" si="3">D25*I9</f>
         <v>1.2694037457919998</v>
       </c>
       <c r="N9" s="19">
-        <f t="shared" ref="N9:N16" si="4">E25*J9</f>
+        <f t="shared" ref="N9:N15" si="4">E25*J9</f>
         <v>0</v>
       </c>
       <c r="P9" s="19">
@@ -2218,7 +2371,7 @@
         <v>0.57968299999999995</v>
       </c>
     </row>
-    <row r="10" spans="3:21">
+    <row r="10" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C10">
         <v>2</v>
       </c>
@@ -2276,7 +2429,7 @@
         <v>-4.7496929999999997</v>
       </c>
     </row>
-    <row r="11" spans="3:21">
+    <row r="11" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C11">
         <v>2</v>
       </c>
@@ -2334,7 +2487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:21">
+    <row r="12" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C12">
         <v>-2</v>
       </c>
@@ -2392,7 +2545,7 @@
         <v>-6.1022629999999998</v>
       </c>
     </row>
-    <row r="13" spans="3:21">
+    <row r="13" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C13">
         <v>-2</v>
       </c>
@@ -2450,7 +2603,7 @@
         <v>10.405001</v>
       </c>
     </row>
-    <row r="14" spans="3:21">
+    <row r="14" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C14">
         <v>-2</v>
       </c>
@@ -2508,7 +2661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:21">
+    <row r="15" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C15">
         <v>-2</v>
       </c>
@@ -2566,13 +2719,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:21">
+    <row r="16" spans="3:21" x14ac:dyDescent="0.2">
       <c r="L16" s="19">
         <f>SUM(L8:L15)</f>
         <v>32.470947800000005</v>
       </c>
       <c r="M16" s="19">
-        <f t="shared" ref="M16:N16" si="10">SUM(M8:M15)</f>
+        <f t="shared" ref="M16" si="10">SUM(M8:M15)</f>
         <v>-23.899365012992</v>
       </c>
       <c r="N16" s="19">
@@ -2588,24 +2741,25 @@
         <v>-0.35109029999999919</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="H17" s="19"/>
       <c r="I17" t="s">
         <v>56</v>
       </c>
       <c r="L17" s="19">
-        <f>D38/L16</f>
+        <f>D46/L16</f>
         <v>2.4452645943399283</v>
       </c>
       <c r="M17" s="19">
-        <f>D39/M16</f>
+        <f>D47/M16</f>
         <v>-2.589573863839322</v>
       </c>
       <c r="N17" s="19">
-        <f>D40/N16</f>
+        <f>D48/N16</f>
         <v>2.2424049375344031</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>55</v>
       </c>
@@ -2613,7 +2767,7 @@
         <v>-192.52019942000001</v>
       </c>
       <c r="G18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H18">
         <v>-192.51866868401899</v>
@@ -2624,7 +2778,24 @@
       </c>
       <c r="L18" s="19"/>
     </row>
-    <row r="22" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <f>D18/H18</f>
+        <v>1.0000079511041267</v>
+      </c>
+      <c r="I19" s="22"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <f>D18/H19</f>
+        <v>-192.51866868401899</v>
+      </c>
+      <c r="I20" s="22">
+        <f>(D18-H20)/D18</f>
+        <v>7.9510409070447098E-6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>47</v>
       </c>
@@ -2641,7 +2812,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>48</v>
       </c>
@@ -2652,7 +2823,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C24" s="6">
         <v>-7.8976309999999996</v>
       </c>
@@ -2709,7 +2880,7 @@
         <v>7.9809521275532574E-6</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C25" s="6">
         <v>-5.0881020000000001</v>
       </c>
@@ -2766,7 +2937,7 @@
         <v>7.980669823678448E-6</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C26" s="6">
         <v>-4.3519569999999996</v>
       </c>
@@ -2823,7 +2994,7 @@
         <v>7.8788728459833448E-6</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C27" s="6">
         <v>2.1599819999999998</v>
       </c>
@@ -2880,7 +3051,7 @@
         <v>7.9242072878352365E-6</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C28" s="6">
         <v>2.0551840000000001</v>
       </c>
@@ -2937,7 +3108,7 @@
         <v>7.7513445786835195E-6</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C29" s="6">
         <v>24.410112000000002</v>
       </c>
@@ -2994,7 +3165,7 @@
         <v>8.3330787114150523E-6</v>
       </c>
     </row>
-    <row r="30" spans="1:23" s="25" customFormat="1">
+    <row r="30" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30" s="6">
@@ -3058,7 +3229,7 @@
       <c r="V30"/>
       <c r="W30"/>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C31" s="6">
         <v>-5.1488269999999998</v>
       </c>
@@ -3115,17 +3286,17 @@
         <v>7.8882923809776914E-6</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="25"/>
       <c r="B32" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32" s="24">
         <f>SUM(C24:C31)</f>
         <v>0</v>
       </c>
       <c r="D32" s="24">
-        <f t="shared" ref="D32:F32" si="19">SUM(D24:D31)</f>
+        <f t="shared" ref="D32:E32" si="19">SUM(D24:D31)</f>
         <v>-9.9999999747524271E-7</v>
       </c>
       <c r="E32" s="24">
@@ -3169,634 +3340,898 @@
       <c r="V32" s="25"/>
       <c r="W32" s="25"/>
     </row>
-    <row r="33" spans="3:13">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
     </row>
-    <row r="36" spans="3:13">
-      <c r="C36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="3:13">
-      <c r="C37" t="s">
-        <v>0</v>
-      </c>
-      <c r="E37" t="s">
-        <v>74</v>
-      </c>
-      <c r="F37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="3:13">
-      <c r="C38" t="s">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="L41" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="M41" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="L42" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="M42" s="31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="G43" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>92</v>
+      </c>
+      <c r="G44" t="s">
+        <v>91</v>
+      </c>
+      <c r="I44" t="s">
+        <v>110</v>
+      </c>
+      <c r="K44" t="s">
+        <v>95</v>
+      </c>
+      <c r="M44" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>110</v>
+      </c>
+      <c r="U44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C45" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="G45" t="s">
+        <v>94</v>
+      </c>
+      <c r="I45" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="K45" t="s">
+        <v>96</v>
+      </c>
+      <c r="M45" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="O45" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="S45" t="s">
+        <v>97</v>
+      </c>
+      <c r="U45" s="30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C46" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="19">
+      <c r="D46" s="19">
         <v>79.400058999999999</v>
       </c>
-      <c r="E38" s="7">
-        <f>C59</f>
-        <v>32.470947800000005</v>
-      </c>
-      <c r="F38" s="21">
-        <f>(D38-E38)/D38</f>
-        <v>0.5910463013635795</v>
-      </c>
-    </row>
-    <row r="39" spans="3:13">
-      <c r="C39" t="s">
+      <c r="E46" s="19">
+        <f>D46/$H$19</f>
+        <v>79.399427686882859</v>
+      </c>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19">
+        <v>78.867613601050806</v>
+      </c>
+      <c r="H46" s="21">
+        <f>(E46-G46)/E46</f>
+        <v>6.69795867961793E-3</v>
+      </c>
+      <c r="I46" s="19">
+        <f>E46-G46</f>
+        <v>0.53181408583205325</v>
+      </c>
+      <c r="K46" s="19">
+        <v>78.912414933792107</v>
+      </c>
+      <c r="L46" s="21">
+        <f>(E46-K46)/E46</f>
+        <v>6.1337060893098747E-3</v>
+      </c>
+      <c r="M46" s="19">
+        <f>E46-K46</f>
+        <v>0.48701275309075243</v>
+      </c>
+      <c r="O46" s="19">
+        <v>79.486810199279603</v>
+      </c>
+      <c r="P46" s="21">
+        <f>(E46-O46)/E46</f>
+        <v>-1.1005433533015192E-3</v>
+      </c>
+      <c r="Q46" s="19">
+        <f>E46-O46</f>
+        <v>-8.738251239674355E-2</v>
+      </c>
+      <c r="R46" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S46" s="19">
+        <v>79.399428055698706</v>
+      </c>
+      <c r="T46" s="37">
+        <f>(E46-S46)/E46</f>
+        <v>-4.6450693404289721E-9</v>
+      </c>
+      <c r="U46" s="38">
+        <f>E46-S46</f>
+        <v>-3.6881584719594684E-7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C47" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D47" s="19">
         <v>61.889170999999997</v>
       </c>
-      <c r="E39" s="7">
-        <f>D59</f>
-        <v>-23.899365012992</v>
-      </c>
-      <c r="F39" s="21">
-        <f t="shared" ref="F39:F43" si="25">(D39-E39)/D39</f>
-        <v>1.3861639221664805</v>
-      </c>
-    </row>
-    <row r="40" spans="3:13">
-      <c r="C40" t="s">
+      <c r="E47" s="19">
+        <f t="shared" ref="E47:E51" si="25">D47/$H$19</f>
+        <v>61.888678916669669</v>
+      </c>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19">
+        <v>61.429245549290599</v>
+      </c>
+      <c r="H47" s="21">
+        <f t="shared" ref="H47:H51" si="26">(E47-G47)/E47</f>
+        <v>7.4235445871720165E-3</v>
+      </c>
+      <c r="I47" s="19">
+        <f t="shared" ref="I47:I48" si="27">E47-G47</f>
+        <v>0.45943336737907003</v>
+      </c>
+      <c r="K47" s="19">
+        <v>61.4546697220715</v>
+      </c>
+      <c r="L47" s="21">
+        <f>(E47-K47)/E47</f>
+        <v>7.0127396834975628E-3</v>
+      </c>
+      <c r="M47" s="19">
+        <f>E47-K47</f>
+        <v>0.43400919459816834</v>
+      </c>
+      <c r="O47" s="19">
+        <v>61.995438183118097</v>
+      </c>
+      <c r="P47" s="21">
+        <f>(D47-O47)/D47</f>
+        <v>-1.7170561731728357E-3</v>
+      </c>
+      <c r="Q47" s="19">
+        <f>E47-O47</f>
+        <v>-0.10675926644842804</v>
+      </c>
+      <c r="R47" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="S47" s="19">
+        <v>61.888678879575501</v>
+      </c>
+      <c r="T47" s="37">
+        <f>(E47-S47)/E47</f>
+        <v>5.9936919622078169E-10</v>
+      </c>
+      <c r="U47" s="38">
+        <f>E47-S47</f>
+        <v>3.7094167737450334E-8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A48" s="25"/>
+      <c r="C48" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D48" s="19">
         <v>51.230969000000002</v>
       </c>
-      <c r="E40" s="7">
-        <f>E59</f>
-        <v>22.846439616000005</v>
-      </c>
-      <c r="F40" s="21">
+      <c r="E48" s="19">
         <f t="shared" si="25"/>
-        <v>0.55405021490028805</v>
-      </c>
-    </row>
-    <row r="41" spans="3:13">
-      <c r="C41" t="s">
+        <v>51.230561660469775</v>
+      </c>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19">
+        <v>50.765416388374803</v>
+      </c>
+      <c r="H48" s="21">
+        <f t="shared" si="26"/>
+        <v>9.0794490050239811E-3</v>
+      </c>
+      <c r="I48" s="19">
+        <f t="shared" si="27"/>
+        <v>0.46514527209497203</v>
+      </c>
+      <c r="K48" s="19">
+        <v>50.8213578408064</v>
+      </c>
+      <c r="L48" s="21">
+        <f>(E48-K48)/E48</f>
+        <v>7.9874943080923237E-3</v>
+      </c>
+      <c r="M48" s="19">
+        <f>E48-K48</f>
+        <v>0.40920381966337516</v>
+      </c>
+      <c r="O48" s="19">
+        <v>51.306803772640599</v>
+      </c>
+      <c r="P48" s="21">
+        <f>(D48-O48)/D48</f>
+        <v>-1.4802525527205475E-3</v>
+      </c>
+      <c r="Q48" s="19">
+        <f>E48-O48</f>
+        <v>-7.6242112170824328E-2</v>
+      </c>
+      <c r="R48" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="S48" s="19">
+        <v>51.230561748748499</v>
+      </c>
+      <c r="T48" s="37">
+        <f>(E48-S48)/E48</f>
+        <v>-1.7231652730990652E-9</v>
+      </c>
+      <c r="U48" s="38">
+        <f>E48-S48</f>
+        <v>-8.8278724774681905E-8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A49" s="25"/>
+      <c r="C49" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D49" s="19">
         <v>0.28902899999999998</v>
       </c>
-      <c r="E41" s="7">
-        <f>F59</f>
-        <v>-5.3575217725120012</v>
-      </c>
-      <c r="F41" s="21">
+      <c r="E49" s="19">
         <f t="shared" si="25"/>
-        <v>19.536277579453969</v>
-      </c>
-    </row>
-    <row r="42" spans="3:13">
-      <c r="C42" t="s">
+        <v>0.28902670191859764</v>
+      </c>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19">
+        <v>0.28816041160299999</v>
+      </c>
+      <c r="H49" s="21">
+        <f t="shared" si="26"/>
+        <v>2.9972674145575503E-3</v>
+      </c>
+      <c r="I49" s="19">
+        <f>E49-G49</f>
+        <v>8.6629031559765091E-4</v>
+      </c>
+      <c r="K49" s="19">
+        <v>0.32174769362121602</v>
+      </c>
+      <c r="L49" s="21">
+        <f>(E49-K49)/E49</f>
+        <v>-0.11321096454207205</v>
+      </c>
+      <c r="M49" s="19">
+        <f>E49-K49</f>
+        <v>-3.2720991702618385E-2</v>
+      </c>
+      <c r="O49" s="19">
+        <v>0.25543964724169299</v>
+      </c>
+      <c r="P49" s="21">
+        <f>(D49-O49)/D49</f>
+        <v>0.11621447245192348</v>
+      </c>
+      <c r="Q49" s="19">
+        <f>E49-O49</f>
+        <v>3.3587054676904649E-2</v>
+      </c>
+      <c r="R49" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="S49" s="32">
+        <v>0.28902692925990597</v>
+      </c>
+      <c r="T49" s="16">
+        <f>(E49-S49)/E49</f>
+        <v>-7.865754507286602E-7</v>
+      </c>
+      <c r="U49" s="36">
+        <f>E49-S49</f>
+        <v>-2.2734130833423905E-7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A50" s="25"/>
+      <c r="C50" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D50" s="19">
         <v>1.0367519999999999</v>
       </c>
-      <c r="E42" s="7">
-        <f>G59</f>
-        <v>3.9395327560000037</v>
-      </c>
-      <c r="F42" s="21">
+      <c r="E50" s="19">
         <f t="shared" si="25"/>
-        <v>-2.799879581616437</v>
-      </c>
-    </row>
-    <row r="43" spans="3:13">
-      <c r="C43" t="s">
+        <v>1.0367437567424374</v>
+      </c>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19">
+        <v>1.0209306932493101</v>
+      </c>
+      <c r="H50" s="21">
+        <f t="shared" si="26"/>
+        <v>1.525262475928831E-2</v>
+      </c>
+      <c r="I50" s="19">
+        <f t="shared" ref="I50:I51" si="28">E50-G50</f>
+        <v>1.5813063493127277E-2</v>
+      </c>
+      <c r="K50" s="19">
+        <v>0.97226979574706995</v>
+      </c>
+      <c r="L50" s="21">
+        <f>(E50-K50)/E50</f>
+        <v>6.2188906927157832E-2</v>
+      </c>
+      <c r="M50" s="19">
+        <f>E50-K50</f>
+        <v>6.4473960995367396E-2</v>
+      </c>
+      <c r="O50" s="19">
+        <v>1.0854045860736199</v>
+      </c>
+      <c r="P50" s="21">
+        <f>(D50-O50)/D50</f>
+        <v>-4.6927892180212823E-2</v>
+      </c>
+      <c r="Q50" s="19">
+        <f>E50-O50</f>
+        <v>-4.8660829331182542E-2</v>
+      </c>
+      <c r="R50" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="S50" s="32">
+        <v>1.0367436885713699</v>
+      </c>
+      <c r="T50" s="16">
+        <f>(E50-S50)/E50</f>
+        <v>6.5754982380518801E-8</v>
+      </c>
+      <c r="U50" s="36">
+        <f>E50-S50</f>
+        <v>6.8171067457711843E-8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A51" s="25"/>
+      <c r="C51" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D51" s="19">
         <v>0.18586</v>
       </c>
-      <c r="E43" s="7">
-        <f>H59</f>
-        <v>-7.8563138910399983</v>
-      </c>
-      <c r="F43" s="21">
+      <c r="E51" s="19">
         <f t="shared" si="25"/>
-        <v>43.270062902399651</v>
-      </c>
-    </row>
-    <row r="45" spans="3:13">
-      <c r="C45" t="s">
+        <v>0.185858522219537</v>
+      </c>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19">
+        <v>0.18468974714991401</v>
+      </c>
+      <c r="H51" s="21">
+        <f t="shared" si="26"/>
+        <v>6.2885201908708926E-3</v>
+      </c>
+      <c r="I51" s="19">
+        <f t="shared" si="28"/>
+        <v>1.1687750696229848E-3</v>
+      </c>
+      <c r="K51" s="19">
+        <v>7.4861306831214502E-2</v>
+      </c>
+      <c r="L51" s="21">
+        <f>(E51-K51)/E51</f>
+        <v>0.59721348293737131</v>
+      </c>
+      <c r="M51" s="19">
+        <f>E51-K51</f>
+        <v>0.1109972153883225</v>
+      </c>
+      <c r="O51" s="19">
+        <v>0.295687417774948</v>
+      </c>
+      <c r="P51" s="21">
+        <f>(D51-O51)/D51</f>
+        <v>-0.59091476258984188</v>
+      </c>
+      <c r="Q51" s="19">
+        <f>E51-O51</f>
+        <v>-0.109828895555411</v>
+      </c>
+      <c r="R51" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="S51" s="32">
+        <v>0.18585897745624899</v>
+      </c>
+      <c r="T51" s="16">
+        <f>(E51-S51)/E51</f>
+        <v>-2.4493722782102419E-6</v>
+      </c>
+      <c r="U51" s="36">
+        <f>E51-S51</f>
+        <v>-4.5523671199365623E-7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A52" s="25"/>
+      <c r="E52" t="s">
+        <v>93</v>
+      </c>
+      <c r="S52" s="19"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A53" s="25"/>
+      <c r="C53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" s="19">
+        <f>SUM(D46:D48)</f>
+        <v>192.52019899999999</v>
+      </c>
+      <c r="E53" s="16">
+        <f>(ABS(D18)-D53)/ABS(D18)</f>
+        <v>2.1815893698709168E-9</v>
+      </c>
+      <c r="G53" s="19">
+        <f>SUM(G46:G48)</f>
+        <v>191.06227553871619</v>
+      </c>
+      <c r="H53" s="16">
+        <f>(ABS(H18)-G53)/ABS(H18)</f>
+        <v>7.5649450271920203E-3</v>
+      </c>
+      <c r="K53" s="19">
+        <f>SUM(K46:K48)</f>
+        <v>191.18844249667001</v>
+      </c>
+      <c r="L53" s="16">
+        <f>(ABS(H18)-K53)/ABS(H18)</f>
+        <v>6.909595814483244E-3</v>
+      </c>
+      <c r="O53" s="19">
+        <f>SUM(O46:O48)</f>
+        <v>192.78905215503829</v>
+      </c>
+      <c r="P53" s="16">
+        <f>(ABS(H18)-O53)/ABS(H18)</f>
+        <v>-1.404453255715586E-3</v>
+      </c>
+      <c r="S53" s="19">
+        <f>SUM(S46:S48)</f>
+        <v>192.51866868402271</v>
+      </c>
+      <c r="T53" s="16">
+        <f>(ABS(H18)-S53)/ABS(H18)</f>
+        <v>-1.9339651374246139E-14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A54" s="25"/>
+      <c r="C54" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="19">
-        <f>SUM(D38:D40)</f>
-        <v>192.52019899999999</v>
-      </c>
-    </row>
-    <row r="46" spans="3:13">
-      <c r="C46" t="s">
-        <v>63</v>
-      </c>
-      <c r="D46" s="19">
-        <f>SUM(D38:D43)</f>
+      <c r="D54" s="19">
+        <f>SUM(D46:D51)</f>
         <v>194.03183999999999</v>
       </c>
-      <c r="F46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="2:16">
-      <c r="C49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="2:16">
-      <c r="C50" t="s">
-        <v>27</v>
-      </c>
-      <c r="D50" t="s">
-        <v>28</v>
-      </c>
-      <c r="E50" t="s">
-        <v>29</v>
-      </c>
-      <c r="F50" t="s">
-        <v>30</v>
-      </c>
-      <c r="G50" t="s">
-        <v>31</v>
-      </c>
-      <c r="H50" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="51" spans="2:16">
-      <c r="C51" s="7">
-        <f>C24*H8</f>
-        <v>-1.5795262000000001</v>
-      </c>
-      <c r="D51" s="7">
-        <f>D24*I8</f>
-        <v>0</v>
-      </c>
-      <c r="E51" s="7">
-        <f>E24*J8</f>
-        <v>0</v>
-      </c>
-      <c r="F51" s="19">
-        <f>0.5*J8*D24+0.5*E24*I8</f>
-        <v>0</v>
-      </c>
-      <c r="G51" s="19">
-        <f>0.5*(C24*J8+E24*H8)</f>
-        <v>-0.87959429999999994</v>
-      </c>
-      <c r="H51" s="19">
-        <f>0.5*(C24*I8+D24*H8)</f>
-        <v>-0.48381830000000003</v>
-      </c>
-      <c r="I51" s="7"/>
-      <c r="J51" s="6">
-        <f>ABS(C51)</f>
-        <v>1.5795262000000001</v>
-      </c>
-      <c r="K51" s="6">
-        <f t="shared" ref="K51:O51" si="26">ABS(D51)</f>
-        <v>0</v>
-      </c>
-      <c r="L51" s="6">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="M51" s="6">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="N51" s="6">
-        <f t="shared" si="26"/>
-        <v>0.87959429999999994</v>
-      </c>
-      <c r="O51" s="6">
-        <f t="shared" si="26"/>
-        <v>0.48381830000000003</v>
-      </c>
-    </row>
-    <row r="52" spans="2:16">
-      <c r="C52" s="7">
-        <f>C25*H9</f>
-        <v>-10.176204</v>
-      </c>
-      <c r="D52" s="7">
-        <f>D25*I9</f>
-        <v>1.2694037457919998</v>
-      </c>
-      <c r="E52" s="7">
-        <f>E25*J9</f>
-        <v>0</v>
-      </c>
-      <c r="F52" s="19">
-        <f>0.5*J9*D25+0.5*E25*I9</f>
-        <v>-7.4908743902719994</v>
-      </c>
-      <c r="G52" s="19">
-        <f>0.5*(C25*J9+E25*H9)</f>
-        <v>-6.8415309999999998</v>
-      </c>
-      <c r="H52" s="19">
-        <f>0.5*(C25*I9+D25*H9)</f>
-        <v>-4.9913409370239989</v>
-      </c>
-      <c r="I52" s="7"/>
-      <c r="J52" s="6">
-        <f t="shared" ref="J52:J58" si="27">ABS(C52)</f>
-        <v>10.176204</v>
-      </c>
-      <c r="K52" s="6">
-        <f t="shared" ref="K52:K58" si="28">ABS(D52)</f>
-        <v>1.2694037457919998</v>
-      </c>
-      <c r="L52" s="6">
-        <f t="shared" ref="L52:L58" si="29">ABS(E52)</f>
-        <v>0</v>
-      </c>
-      <c r="M52" s="6">
-        <f t="shared" ref="M52:M58" si="30">ABS(F52)</f>
-        <v>7.4908743902719994</v>
-      </c>
-      <c r="N52" s="6">
-        <f t="shared" ref="N52:N58" si="31">ABS(G52)</f>
-        <v>6.8415309999999998</v>
-      </c>
-      <c r="O52" s="6">
-        <f t="shared" ref="O52:O58" si="32">ABS(H52)</f>
-        <v>4.9913409370239989</v>
-      </c>
-    </row>
-    <row r="53" spans="2:16">
-      <c r="C53" s="7">
-        <f>C26*H10</f>
-        <v>-8.7039139999999993</v>
-      </c>
-      <c r="D53" s="7">
-        <f>D26*I10</f>
-        <v>0</v>
-      </c>
-      <c r="E53" s="7">
-        <f>E26*J10</f>
-        <v>40.376333800000005</v>
-      </c>
-      <c r="F53" s="19">
-        <f>0.5*J10*D26+0.5*E26*I10</f>
-        <v>-5.2246623000000003</v>
-      </c>
-      <c r="G53" s="19">
-        <f>0.5*(C26*J10+E26*H10)</f>
-        <v>13.565726300000001</v>
-      </c>
-      <c r="H53" s="19">
-        <f>0.5*(C26*I10+D26*H10)</f>
-        <v>-4.7496929999999997</v>
-      </c>
-      <c r="I53" s="7"/>
-      <c r="J53" s="6">
-        <f t="shared" si="27"/>
-        <v>8.7039139999999993</v>
-      </c>
-      <c r="K53" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="L53" s="6">
-        <f t="shared" si="29"/>
-        <v>40.376333800000005</v>
-      </c>
-      <c r="M53" s="6">
-        <f t="shared" si="30"/>
-        <v>5.2246623000000003</v>
-      </c>
-      <c r="N53" s="6">
-        <f t="shared" si="31"/>
-        <v>13.565726300000001</v>
-      </c>
-      <c r="O53" s="6">
-        <f t="shared" si="32"/>
-        <v>4.7496929999999997</v>
-      </c>
-    </row>
-    <row r="54" spans="2:16">
-      <c r="C54" s="7">
-        <f>C27*H11</f>
-        <v>0</v>
-      </c>
-      <c r="D54" s="7">
-        <f>D27*I11</f>
-        <v>0.52908118681599992</v>
-      </c>
-      <c r="E54" s="7">
-        <f>E27*J11</f>
-        <v>6.6076010000000007</v>
-      </c>
-      <c r="F54" s="19">
-        <f>0.5*J11*D27+0.5*E27*I11</f>
-        <v>3.5542888209600001</v>
+      <c r="F54" t="s">
+        <v>69</v>
       </c>
       <c r="G54" s="19">
-        <f>0.5*(C27*J11+E27*H11)</f>
-        <v>2.3759801999999999</v>
-      </c>
-      <c r="H54" s="19">
-        <f>0.5*(C27*I11+D27*H11)</f>
-        <v>2.3649902115839998</v>
-      </c>
-      <c r="I54" s="7"/>
-      <c r="J54" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="K54" s="6">
-        <f t="shared" si="28"/>
-        <v>0.52908118681599992</v>
-      </c>
-      <c r="L54" s="6">
-        <f t="shared" si="29"/>
-        <v>6.6076010000000007</v>
-      </c>
-      <c r="M54" s="6">
-        <f t="shared" si="30"/>
-        <v>3.5542888209600001</v>
-      </c>
-      <c r="N54" s="6">
-        <f t="shared" si="31"/>
-        <v>2.3759801999999999</v>
-      </c>
-      <c r="O54" s="6">
-        <f t="shared" si="32"/>
-        <v>2.3649902115839998</v>
-      </c>
-    </row>
-    <row r="55" spans="2:16">
-      <c r="C55" s="7">
-        <f>C28*H12</f>
-        <v>4.1103680000000002</v>
-      </c>
-      <c r="D55" s="7">
-        <f>D28*I12</f>
-        <v>-12.848924972799999</v>
-      </c>
-      <c r="E55" s="7">
-        <f>E28*J12</f>
-        <v>-11.409633400000001</v>
-      </c>
-      <c r="F55" s="19">
-        <f>0.5*J12*D28+0.5*E28*I12</f>
-        <v>-12.172517501600002</v>
-      </c>
-      <c r="G55" s="19">
-        <f>0.5*(C28*J12+E28*H12)</f>
-        <v>-2.9254945999999995</v>
-      </c>
-      <c r="H55" s="19">
-        <f>0.5*(C28*I12+D28*H12)</f>
-        <v>-3.9385652847999997</v>
-      </c>
-      <c r="I55" s="7"/>
-      <c r="J55" s="6">
-        <f t="shared" si="27"/>
-        <v>4.1103680000000002</v>
-      </c>
-      <c r="K55" s="6">
-        <f t="shared" si="28"/>
-        <v>12.848924972799999</v>
-      </c>
-      <c r="L55" s="6">
-        <f t="shared" si="29"/>
-        <v>11.409633400000001</v>
-      </c>
-      <c r="M55" s="6">
-        <f t="shared" si="30"/>
-        <v>12.172517501600002</v>
-      </c>
-      <c r="N55" s="6">
-        <f t="shared" si="31"/>
-        <v>2.9254945999999995</v>
-      </c>
-      <c r="O55" s="6">
-        <f t="shared" si="32"/>
-        <v>3.9385652847999997</v>
-      </c>
-    </row>
-    <row r="56" spans="2:16">
-      <c r="C56" s="7">
-        <f>C29*H13</f>
-        <v>48.820224000000003</v>
-      </c>
-      <c r="D56" s="7">
-        <f>D29*I13</f>
-        <v>0</v>
-      </c>
-      <c r="E56" s="7">
-        <f>E29*J13</f>
-        <v>0.38017161600000005</v>
-      </c>
-      <c r="F56" s="19">
-        <f>0.5*J13*D29+0.5*E29*I13</f>
-        <v>0.91564008800000007</v>
-      </c>
-      <c r="G56" s="19">
-        <f>0.5*(C29*J13+E29*H13)</f>
-        <v>4.3081558560000008</v>
-      </c>
-      <c r="H56" s="19">
-        <f>0.5*(C29*I13+D29*H13)</f>
-        <v>10.405001</v>
-      </c>
-      <c r="I56" s="7"/>
-      <c r="J56" s="6">
-        <f t="shared" si="27"/>
-        <v>48.820224000000003</v>
-      </c>
-      <c r="K56" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="L56" s="6">
-        <f t="shared" si="29"/>
-        <v>0.38017161600000005</v>
-      </c>
-      <c r="M56" s="6">
-        <f t="shared" si="30"/>
-        <v>0.91564008800000007</v>
-      </c>
-      <c r="N56" s="6">
-        <f t="shared" si="31"/>
-        <v>4.3081558560000008</v>
-      </c>
-      <c r="O56" s="6">
-        <f t="shared" si="32"/>
-        <v>10.405001</v>
-      </c>
-    </row>
-    <row r="57" spans="2:16">
-      <c r="C57" s="7">
-        <f>C30*H14</f>
-        <v>0</v>
-      </c>
-      <c r="D57" s="7">
-        <f>D30*I14</f>
-        <v>-12.848924972799999</v>
-      </c>
-      <c r="E57" s="7">
-        <f>E30*J14</f>
-        <v>0</v>
-      </c>
-      <c r="F57" s="19">
-        <f>0.5*J14*D30+0.5*E30*I14</f>
-        <v>3.4378847103999997</v>
-      </c>
-      <c r="G57" s="19">
-        <f>0.5*(C30*J14+E30*H14)</f>
-        <v>0</v>
-      </c>
-      <c r="H57" s="19">
-        <f>0.5*(C30*I14+D30*H14)</f>
-        <v>-6.4628875807999995</v>
-      </c>
-      <c r="I57" s="7"/>
-      <c r="J57" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="K57" s="6">
-        <f t="shared" si="28"/>
-        <v>12.848924972799999</v>
-      </c>
-      <c r="L57" s="6">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="M57" s="6">
-        <f t="shared" si="30"/>
-        <v>3.4378847103999997</v>
-      </c>
-      <c r="N57" s="6">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="O57" s="6">
-        <f t="shared" si="32"/>
-        <v>6.4628875807999995</v>
-      </c>
-    </row>
-    <row r="58" spans="2:16">
-      <c r="C58" s="7">
-        <f>C31*H15</f>
-        <v>0</v>
-      </c>
-      <c r="D58" s="7">
-        <f>D31*I15</f>
-        <v>0</v>
-      </c>
-      <c r="E58" s="7">
-        <f>E31*J15</f>
-        <v>-13.108033400000002</v>
-      </c>
-      <c r="F58" s="19">
-        <f>0.5*J15*D31+0.5*E31*I15</f>
-        <v>11.622718800000001</v>
-      </c>
-      <c r="G58" s="19">
-        <f>0.5*(C31*J15+E31*H15)</f>
-        <v>-5.6637097000000001</v>
-      </c>
-      <c r="H58" s="19">
-        <f>0.5*(C31*I15+D31*H15)</f>
-        <v>0</v>
-      </c>
-      <c r="I58" s="7"/>
-      <c r="J58" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="K58" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="L58" s="6">
-        <f t="shared" si="29"/>
-        <v>13.108033400000002</v>
-      </c>
-      <c r="M58" s="6">
-        <f t="shared" si="30"/>
-        <v>11.622718800000001</v>
-      </c>
-      <c r="N58" s="6">
-        <f t="shared" si="31"/>
-        <v>5.6637097000000001</v>
-      </c>
-      <c r="O58" s="6">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:16">
-      <c r="B59" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C59" s="26">
-        <f>SUM(C51:C58)</f>
-        <v>32.470947800000005</v>
-      </c>
-      <c r="D59" s="26">
-        <f t="shared" ref="D59:F59" si="33">SUM(D51:D58)</f>
-        <v>-23.899365012992</v>
-      </c>
-      <c r="E59" s="26">
-        <f t="shared" si="33"/>
-        <v>22.846439616000005</v>
-      </c>
-      <c r="F59" s="26">
-        <f t="shared" ref="F59" si="34">SUM(F51:F58)</f>
-        <v>-5.3575217725120012</v>
-      </c>
-      <c r="G59" s="26">
-        <f t="shared" ref="G59:H59" si="35">SUM(G51:G58)</f>
-        <v>3.9395327560000037</v>
-      </c>
-      <c r="H59" s="26">
-        <f t="shared" si="35"/>
-        <v>-7.8563138910399983</v>
-      </c>
-      <c r="I59" s="7"/>
-      <c r="J59" s="26">
-        <f>SUM(J51:J58)</f>
-        <v>73.390236200000004</v>
-      </c>
-      <c r="K59" s="26">
-        <f t="shared" ref="K59:O59" si="36">SUM(K51:K58)</f>
-        <v>27.496334878207996</v>
-      </c>
-      <c r="L59" s="26">
-        <f t="shared" si="36"/>
-        <v>71.881773215999999</v>
-      </c>
-      <c r="M59" s="26">
-        <f t="shared" si="36"/>
-        <v>44.418586611232001</v>
-      </c>
-      <c r="N59" s="26">
-        <f t="shared" si="36"/>
-        <v>36.560191956000004</v>
-      </c>
-      <c r="O59" s="26">
-        <f t="shared" si="36"/>
-        <v>33.396296314208001</v>
-      </c>
-      <c r="P59" s="7"/>
+        <f>-H18-G53</f>
+        <v>1.4563931453027976</v>
+      </c>
+      <c r="K54" s="19">
+        <f>-H18-K53</f>
+        <v>1.330226187348984</v>
+      </c>
+      <c r="S54" s="19"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A55" s="25"/>
+      <c r="F55" t="s">
+        <v>99</v>
+      </c>
+      <c r="S55" s="19"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E56" s="27">
+        <f>SUM(E46:E48)</f>
+        <v>192.51866826402232</v>
+      </c>
+      <c r="F56" s="29">
+        <f>(-H18-E56)/-H18</f>
+        <v>2.1815892954658288E-9</v>
+      </c>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="K56" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="L56" s="25"/>
+      <c r="M56" s="25"/>
+      <c r="O56" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="P56" s="25"/>
+      <c r="Q56" s="25"/>
+      <c r="S56" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A57" s="25"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="K57" s="28">
+        <f>K46-G46</f>
+        <v>4.4801332741300826E-2</v>
+      </c>
+      <c r="L57" s="25"/>
+      <c r="M57" s="25"/>
+      <c r="O57" s="28">
+        <f>O46-G46</f>
+        <v>0.6191965982287968</v>
+      </c>
+      <c r="P57" s="28"/>
+      <c r="Q57" s="25"/>
+      <c r="S57" s="28">
+        <f>S46-G46</f>
+        <v>0.53181445464790045</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A58" s="25"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="K58" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="L58" s="25"/>
+      <c r="M58" s="25"/>
+      <c r="O58" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="P58" s="25"/>
+      <c r="Q58" s="25"/>
+      <c r="S58" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="T58" s="19"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A59" s="25"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="K59" s="27">
+        <f>E46-K46</f>
+        <v>0.48701275309075243</v>
+      </c>
+      <c r="L59" s="27"/>
+      <c r="M59" s="27"/>
+      <c r="O59" s="19">
+        <f>E46-O46</f>
+        <v>-8.738251239674355E-2</v>
+      </c>
+      <c r="P59" s="27"/>
+      <c r="Q59" s="27"/>
+      <c r="S59" s="28">
+        <f>E46-G46</f>
+        <v>0.53181408583205325</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A60" s="25"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="25"/>
+      <c r="P60" s="25"/>
+      <c r="Q60" s="25"/>
+      <c r="S60" s="25"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A61" s="25"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="25"/>
+      <c r="O61" t="s">
+        <v>105</v>
+      </c>
+      <c r="P61" s="25"/>
+      <c r="Q61" s="25"/>
+      <c r="S61" s="25"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A62" s="25"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="25"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="25"/>
+      <c r="M62" s="25"/>
+      <c r="O62" s="27">
+        <f>O57-2*K57</f>
+        <v>0.52959393274619515</v>
+      </c>
+      <c r="P62" s="25"/>
+      <c r="Q62" s="25"/>
+      <c r="S62" s="25"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A63" s="25"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="25"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="25"/>
+      <c r="M63" s="25"/>
+      <c r="O63" s="28">
+        <f>G46+O62</f>
+        <v>79.397207533797001</v>
+      </c>
+      <c r="P63" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q63" s="25"/>
+      <c r="S63" s="25"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A64" s="25"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="25"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="25"/>
+      <c r="M64" s="25"/>
+      <c r="O64" s="25"/>
+      <c r="P64" s="25"/>
+      <c r="Q64" s="25"/>
+      <c r="S64" s="25"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A65" s="25"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="25"/>
+      <c r="O65" s="25"/>
+      <c r="P65" s="25"/>
+      <c r="Q65" s="25"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A66" s="25"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="25"/>
+      <c r="M66" s="25"/>
+      <c r="N66" s="25"/>
+      <c r="O66" s="25"/>
+      <c r="P66" s="25"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A67" s="25"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="25"/>
+      <c r="M67" s="25"/>
+      <c r="N67" s="25"/>
+      <c r="O67" s="25"/>
+      <c r="P67" s="25"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A68" s="25"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="25"/>
+      <c r="L68" s="25"/>
+      <c r="M68" s="25"/>
+      <c r="N68" s="25"/>
+      <c r="O68" s="25"/>
+      <c r="P68" s="25"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A69" s="25"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="25"/>
+      <c r="M69" s="25"/>
+      <c r="N69" s="25"/>
+      <c r="O69" s="25"/>
+      <c r="P69" s="25"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A70" s="25"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="25"/>
+      <c r="M70" s="25"/>
+      <c r="N70" s="25"/>
+      <c r="O70" s="25"/>
+      <c r="P70" s="25"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A71" s="25"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="25"/>
+      <c r="M71" s="25"/>
+      <c r="N71" s="25"/>
+      <c r="O71" s="25"/>
+      <c r="P71" s="25"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A72" s="25"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="25"/>
+      <c r="M72" s="25"/>
+      <c r="N72" s="25"/>
+      <c r="O72" s="25"/>
+      <c r="P72" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="G53 K53 O53 S53" formulaRange="1"/>
+  </ignoredErrors>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3804,36 +4239,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AEEC43B-18CA-D24E-A264-E98DB9E2B980}">
   <dimension ref="C2:U14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="N22:O23"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="19" max="20" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:21">
+    <row r="2" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
-        <v>76</v>
+        <v>74</v>
+      </c>
+      <c r="K2" t="s">
+        <v>74</v>
       </c>
       <c r="O2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="3:21">
+    <row r="3" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D3">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="5" spans="3:21">
+    <row r="5" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>52</v>
       </c>
@@ -3847,29 +4285,29 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="3:21">
+    <row r="6" spans="3:21" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" t="s">
         <v>86</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>87</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>88</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>89</v>
       </c>
-      <c r="H6" t="s">
-        <v>90</v>
-      </c>
-      <c r="I6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="3:21">
+    </row>
+    <row r="7" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D7" s="7">
         <v>-192.52819099000001</v>
@@ -3926,9 +4364,9 @@
         <v>2.5921249685227592E-6</v>
       </c>
     </row>
-    <row r="8" spans="3:21">
+    <row r="8" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D8" s="7">
         <v>-192.52536520000001</v>
@@ -3985,9 +4423,9 @@
         <v>1.6663079158945048E-6</v>
       </c>
     </row>
-    <row r="9" spans="3:21">
+    <row r="9" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D9" s="7">
         <v>-192.52462664999999</v>
@@ -4044,9 +4482,9 @@
         <v>-1.5289274180521513E-5</v>
       </c>
     </row>
-    <row r="10" spans="3:21">
+    <row r="10" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D10" s="7">
         <v>-192.51811373000001</v>
@@ -4103,9 +4541,9 @@
         <v>-1.2652184463620587E-6</v>
       </c>
     </row>
-    <row r="11" spans="3:21">
+    <row r="11" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D11" s="7">
         <v>-192.51822000999999</v>
@@ -4162,9 +4600,9 @@
         <v>-3.5093435147635787E-6</v>
       </c>
     </row>
-    <row r="12" spans="3:21">
+    <row r="12" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D12" s="7">
         <v>-192.49587088999999</v>
@@ -4221,9 +4659,9 @@
         <v>1.2870084100993241E-4</v>
       </c>
     </row>
-    <row r="13" spans="3:21">
+    <row r="13" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D13" s="7">
         <v>-192.52641899</v>
@@ -4280,9 +4718,9 @@
         <v>7.3497155050543058E-7</v>
       </c>
     </row>
-    <row r="14" spans="3:21">
+    <row r="14" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D14" s="7">
         <v>-192.5254262</v>
@@ -4346,6 +4784,1970 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16719550-65CE-814B-9C93-EA4162F3BE7F}">
+  <dimension ref="A3:W72"/>
+  <sheetViews>
+    <sheetView topLeftCell="C27" zoomScale="94" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J62" sqref="J62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="22" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5">
+        <f>D6*E6*F6</f>
+        <v>74.11712</v>
+      </c>
+    </row>
+    <row r="6" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4.2111999999999998</v>
+      </c>
+      <c r="F6" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>67</v>
+      </c>
+      <c r="R7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="E8" s="20">
+        <v>0</v>
+      </c>
+      <c r="F8" s="20">
+        <v>0</v>
+      </c>
+      <c r="H8" s="19">
+        <f>D8*D$6</f>
+        <v>0.2</v>
+      </c>
+      <c r="I8" s="19">
+        <f>E8*E$6</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="19">
+        <f>F8*F$6</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="19">
+        <f>C24*H8</f>
+        <v>-1.5795262000000001</v>
+      </c>
+      <c r="M8" s="19">
+        <f t="shared" ref="M8:N15" si="0">D24*I8</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="19">
+        <f>G24*H8</f>
+        <v>-0.39487840000000002</v>
+      </c>
+      <c r="Q8" s="19">
+        <f t="shared" ref="Q8:R15" si="1">H24*I8</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f>I8*C24*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f>H8*D24*0.5</f>
+        <v>-0.48381830000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="20">
+        <v>0.52</v>
+      </c>
+      <c r="F9" s="20">
+        <v>0</v>
+      </c>
+      <c r="H9" s="19">
+        <f>D9*D$6</f>
+        <v>2</v>
+      </c>
+      <c r="I9" s="19">
+        <f>E9*E$6</f>
+        <v>2.1898239999999998</v>
+      </c>
+      <c r="J9" s="19">
+        <f>F9*F$6</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="19">
+        <f t="shared" ref="L9:L15" si="2">C25*H9</f>
+        <v>-10.176204</v>
+      </c>
+      <c r="M9" s="19">
+        <f t="shared" si="0"/>
+        <v>1.2694037457919998</v>
+      </c>
+      <c r="N9" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="19">
+        <f t="shared" ref="P9:P15" si="3">G25*H9</f>
+        <v>-2.5440299999999998</v>
+      </c>
+      <c r="Q9" s="19">
+        <f t="shared" si="1"/>
+        <v>0.30143365324799998</v>
+      </c>
+      <c r="R9" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f t="shared" ref="T9:T15" si="4">I9*C25*0.5</f>
+        <v>-5.5710239370239991</v>
+      </c>
+      <c r="U9">
+        <f t="shared" ref="U9:U15" si="5">H9*D25*0.5</f>
+        <v>0.57968299999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="20">
+        <v>0</v>
+      </c>
+      <c r="F10" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="19">
+        <f>D10*D$6</f>
+        <v>2</v>
+      </c>
+      <c r="I10" s="19">
+        <f>E10*E$6</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="19">
+        <f>F10*F$6</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L10" s="19">
+        <f t="shared" si="2"/>
+        <v>-8.7039139999999993</v>
+      </c>
+      <c r="M10" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="19">
+        <f t="shared" si="0"/>
+        <v>40.376333800000005</v>
+      </c>
+      <c r="P10" s="19">
+        <f t="shared" si="3"/>
+        <v>-2.1759620000000002</v>
+      </c>
+      <c r="Q10" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="19">
+        <f t="shared" si="1"/>
+        <v>9.1763672000000014</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="5"/>
+        <v>-4.7496929999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="20">
+        <v>0</v>
+      </c>
+      <c r="E11" s="20">
+        <v>0.52</v>
+      </c>
+      <c r="F11" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="19">
+        <f>D11*D$6</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="19">
+        <f>E11*E$6</f>
+        <v>2.1898239999999998</v>
+      </c>
+      <c r="J11" s="19">
+        <f>F11*F$6</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L11" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="19">
+        <f t="shared" si="0"/>
+        <v>0.52908118681599992</v>
+      </c>
+      <c r="N11" s="19">
+        <f t="shared" si="0"/>
+        <v>6.6076010000000007</v>
+      </c>
+      <c r="P11" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="19">
+        <f t="shared" si="1"/>
+        <v>0.12563458252799997</v>
+      </c>
+      <c r="R11" s="19">
+        <f t="shared" si="1"/>
+        <v>1.5017156000000003</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="4"/>
+        <v>2.3649902115839998</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>-2</v>
+      </c>
+      <c r="D12" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="19">
+        <f>D12*D$6</f>
+        <v>2</v>
+      </c>
+      <c r="I12" s="19">
+        <f>E12*E$6</f>
+        <v>2.1055999999999999</v>
+      </c>
+      <c r="J12" s="19">
+        <f>F12*F$6</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L12" s="19">
+        <f t="shared" si="2"/>
+        <v>4.1103680000000002</v>
+      </c>
+      <c r="M12" s="19">
+        <f t="shared" si="0"/>
+        <v>-12.848924972799999</v>
+      </c>
+      <c r="N12" s="19">
+        <f t="shared" si="0"/>
+        <v>-11.409633400000001</v>
+      </c>
+      <c r="P12" s="19">
+        <f t="shared" si="3"/>
+        <v>1.0275840000000001</v>
+      </c>
+      <c r="Q12" s="19">
+        <f t="shared" si="1"/>
+        <v>-3.0511070463999999</v>
+      </c>
+      <c r="R12" s="19">
+        <f t="shared" si="1"/>
+        <v>-2.5930784</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="4"/>
+        <v>2.1636977152000001</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="5"/>
+        <v>-6.1022629999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>-2</v>
+      </c>
+      <c r="D13" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="20">
+        <v>0</v>
+      </c>
+      <c r="F13" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="H13" s="19">
+        <f>D13*D$6</f>
+        <v>2</v>
+      </c>
+      <c r="I13" s="19">
+        <f>E13*E$6</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="19">
+        <f>F13*F$6</f>
+        <v>0.17600000000000002</v>
+      </c>
+      <c r="L13" s="19">
+        <f t="shared" si="2"/>
+        <v>48.820224000000003</v>
+      </c>
+      <c r="M13" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="19">
+        <f t="shared" si="0"/>
+        <v>0.38017161600000005</v>
+      </c>
+      <c r="P13" s="19">
+        <f t="shared" si="3"/>
+        <v>12.20496</v>
+      </c>
+      <c r="Q13" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="19">
+        <f t="shared" si="1"/>
+        <v>8.6401920000000007E-2</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="5"/>
+        <v>10.405001</v>
+      </c>
+    </row>
+    <row r="14" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>-2</v>
+      </c>
+      <c r="D14" s="20">
+        <v>0</v>
+      </c>
+      <c r="E14" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="20">
+        <v>0</v>
+      </c>
+      <c r="H14" s="19">
+        <f>D14*D$6</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="19">
+        <f>E14*E$6</f>
+        <v>2.1055999999999999</v>
+      </c>
+      <c r="J14" s="19">
+        <f>F14*F$6</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="19">
+        <f t="shared" si="0"/>
+        <v>-12.848924972799999</v>
+      </c>
+      <c r="N14" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="19">
+        <f t="shared" si="1"/>
+        <v>-3.0511070463999999</v>
+      </c>
+      <c r="R14" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="4"/>
+        <v>-6.4628875807999995</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>-2</v>
+      </c>
+      <c r="D15" s="20">
+        <v>0</v>
+      </c>
+      <c r="E15" s="20">
+        <v>0</v>
+      </c>
+      <c r="F15" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="19">
+        <f>D15*D$6</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="19">
+        <f>E15*E$6</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="19">
+        <f>F15*F$6</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L15" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="19">
+        <f t="shared" si="0"/>
+        <v>-13.108033400000002</v>
+      </c>
+      <c r="P15" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="19">
+        <f t="shared" si="1"/>
+        <v>-2.9790750000000004</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="L16" s="19">
+        <f>SUM(L8:L15)</f>
+        <v>32.470947800000005</v>
+      </c>
+      <c r="M16" s="19">
+        <f t="shared" ref="M16" si="6">SUM(M8:M15)</f>
+        <v>-23.899365012992</v>
+      </c>
+      <c r="N16" s="19">
+        <f>SUM(N8:N15)</f>
+        <v>22.846439616000005</v>
+      </c>
+      <c r="T16">
+        <f>SUM(T8:T15)</f>
+        <v>-7.5052235910399983</v>
+      </c>
+      <c r="U16">
+        <f>SUM(U8:U15)</f>
+        <v>-0.35109029999999919</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="H17" s="19"/>
+      <c r="I17" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="19">
+        <f>D46/L16</f>
+        <v>2.4452645943399283</v>
+      </c>
+      <c r="M17" s="19">
+        <f>D47/M16</f>
+        <v>-2.589573863839322</v>
+      </c>
+      <c r="N17" s="19">
+        <f>D48/N16</f>
+        <v>2.2424049375344031</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="19">
+        <v>-192.52019942000001</v>
+      </c>
+      <c r="G18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18">
+        <v>-192.51866868401899</v>
+      </c>
+      <c r="I18" s="22">
+        <f>(D18-H18)/D18</f>
+        <v>7.9510409070447098E-6</v>
+      </c>
+      <c r="L18" s="19"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <f>D18/H18</f>
+        <v>1.0000079511041267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" t="s">
+        <v>51</v>
+      </c>
+      <c r="K22" t="s">
+        <v>54</v>
+      </c>
+      <c r="O22" t="s">
+        <v>57</v>
+      </c>
+      <c r="S22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C24" s="6">
+        <v>-7.8976309999999996</v>
+      </c>
+      <c r="D24" s="6">
+        <v>-4.8381829999999999</v>
+      </c>
+      <c r="E24" s="6">
+        <v>-8.7959429999999994</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6">
+        <v>-1.9743919999999999</v>
+      </c>
+      <c r="H24" s="6">
+        <v>-1.148876</v>
+      </c>
+      <c r="I24" s="6">
+        <v>-1.9990619999999999</v>
+      </c>
+      <c r="K24" s="6">
+        <f>C24/G24</f>
+        <v>4.0000319085571663</v>
+      </c>
+      <c r="L24" s="6">
+        <f t="shared" ref="L24:M31" si="7">D24/H24</f>
+        <v>4.2112316733920805</v>
+      </c>
+      <c r="M24" s="6">
+        <f t="shared" si="7"/>
+        <v>4.4000351164696241</v>
+      </c>
+      <c r="O24" s="7">
+        <f>G24*D$6</f>
+        <v>-7.8975679999999997</v>
+      </c>
+      <c r="P24" s="7">
+        <f>H24*E$6</f>
+        <v>-4.8381466112</v>
+      </c>
+      <c r="Q24" s="7">
+        <f>I24*F$6</f>
+        <v>-8.7958727999999997</v>
+      </c>
+      <c r="S24" s="16">
+        <f>(C24-O24)/C24</f>
+        <v>7.9770756572349648E-6</v>
+      </c>
+      <c r="T24" s="16">
+        <f t="shared" ref="T24:U31" si="8">(D24-P24)/D24</f>
+        <v>7.5211706543340695E-6</v>
+      </c>
+      <c r="U24" s="16">
+        <f t="shared" si="8"/>
+        <v>7.9809521275532574E-6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C25" s="6">
+        <v>-5.0881020000000001</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0.57968299999999995</v>
+      </c>
+      <c r="E25" s="6">
+        <v>-6.8415309999999998</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6">
+        <v>-1.2720149999999999</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0.137652</v>
+      </c>
+      <c r="I25" s="6">
+        <v>-1.554881</v>
+      </c>
+      <c r="K25" s="6">
+        <f t="shared" ref="K25:K31" si="9">C25/G25</f>
+        <v>4.0000330184785557</v>
+      </c>
+      <c r="L25" s="6">
+        <f t="shared" si="7"/>
+        <v>4.2112210501845233</v>
+      </c>
+      <c r="M25" s="6">
+        <f t="shared" si="7"/>
+        <v>4.4000351152274675</v>
+      </c>
+      <c r="O25" s="7">
+        <f>G25*D$6</f>
+        <v>-5.0880599999999996</v>
+      </c>
+      <c r="P25" s="7">
+        <f>H25*E$6</f>
+        <v>0.57968010240000001</v>
+      </c>
+      <c r="Q25" s="7">
+        <f>I25*F$6</f>
+        <v>-6.8414764000000003</v>
+      </c>
+      <c r="S25" s="16">
+        <f t="shared" ref="S25:S31" si="10">(C25-O25)/C25</f>
+        <v>8.2545515008428685E-6</v>
+      </c>
+      <c r="T25" s="16">
+        <f t="shared" si="8"/>
+        <v>4.9985940590638778E-6</v>
+      </c>
+      <c r="U25" s="16">
+        <f t="shared" si="8"/>
+        <v>7.980669823678448E-6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C26" s="6">
+        <v>-4.3519569999999996</v>
+      </c>
+      <c r="D26" s="6">
+        <v>-4.7496929999999997</v>
+      </c>
+      <c r="E26" s="6">
+        <v>18.352879000000001</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6">
+        <v>-1.0879810000000001</v>
+      </c>
+      <c r="H26" s="6">
+        <v>-1.1278630000000001</v>
+      </c>
+      <c r="I26" s="6">
+        <v>4.1710760000000002</v>
+      </c>
+      <c r="K26" s="6">
+        <f t="shared" si="9"/>
+        <v>4.0000303314120371</v>
+      </c>
+      <c r="L26" s="6">
+        <f t="shared" si="7"/>
+        <v>4.2112322152601864</v>
+      </c>
+      <c r="M26" s="6">
+        <f t="shared" si="7"/>
+        <v>4.4000346673136619</v>
+      </c>
+      <c r="O26" s="7">
+        <f>G26*D$6</f>
+        <v>-4.3519240000000003</v>
+      </c>
+      <c r="P26" s="7">
+        <f>H26*E$6</f>
+        <v>-4.7496566655999999</v>
+      </c>
+      <c r="Q26" s="7">
+        <f>I26*F$6</f>
+        <v>18.352734400000003</v>
+      </c>
+      <c r="S26" s="16">
+        <f t="shared" si="10"/>
+        <v>7.5827955099932293E-6</v>
+      </c>
+      <c r="T26" s="16">
+        <f t="shared" si="8"/>
+        <v>7.6498417897404718E-6</v>
+      </c>
+      <c r="U26" s="16">
+        <f t="shared" si="8"/>
+        <v>7.8788728459833448E-6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C27" s="6">
+        <v>2.1599819999999998</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0.24160899999999999</v>
+      </c>
+      <c r="E27" s="6">
+        <v>3.0034550000000002</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6">
+        <v>0.539991</v>
+      </c>
+      <c r="H27" s="6">
+        <v>5.7371999999999999E-2</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0.68259800000000004</v>
+      </c>
+      <c r="K27" s="6">
+        <f t="shared" si="9"/>
+        <v>4.000033333888898</v>
+      </c>
+      <c r="L27" s="6">
+        <f t="shared" si="7"/>
+        <v>4.2112703060726489</v>
+      </c>
+      <c r="M27" s="6">
+        <f t="shared" si="7"/>
+        <v>4.4000348667883591</v>
+      </c>
+      <c r="O27" s="7">
+        <f>G27*D$6</f>
+        <v>2.159964</v>
+      </c>
+      <c r="P27" s="7">
+        <f>H27*E$6</f>
+        <v>0.24160496639999998</v>
+      </c>
+      <c r="Q27" s="7">
+        <f>I27*F$6</f>
+        <v>3.0034312000000005</v>
+      </c>
+      <c r="S27" s="16">
+        <f t="shared" si="10"/>
+        <v>8.3334027782877221E-6</v>
+      </c>
+      <c r="T27" s="16">
+        <f t="shared" si="8"/>
+        <v>1.6694742331653704E-5</v>
+      </c>
+      <c r="U27" s="16">
+        <f t="shared" si="8"/>
+        <v>7.9242072878352365E-6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C28" s="6">
+        <v>2.0551840000000001</v>
+      </c>
+      <c r="D28" s="6">
+        <v>-6.1022629999999998</v>
+      </c>
+      <c r="E28" s="6">
+        <v>-5.1861969999999999</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6">
+        <v>0.51379200000000003</v>
+      </c>
+      <c r="H28" s="6">
+        <v>-1.449044</v>
+      </c>
+      <c r="I28" s="6">
+        <v>-1.1786719999999999</v>
+      </c>
+      <c r="K28" s="6">
+        <f t="shared" si="9"/>
+        <v>4.0000311410064775</v>
+      </c>
+      <c r="L28" s="6">
+        <f t="shared" si="7"/>
+        <v>4.2112337513560663</v>
+      </c>
+      <c r="M28" s="6">
+        <f t="shared" si="7"/>
+        <v>4.4000341061805148</v>
+      </c>
+      <c r="O28" s="7">
+        <f>G28*D$6</f>
+        <v>2.0551680000000001</v>
+      </c>
+      <c r="P28" s="7">
+        <f>H28*E$6</f>
+        <v>-6.1022140927999997</v>
+      </c>
+      <c r="Q28" s="7">
+        <f>I28*F$6</f>
+        <v>-5.1861568</v>
+      </c>
+      <c r="S28" s="16">
+        <f t="shared" si="10"/>
+        <v>7.785191009669208E-6</v>
+      </c>
+      <c r="T28" s="16">
+        <f t="shared" si="8"/>
+        <v>8.0146004851083925E-6</v>
+      </c>
+      <c r="U28" s="16">
+        <f t="shared" si="8"/>
+        <v>7.7513445786835195E-6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C29" s="6">
+        <v>24.410112000000002</v>
+      </c>
+      <c r="D29" s="6">
+        <v>10.405001</v>
+      </c>
+      <c r="E29" s="6">
+        <v>2.160066</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6">
+        <v>6.1024799999999999</v>
+      </c>
+      <c r="H29" s="6">
+        <v>2.4707729999999999</v>
+      </c>
+      <c r="I29" s="6">
+        <v>0.49092000000000002</v>
+      </c>
+      <c r="K29" s="6">
+        <f t="shared" si="9"/>
+        <v>4.0000314626184768</v>
+      </c>
+      <c r="L29" s="6">
+        <f t="shared" si="7"/>
+        <v>4.2112330837353333</v>
+      </c>
+      <c r="M29" s="6">
+        <f t="shared" si="7"/>
+        <v>4.4000366658518697</v>
+      </c>
+      <c r="O29" s="7">
+        <f>G29*D$6</f>
+        <v>24.40992</v>
+      </c>
+      <c r="P29" s="7">
+        <f>H29*E$6</f>
+        <v>10.4049192576</v>
+      </c>
+      <c r="Q29" s="7">
+        <f>I29*F$6</f>
+        <v>2.1600480000000002</v>
+      </c>
+      <c r="S29" s="16">
+        <f t="shared" si="10"/>
+        <v>7.865592751150357E-6</v>
+      </c>
+      <c r="T29" s="16">
+        <f t="shared" si="8"/>
+        <v>7.8560684425504627E-6</v>
+      </c>
+      <c r="U29" s="16">
+        <f t="shared" si="8"/>
+        <v>8.3330787114150523E-6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30" s="6">
+        <v>-6.1387609999999997</v>
+      </c>
+      <c r="D30" s="6">
+        <v>-6.1022629999999998</v>
+      </c>
+      <c r="E30" s="6">
+        <v>3.2654679999999998</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6">
+        <v>-1.534678</v>
+      </c>
+      <c r="H30" s="6">
+        <v>-1.449044</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0.74214599999999997</v>
+      </c>
+      <c r="J30"/>
+      <c r="K30" s="6">
+        <f t="shared" si="9"/>
+        <v>4.0000319285218131</v>
+      </c>
+      <c r="L30" s="6">
+        <f t="shared" si="7"/>
+        <v>4.2112337513560663</v>
+      </c>
+      <c r="M30" s="6">
+        <f t="shared" si="7"/>
+        <v>4.4000344945603693</v>
+      </c>
+      <c r="N30"/>
+      <c r="O30" s="7">
+        <f>G30*D$6</f>
+        <v>-6.1387119999999999</v>
+      </c>
+      <c r="P30" s="7">
+        <f>H30*E$6</f>
+        <v>-6.1022140927999997</v>
+      </c>
+      <c r="Q30" s="7">
+        <f>I30*F$6</f>
+        <v>3.2654424</v>
+      </c>
+      <c r="R30"/>
+      <c r="S30" s="16">
+        <f t="shared" si="10"/>
+        <v>7.982066739484352E-6</v>
+      </c>
+      <c r="T30" s="16">
+        <f t="shared" si="8"/>
+        <v>8.0146004851083925E-6</v>
+      </c>
+      <c r="U30" s="16">
+        <f t="shared" si="8"/>
+        <v>7.8396113512207042E-6</v>
+      </c>
+      <c r="V30"/>
+      <c r="W30"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C31" s="6">
+        <v>-5.1488269999999998</v>
+      </c>
+      <c r="D31" s="6">
+        <v>10.566108</v>
+      </c>
+      <c r="E31" s="6">
+        <v>-5.9581970000000002</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6">
+        <v>-1.2871969999999999</v>
+      </c>
+      <c r="H31" s="6">
+        <v>2.509029</v>
+      </c>
+      <c r="I31" s="6">
+        <v>-1.354125</v>
+      </c>
+      <c r="K31" s="6">
+        <f t="shared" si="9"/>
+        <v>4.000030298392554</v>
+      </c>
+      <c r="L31" s="6">
+        <f t="shared" si="7"/>
+        <v>4.211233907619242</v>
+      </c>
+      <c r="M31" s="6">
+        <f t="shared" si="7"/>
+        <v>4.4000347087602698</v>
+      </c>
+      <c r="O31" s="7">
+        <f>G31*D$6</f>
+        <v>-5.1487879999999997</v>
+      </c>
+      <c r="P31" s="7">
+        <f>H31*E$6</f>
+        <v>10.566022924799999</v>
+      </c>
+      <c r="Q31" s="7">
+        <f>I31*F$6</f>
+        <v>-5.9581500000000007</v>
+      </c>
+      <c r="S31" s="16">
+        <f t="shared" si="10"/>
+        <v>7.5745407643570609E-6</v>
+      </c>
+      <c r="T31" s="16">
+        <f t="shared" si="8"/>
+        <v>8.0517064562682689E-6</v>
+      </c>
+      <c r="U31" s="16">
+        <f t="shared" si="8"/>
+        <v>7.8882923809776914E-6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A32" s="25"/>
+      <c r="B32" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="24">
+        <f>SUM(C24:C31)</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="24">
+        <f t="shared" ref="D32:E32" si="11">SUM(D24:D31)</f>
+        <v>-9.9999999747524271E-7</v>
+      </c>
+      <c r="E32" s="24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24">
+        <f t="shared" ref="G32:I32" si="12">SUM(G24:G31)</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="24">
+        <f t="shared" si="12"/>
+        <v>-1.000000000139778E-6</v>
+      </c>
+      <c r="I32" s="24">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24">
+        <f t="shared" ref="O32:Q32" si="13">SUM(O24:O31)</f>
+        <v>0</v>
+      </c>
+      <c r="P32" s="24">
+        <f t="shared" si="13"/>
+        <v>-4.2112000002703098E-6</v>
+      </c>
+      <c r="Q32" s="24">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="24"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="L41" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="M41" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="L42" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="M42" s="31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="G43" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>92</v>
+      </c>
+      <c r="G44" t="s">
+        <v>91</v>
+      </c>
+      <c r="I44" t="s">
+        <v>110</v>
+      </c>
+      <c r="K44" t="s">
+        <v>95</v>
+      </c>
+      <c r="M44" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>110</v>
+      </c>
+      <c r="U44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C45" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="G45" t="s">
+        <v>94</v>
+      </c>
+      <c r="I45" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="K45" t="s">
+        <v>96</v>
+      </c>
+      <c r="M45" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="O45" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="S45" t="s">
+        <v>97</v>
+      </c>
+      <c r="U45" s="30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C46" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="19">
+        <v>79.400058999999999</v>
+      </c>
+      <c r="E46" s="19">
+        <f>D46/$H$19</f>
+        <v>79.399427686882859</v>
+      </c>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19">
+        <v>78.867613601050806</v>
+      </c>
+      <c r="H46" s="21">
+        <f>(D46-G46)/D46</f>
+        <v>6.7058564647816303E-3</v>
+      </c>
+      <c r="I46" s="19">
+        <f>E46-G46</f>
+        <v>0.53181408583205325</v>
+      </c>
+      <c r="K46" s="19">
+        <v>78.912414933792107</v>
+      </c>
+      <c r="L46" s="21">
+        <f>(D46-K46)/D46</f>
+        <v>6.141608360869002E-3</v>
+      </c>
+      <c r="M46" s="19">
+        <f>E46-K46</f>
+        <v>0.48701275309075243</v>
+      </c>
+      <c r="O46" s="19">
+        <v>79.486810199279603</v>
+      </c>
+      <c r="P46" s="21">
+        <f>(D46-O46)/D46</f>
+        <v>-1.0925835619291411E-3</v>
+      </c>
+      <c r="Q46" s="19">
+        <f>E46-O46</f>
+        <v>-8.738251239674355E-2</v>
+      </c>
+      <c r="S46" s="19">
+        <v>79.531611532021003</v>
+      </c>
+      <c r="T46" s="21">
+        <f>(D46-S46)/D46</f>
+        <v>-1.6568316658430223E-3</v>
+      </c>
+      <c r="U46" s="19">
+        <f>E46-S46</f>
+        <v>-0.13218384513814385</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C47" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="19">
+        <v>61.889170999999997</v>
+      </c>
+      <c r="E47" s="19">
+        <f t="shared" ref="E47:E51" si="14">D47/$H$19</f>
+        <v>61.888678916669669</v>
+      </c>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19">
+        <v>61.429245549290599</v>
+      </c>
+      <c r="H47" s="21">
+        <f>(D47-G47)/D47</f>
+        <v>7.4314366031724491E-3</v>
+      </c>
+      <c r="I47" s="19">
+        <f t="shared" ref="I47:I48" si="15">E47-G47</f>
+        <v>0.45943336737907003</v>
+      </c>
+      <c r="K47" s="19">
+        <v>61.4546697220715</v>
+      </c>
+      <c r="L47" s="21">
+        <f>(D47-K47)/D47</f>
+        <v>7.0206349658245891E-3</v>
+      </c>
+      <c r="M47" s="19">
+        <f>E47-K47</f>
+        <v>0.43400919459816834</v>
+      </c>
+      <c r="O47" s="19">
+        <v>61.995438183118097</v>
+      </c>
+      <c r="P47" s="21">
+        <f>(D47-O47)/D47</f>
+        <v>-1.7170561731728357E-3</v>
+      </c>
+      <c r="Q47" s="19">
+        <f>E47-O47</f>
+        <v>-0.10675926644842804</v>
+      </c>
+      <c r="S47" s="19">
+        <v>62.020862355898998</v>
+      </c>
+      <c r="T47" s="21">
+        <f>(D47-S47)/D47</f>
+        <v>-2.1278578105206961E-3</v>
+      </c>
+      <c r="U47" s="19">
+        <f>E47-S47</f>
+        <v>-0.13218343922932974</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A48" s="25"/>
+      <c r="C48" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="19">
+        <v>51.230969000000002</v>
+      </c>
+      <c r="E48" s="19">
+        <f t="shared" si="14"/>
+        <v>51.230561660469775</v>
+      </c>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19">
+        <v>50.765416388374803</v>
+      </c>
+      <c r="H48" s="21">
+        <f>(D48-G48)/D48</f>
+        <v>9.0873278548605843E-3</v>
+      </c>
+      <c r="I48" s="19">
+        <f t="shared" si="15"/>
+        <v>0.46514527209497203</v>
+      </c>
+      <c r="K48" s="19">
+        <v>50.8213578408064</v>
+      </c>
+      <c r="L48" s="21">
+        <f>(D48-K48)/D48</f>
+        <v>7.9953818401053908E-3</v>
+      </c>
+      <c r="M48" s="19">
+        <f>E48-K48</f>
+        <v>0.40920381966337516</v>
+      </c>
+      <c r="O48" s="19">
+        <v>51.306803772640599</v>
+      </c>
+      <c r="P48" s="21">
+        <f>(D48-O48)/D48</f>
+        <v>-1.4802525527205475E-3</v>
+      </c>
+      <c r="Q48" s="19">
+        <f>E48-O48</f>
+        <v>-7.6242112170824328E-2</v>
+      </c>
+      <c r="S48" s="19">
+        <v>51.362745225072103</v>
+      </c>
+      <c r="T48" s="21">
+        <f>(D48-S48)/D48</f>
+        <v>-2.572198567473938E-3</v>
+      </c>
+      <c r="U48" s="19">
+        <f>E48-S48</f>
+        <v>-0.13218356460232883</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A49" s="25"/>
+      <c r="C49" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="19">
+        <v>0.28902899999999998</v>
+      </c>
+      <c r="E49" s="19">
+        <f t="shared" si="14"/>
+        <v>0.28902670191859764</v>
+      </c>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="19"/>
+      <c r="S49" s="32">
+        <v>0.28902692925990597</v>
+      </c>
+      <c r="T49" s="35">
+        <f>(D49-S49)/D49</f>
+        <v>7.1644717104745975E-6</v>
+      </c>
+      <c r="U49" s="33">
+        <f>E49-S49</f>
+        <v>-2.2734130833423905E-7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A50" s="25"/>
+      <c r="C50" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="19">
+        <v>1.0367519999999999</v>
+      </c>
+      <c r="E50" s="19">
+        <f t="shared" si="14"/>
+        <v>1.0367437567424374</v>
+      </c>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="19"/>
+      <c r="S50" s="32">
+        <v>1.0367436885713699</v>
+      </c>
+      <c r="T50" s="35">
+        <f>(D50-S50)/D50</f>
+        <v>8.0167953666869687E-6</v>
+      </c>
+      <c r="U50" s="33">
+        <f>E50-S50</f>
+        <v>6.8171067457711843E-8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A51" s="25"/>
+      <c r="C51" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" s="19">
+        <v>0.18586</v>
+      </c>
+      <c r="E51" s="19">
+        <f t="shared" si="14"/>
+        <v>0.185858522219537</v>
+      </c>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="19"/>
+      <c r="S51" s="32">
+        <v>0.18585897745624899</v>
+      </c>
+      <c r="T51" s="35">
+        <f>(D51-S51)/D51</f>
+        <v>5.5016881039807141E-6</v>
+      </c>
+      <c r="U51" s="33">
+        <f>E51-S51</f>
+        <v>-4.5523671199365623E-7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A52" s="25"/>
+      <c r="E52" t="s">
+        <v>93</v>
+      </c>
+      <c r="S52" s="19"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A53" s="25"/>
+      <c r="C53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" s="19">
+        <f>SUM(D46:D48)</f>
+        <v>192.52019899999999</v>
+      </c>
+      <c r="E53" s="16">
+        <f>(ABS(D18)-D53)/ABS(D18)</f>
+        <v>2.1815893698709168E-9</v>
+      </c>
+      <c r="G53" s="19">
+        <f>SUM(G46:G48)</f>
+        <v>191.06227553871619</v>
+      </c>
+      <c r="H53" s="16">
+        <f>(ABS(H18)-G53)/ABS(H18)</f>
+        <v>7.5649450271920203E-3</v>
+      </c>
+      <c r="K53" s="19">
+        <f>SUM(K46:K48)</f>
+        <v>191.18844249667001</v>
+      </c>
+      <c r="L53" s="16">
+        <f>(ABS(H18)-K53)/ABS(H18)</f>
+        <v>6.909595814483244E-3</v>
+      </c>
+      <c r="O53" s="19">
+        <f>SUM(O46:O48)</f>
+        <v>192.78905215503829</v>
+      </c>
+      <c r="P53" s="16">
+        <f>(ABS(H18)-O53)/ABS(H18)</f>
+        <v>-1.404453255715586E-3</v>
+      </c>
+      <c r="S53" s="19">
+        <f>SUM(S46:S48)</f>
+        <v>192.91521911299211</v>
+      </c>
+      <c r="T53" s="16">
+        <f>(ABS(H18)-S53)/ABS(H18)</f>
+        <v>-2.0598024684243626E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A54" s="25"/>
+      <c r="C54" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" s="19">
+        <f>SUM(D46:D51)</f>
+        <v>194.03183999999999</v>
+      </c>
+      <c r="F54" t="s">
+        <v>69</v>
+      </c>
+      <c r="G54" s="19">
+        <f>-H18-G53</f>
+        <v>1.4563931453027976</v>
+      </c>
+      <c r="K54" s="19">
+        <f>-H18-K53</f>
+        <v>1.330226187348984</v>
+      </c>
+      <c r="S54" s="19"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A55" s="25"/>
+      <c r="F55" t="s">
+        <v>99</v>
+      </c>
+      <c r="S55" s="19"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E56" s="27">
+        <f>SUM(E46:E48)</f>
+        <v>192.51866826402232</v>
+      </c>
+      <c r="F56" s="29">
+        <f>(-H18-E56)/-H18</f>
+        <v>2.1815892954658288E-9</v>
+      </c>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="K56" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="L56" s="25"/>
+      <c r="M56" s="25"/>
+      <c r="O56" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="P56" s="25"/>
+      <c r="Q56" s="25"/>
+      <c r="S56" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A57" s="25"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="K57" s="28">
+        <f>K46-G46</f>
+        <v>4.4801332741300826E-2</v>
+      </c>
+      <c r="L57" s="25"/>
+      <c r="M57" s="25"/>
+      <c r="O57" s="28">
+        <f>O46-G46</f>
+        <v>0.6191965982287968</v>
+      </c>
+      <c r="P57" s="28"/>
+      <c r="Q57" s="25"/>
+      <c r="S57" s="28">
+        <f>S46-G46</f>
+        <v>0.6639979309701971</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A58" s="25"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="K58" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="L58" s="25"/>
+      <c r="M58" s="25"/>
+      <c r="O58" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="P58" s="25"/>
+      <c r="Q58" s="25"/>
+      <c r="S58" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="T58" s="19"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A59" s="25"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="K59" s="27">
+        <f>E46-K46</f>
+        <v>0.48701275309075243</v>
+      </c>
+      <c r="L59" s="27"/>
+      <c r="M59" s="27"/>
+      <c r="O59" s="19">
+        <f>E46-O46</f>
+        <v>-8.738251239674355E-2</v>
+      </c>
+      <c r="P59" s="27"/>
+      <c r="Q59" s="27"/>
+      <c r="S59" s="28">
+        <f>E46-G46</f>
+        <v>0.53181408583205325</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A60" s="25"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="25"/>
+      <c r="P60" s="25"/>
+      <c r="Q60" s="25"/>
+      <c r="S60" s="25"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A61" s="25"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="25"/>
+      <c r="O61" t="s">
+        <v>105</v>
+      </c>
+      <c r="P61" s="25"/>
+      <c r="Q61" s="25"/>
+      <c r="S61" s="25"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A62" s="25"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="25"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="25"/>
+      <c r="M62" s="25"/>
+      <c r="O62" s="27">
+        <f>O57-2*K57</f>
+        <v>0.52959393274619515</v>
+      </c>
+      <c r="P62" s="25"/>
+      <c r="Q62" s="25"/>
+      <c r="S62" s="25"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A63" s="25"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="25"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="25"/>
+      <c r="M63" s="25"/>
+      <c r="O63" s="28">
+        <f>G46+O62</f>
+        <v>79.397207533797001</v>
+      </c>
+      <c r="P63" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q63" s="25"/>
+      <c r="S63" s="25"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A64" s="25"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="25"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="25"/>
+      <c r="M64" s="25"/>
+      <c r="O64" s="25"/>
+      <c r="P64" s="25"/>
+      <c r="Q64" s="25"/>
+      <c r="S64" s="25"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A65" s="25"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="25"/>
+      <c r="O65" s="25"/>
+      <c r="P65" s="25"/>
+      <c r="Q65" s="25"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A66" s="25"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="25"/>
+      <c r="M66" s="25"/>
+      <c r="N66" s="25"/>
+      <c r="O66" s="25"/>
+      <c r="P66" s="25"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A67" s="25"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="25"/>
+      <c r="M67" s="25"/>
+      <c r="N67" s="25"/>
+      <c r="O67" s="25"/>
+      <c r="P67" s="25"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A68" s="25"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="25"/>
+      <c r="L68" s="25"/>
+      <c r="M68" s="25"/>
+      <c r="N68" s="25"/>
+      <c r="O68" s="25"/>
+      <c r="P68" s="25"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A69" s="25"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="25"/>
+      <c r="M69" s="25"/>
+      <c r="N69" s="25"/>
+      <c r="O69" s="25"/>
+      <c r="P69" s="25"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A70" s="25"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="25"/>
+      <c r="M70" s="25"/>
+      <c r="N70" s="25"/>
+      <c r="O70" s="25"/>
+      <c r="P70" s="25"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A71" s="25"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="25"/>
+      <c r="M71" s="25"/>
+      <c r="N71" s="25"/>
+      <c r="O71" s="25"/>
+      <c r="P71" s="25"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A72" s="25"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="25"/>
+      <c r="M72" s="25"/>
+      <c r="N72" s="25"/>
+      <c r="O72" s="25"/>
+      <c r="P72" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A587DBC6-6491-634F-8545-EB1CE76A2D50}">
   <dimension ref="B3:AD56"/>
   <sheetViews>
@@ -4353,7 +6755,7 @@
       <selection activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="4" width="10.83203125" style="6"/>
     <col min="5" max="5" width="10.83203125" style="16"/>
@@ -4364,7 +6766,7 @@
     <col min="23" max="30" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:27">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.2">
       <c r="H3" s="1">
         <v>8</v>
       </c>
@@ -4372,7 +6774,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="2:27">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C4" s="6" t="s">
         <v>43</v>
       </c>
@@ -4396,7 +6798,7 @@
         <v>-0.32559387749875712</v>
       </c>
     </row>
-    <row r="5" spans="2:27">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>34</v>
       </c>
@@ -4451,7 +6853,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:27">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B6">
         <f>ABS(C6)</f>
         <v>4.6545589999999999</v>
@@ -4533,7 +6935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:27">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B7">
         <f t="shared" ref="B7:B13" si="2">ABS(C7)</f>
         <v>2.4303000000000002E-2</v>
@@ -4600,7 +7002,7 @@
         <v>1.2637560000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:27">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B8">
         <f t="shared" si="2"/>
         <v>4.6545589999999999</v>
@@ -4669,7 +7071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:27">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B9">
         <f t="shared" si="2"/>
         <v>2.4303000000000002E-2</v>
@@ -4738,7 +7140,7 @@
         <v>1.2637560000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:27">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B10">
         <f t="shared" si="2"/>
         <v>5.9154900000000001</v>
@@ -4807,7 +7209,7 @@
         <v>-2.9577450000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:27">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B11">
         <f t="shared" si="2"/>
         <v>10.545745</v>
@@ -4876,7 +7278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:27">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B12">
         <f t="shared" si="2"/>
         <v>5.9154900000000001</v>
@@ -4944,7 +7346,7 @@
         <v>-2.9577450000000001</v>
       </c>
     </row>
-    <row r="13" spans="2:27">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B13">
         <f t="shared" si="2"/>
         <v>10.545745</v>
@@ -5012,7 +7414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:27">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.2">
       <c r="H14" s="4">
         <v>2.504194</v>
       </c>
@@ -5027,7 +7429,7 @@
         <v>-5.8902148800000003</v>
       </c>
     </row>
-    <row r="15" spans="2:27">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>33</v>
       </c>
@@ -5049,7 +7451,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="2:27">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>35</v>
       </c>
@@ -5079,7 +7481,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="17" spans="2:30">
+    <row r="17" spans="2:30" x14ac:dyDescent="0.2">
       <c r="F17" s="18">
         <f t="shared" si="12"/>
         <v>8.0681327704678561E-6</v>
@@ -5103,7 +7505,7 @@
       <c r="AC17" s="13"/>
       <c r="AD17" s="13"/>
     </row>
-    <row r="18" spans="2:30">
+    <row r="18" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C18" s="6">
         <f>C6/$C$15</f>
         <v>-0.44136843817103483</v>
@@ -5135,7 +7537,7 @@
       <c r="AC18" s="13"/>
       <c r="AD18" s="13"/>
     </row>
-    <row r="19" spans="2:30">
+    <row r="19" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C19" s="6">
         <f t="shared" ref="C19:C24" si="13">C7/$C$15</f>
         <v>2.3045313536407337E-3</v>
@@ -5202,7 +7604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:30">
+    <row r="20" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C20" s="6">
         <f t="shared" si="13"/>
         <v>-0.44136843817103483</v>
@@ -5242,7 +7644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:30">
+    <row r="21" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C21" s="6">
         <f t="shared" si="13"/>
         <v>2.3045313536407337E-3</v>
@@ -5261,7 +7663,7 @@
       <c r="AC21" s="13"/>
       <c r="AD21" s="13"/>
     </row>
-    <row r="22" spans="2:30">
+    <row r="22" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C22" s="6">
         <f t="shared" si="13"/>
         <v>-0.56093618800758027</v>
@@ -5300,7 +7702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:30">
+    <row r="23" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C23" s="6">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -5339,7 +7741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:30">
+    <row r="24" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C24" s="6">
         <f t="shared" si="13"/>
         <v>-0.56093618800758027</v>
@@ -5357,7 +7759,7 @@
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
     </row>
-    <row r="25" spans="2:30">
+    <row r="25" spans="2:30" x14ac:dyDescent="0.2">
       <c r="H25">
         <v>-5.9154900000000001</v>
       </c>
@@ -5371,13 +7773,13 @@
         <v>2.4268798000548486E-5</v>
       </c>
     </row>
-    <row r="26" spans="2:30">
+    <row r="26" spans="2:30" x14ac:dyDescent="0.2">
       <c r="H26">
         <v>10.545745</v>
       </c>
       <c r="J26" s="4"/>
     </row>
-    <row r="28" spans="2:30">
+    <row r="28" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C28" s="6">
         <f>SUM(C30:C32)</f>
         <v>191.218628</v>
@@ -5387,7 +7789,7 @@
         <v>-63.739542813333337</v>
       </c>
     </row>
-    <row r="29" spans="2:30">
+    <row r="29" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>26</v>
       </c>
@@ -5398,7 +7800,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="30" spans="2:30">
+    <row r="30" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>27</v>
       </c>
@@ -5413,7 +7815,7 @@
         <v>4.2112E-3</v>
       </c>
     </row>
-    <row r="31" spans="2:30">
+    <row r="31" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>28</v>
       </c>
@@ -5427,7 +7829,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="2:30">
+    <row r="32" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>29</v>
       </c>
@@ -5460,7 +7862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:23">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>30</v>
       </c>
@@ -5480,7 +7882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:23">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>31</v>
       </c>
@@ -5490,7 +7892,7 @@
       <c r="I34" s="11"/>
       <c r="L34" s="15"/>
     </row>
-    <row r="35" spans="2:23">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>32</v>
       </c>
@@ -5516,7 +7918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:23">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.2">
       <c r="I36" s="11"/>
       <c r="L36" s="15">
         <v>-191.217116659781</v>
@@ -5546,7 +7948,7 @@
         <v>-17.666302040693928</v>
       </c>
     </row>
-    <row r="37" spans="2:23">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C37" s="13">
         <v>63.405757000000001</v>
       </c>
@@ -5566,7 +7968,7 @@
         <v>-17.665999015838143</v>
       </c>
     </row>
-    <row r="38" spans="2:23">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="13">
         <v>0</v>
       </c>
@@ -5586,7 +7988,7 @@
         <v>-3.0302485578559413E-4</v>
       </c>
     </row>
-    <row r="39" spans="2:23">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="13">
         <v>0</v>
       </c>
@@ -5598,13 +8000,13 @@
       </c>
       <c r="I39" s="11"/>
     </row>
-    <row r="40" spans="2:23">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="I40" s="11"/>
       <c r="L40" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="2:23">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="I41" s="11"/>
       <c r="L41" t="s">
         <v>19</v>
@@ -5617,7 +8019,7 @@
         <v>-1.7152998565996375E-5</v>
       </c>
     </row>
-    <row r="42" spans="2:23">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="I42" s="11"/>
       <c r="L42" t="s">
         <v>20</v>
@@ -5627,7 +8029,7 @@
         <v>4.2112E-3</v>
       </c>
     </row>
-    <row r="43" spans="2:23">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="L43" t="s">
         <v>16</v>
       </c>
@@ -5635,7 +8037,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="2:23">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="L44" s="14">
         <v>-191.21862844</v>
       </c>
@@ -5661,7 +8063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:23">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="L45" s="14"/>
       <c r="R45">
         <v>0</v>
@@ -5674,10 +8076,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:23">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="L46" s="15"/>
     </row>
-    <row r="47" spans="2:23">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="L47" s="15">
         <v>-191.21868538000001</v>
       </c>
@@ -5696,7 +8098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:23">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="L48" s="15">
         <v>-191.21863705000001</v>
       </c>
@@ -5711,19 +8113,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="8:16">
+    <row r="49" spans="8:16" x14ac:dyDescent="0.2">
       <c r="L49" s="15"/>
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
     </row>
-    <row r="50" spans="8:16">
+    <row r="50" spans="8:16" x14ac:dyDescent="0.2">
       <c r="L50" s="15">
         <f>L48-L47</f>
         <v>4.8329999998486528E-5</v>
       </c>
     </row>
-    <row r="56" spans="8:16">
+    <row r="56" spans="8:16" x14ac:dyDescent="0.2">
       <c r="H56" s="4"/>
     </row>
   </sheetData>

--- a/EwaldTestValidation.xlsx
+++ b/EwaldTestValidation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woongkyujee/Desktop/ProjectPAX/SLAM Extension Reference/Ewald/EwaldPreResearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4848BCBD-82FF-F347-AA29-0CF4F4A7A9E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DE626C-763B-1444-B15C-184245FCB159}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="28800" windowHeight="17040" activeTab="1" xr2:uid="{ED569559-3BE8-BA43-B08A-1C36884B8A7F}"/>
+    <workbookView xWindow="27380" yWindow="2240" windowWidth="37820" windowHeight="25100" activeTab="3" xr2:uid="{ED569559-3BE8-BA43-B08A-1C36884B8A7F}"/>
   </bookViews>
   <sheets>
     <sheet name="CubicTegragonalCell" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="107">
   <si>
     <t>GULP</t>
   </si>
@@ -273,24 +273,9 @@
     <t>caryz</t>
   </si>
   <si>
-    <t>cartx * dx</t>
-  </si>
-  <si>
-    <t>carty * dy</t>
-  </si>
-  <si>
-    <t>cartz * dz</t>
-  </si>
-  <si>
     <t>SUM</t>
   </si>
   <si>
-    <t>* GULP Internal</t>
-  </si>
-  <si>
-    <t>* SelfRaw</t>
-  </si>
-  <si>
     <t>Vol</t>
   </si>
   <si>
@@ -406,13 +391,16 @@
   </si>
   <si>
     <t>less</t>
+  </si>
+  <si>
+    <t>SelfResult</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="11">
+  <numFmts count="12">
     <numFmt numFmtId="164" formatCode="0.000000%"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
@@ -424,8 +412,9 @@
     <numFmt numFmtId="172" formatCode="0.000000000000"/>
     <numFmt numFmtId="176" formatCode="0.000"/>
     <numFmt numFmtId="179" formatCode="0.0000000%"/>
+    <numFmt numFmtId="185" formatCode="0.0000.E+00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -455,6 +444,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -498,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -550,12 +546,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="167" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="169" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="171" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2171,8 +2169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE25B2D-FE34-0E49-B6F0-4829524F93C3}">
   <dimension ref="A3:W72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E22" zoomScale="94" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="S38" sqref="S38"/>
+    <sheetView topLeftCell="D1" zoomScale="94" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2180,21 +2178,21 @@
     <col min="3" max="22" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D5">
         <f>D6*E6*F6</f>
         <v>74.11712</v>
       </c>
     </row>
-    <row r="6" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>52</v>
       </c>
@@ -2207,14 +2205,8 @@
       <c r="F6" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="L6" t="s">
-        <v>70</v>
-      </c>
-      <c r="P6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="3:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>53</v>
       </c>
@@ -2236,26 +2228,8 @@
       <c r="J7" t="s">
         <v>65</v>
       </c>
-      <c r="L7" t="s">
-        <v>66</v>
-      </c>
-      <c r="M7" t="s">
-        <v>67</v>
-      </c>
-      <c r="N7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>67</v>
-      </c>
-      <c r="R7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="3:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C8">
         <v>2</v>
       </c>
@@ -2280,40 +2254,14 @@
         <f>F8*F$6</f>
         <v>0</v>
       </c>
-      <c r="L8" s="19">
-        <f>C24*H8</f>
-        <v>-1.5795262000000001</v>
-      </c>
-      <c r="M8" s="19">
-        <f t="shared" ref="M8:N8" si="0">D24*I8</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="19">
-        <f>G24*H8</f>
-        <v>-0.39487840000000002</v>
-      </c>
-      <c r="Q8" s="19">
-        <f t="shared" ref="Q8:R8" si="1">H24*I8</f>
-        <v>0</v>
-      </c>
-      <c r="R8" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <f>I8*C24*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <f>H8*D24*0.5</f>
-        <v>-0.48381830000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+    </row>
+    <row r="9" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>2</v>
       </c>
@@ -2338,40 +2286,14 @@
         <f>F9*F$6</f>
         <v>0</v>
       </c>
-      <c r="L9" s="19">
-        <f t="shared" ref="L9:L15" si="2">C25*H9</f>
-        <v>-10.176204</v>
-      </c>
-      <c r="M9" s="19">
-        <f t="shared" ref="M9:M15" si="3">D25*I9</f>
-        <v>1.2694037457919998</v>
-      </c>
-      <c r="N9" s="19">
-        <f t="shared" ref="N9:N15" si="4">E25*J9</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="19">
-        <f t="shared" ref="P9:P15" si="5">G25*H9</f>
-        <v>-2.5440299999999998</v>
-      </c>
-      <c r="Q9" s="19">
-        <f t="shared" ref="Q9:Q15" si="6">H25*I9</f>
-        <v>0.30143365324799998</v>
-      </c>
-      <c r="R9" s="19">
-        <f t="shared" ref="R9:R15" si="7">I25*J9</f>
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <f t="shared" ref="T9:T15" si="8">I9*C25*0.5</f>
-        <v>-5.5710239370239991</v>
-      </c>
-      <c r="U9">
-        <f t="shared" ref="U9:U15" si="9">H9*D25*0.5</f>
-        <v>0.57968299999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+    </row>
+    <row r="10" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C10">
         <v>2</v>
       </c>
@@ -2396,40 +2318,14 @@
         <f>F10*F$6</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="L10" s="19">
-        <f t="shared" si="2"/>
-        <v>-8.7039139999999993</v>
-      </c>
-      <c r="M10" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="19">
-        <f t="shared" si="4"/>
-        <v>40.376333800000005</v>
-      </c>
-      <c r="P10" s="19">
-        <f t="shared" si="5"/>
-        <v>-2.1759620000000002</v>
-      </c>
-      <c r="Q10" s="19">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="19">
-        <f t="shared" si="7"/>
-        <v>9.1763672000000014</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="9"/>
-        <v>-4.7496929999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+    </row>
+    <row r="11" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C11">
         <v>2</v>
       </c>
@@ -2454,40 +2350,14 @@
         <f>F11*F$6</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="L11" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="19">
-        <f t="shared" si="3"/>
-        <v>0.52908118681599992</v>
-      </c>
-      <c r="N11" s="19">
-        <f t="shared" si="4"/>
-        <v>6.6076010000000007</v>
-      </c>
-      <c r="P11" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="19">
-        <f t="shared" si="6"/>
-        <v>0.12563458252799997</v>
-      </c>
-      <c r="R11" s="19">
-        <f t="shared" si="7"/>
-        <v>1.5017156000000003</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="8"/>
-        <v>2.3649902115839998</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+    </row>
+    <row r="12" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C12">
         <v>-2</v>
       </c>
@@ -2512,40 +2382,14 @@
         <f>F12*F$6</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="L12" s="19">
-        <f t="shared" si="2"/>
-        <v>4.1103680000000002</v>
-      </c>
-      <c r="M12" s="19">
-        <f t="shared" si="3"/>
-        <v>-12.848924972799999</v>
-      </c>
-      <c r="N12" s="19">
-        <f t="shared" si="4"/>
-        <v>-11.409633400000001</v>
-      </c>
-      <c r="P12" s="19">
-        <f t="shared" si="5"/>
-        <v>1.0275840000000001</v>
-      </c>
-      <c r="Q12" s="19">
-        <f t="shared" si="6"/>
-        <v>-3.0511070463999999</v>
-      </c>
-      <c r="R12" s="19">
-        <f t="shared" si="7"/>
-        <v>-2.5930784</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="8"/>
-        <v>2.1636977152000001</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="9"/>
-        <v>-6.1022629999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C13">
         <v>-2</v>
       </c>
@@ -2570,40 +2414,14 @@
         <f>F13*F$6</f>
         <v>0.17600000000000002</v>
       </c>
-      <c r="L13" s="19">
-        <f t="shared" si="2"/>
-        <v>48.820224000000003</v>
-      </c>
-      <c r="M13" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="19">
-        <f t="shared" si="4"/>
-        <v>0.38017161600000005</v>
-      </c>
-      <c r="P13" s="19">
-        <f t="shared" si="5"/>
-        <v>12.20496</v>
-      </c>
-      <c r="Q13" s="19">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="19">
-        <f t="shared" si="7"/>
-        <v>8.6401920000000007E-2</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="9"/>
-        <v>10.405001</v>
-      </c>
-    </row>
-    <row r="14" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+    </row>
+    <row r="14" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C14">
         <v>-2</v>
       </c>
@@ -2628,40 +2446,14 @@
         <f>F14*F$6</f>
         <v>0</v>
       </c>
-      <c r="L14" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="19">
-        <f t="shared" si="3"/>
-        <v>-12.848924972799999</v>
-      </c>
-      <c r="N14" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="19">
-        <f t="shared" si="6"/>
-        <v>-3.0511070463999999</v>
-      </c>
-      <c r="R14" s="19">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="8"/>
-        <v>-6.4628875807999995</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+    </row>
+    <row r="15" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C15">
         <v>-2</v>
       </c>
@@ -2686,78 +2478,26 @@
         <f>F15*F$6</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="L15" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="19">
-        <f t="shared" si="4"/>
-        <v>-13.108033400000002</v>
-      </c>
-      <c r="P15" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="19">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="19">
-        <f t="shared" si="7"/>
-        <v>-2.9790750000000004</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="L16" s="19">
-        <f>SUM(L8:L15)</f>
-        <v>32.470947800000005</v>
-      </c>
-      <c r="M16" s="19">
-        <f t="shared" ref="M16" si="10">SUM(M8:M15)</f>
-        <v>-23.899365012992</v>
-      </c>
-      <c r="N16" s="19">
-        <f>SUM(N8:N15)</f>
-        <v>22.846439616000005</v>
-      </c>
-      <c r="T16">
-        <f>SUM(T8:T15)</f>
-        <v>-7.5052235910399983</v>
-      </c>
-      <c r="U16">
-        <f>SUM(U8:U15)</f>
-        <v>-0.35109029999999919</v>
-      </c>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+    </row>
+    <row r="16" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="H17" s="19"/>
       <c r="I17" t="s">
         <v>56</v>
       </c>
-      <c r="L17" s="19">
-        <f>D46/L16</f>
-        <v>2.4452645943399283</v>
-      </c>
-      <c r="M17" s="19">
-        <f>D47/M16</f>
-        <v>-2.589573863839322</v>
-      </c>
-      <c r="N17" s="19">
-        <f>D48/N16</f>
-        <v>2.2424049375344031</v>
-      </c>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
@@ -2848,11 +2588,11 @@
         <v>4.0000319085571663</v>
       </c>
       <c r="L24" s="6">
-        <f t="shared" ref="L24:M24" si="11">D24/H24</f>
+        <f t="shared" ref="L24:M24" si="0">D24/H24</f>
         <v>4.2112316733920805</v>
       </c>
       <c r="M24" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="0"/>
         <v>4.4000351164696241</v>
       </c>
       <c r="O24" s="7">
@@ -2872,11 +2612,11 @@
         <v>7.9770756572349648E-6</v>
       </c>
       <c r="T24" s="16">
-        <f t="shared" ref="T24:U24" si="12">(D24-P24)/D24</f>
+        <f t="shared" ref="T24:U24" si="1">(D24-P24)/D24</f>
         <v>7.5211706543340695E-6</v>
       </c>
       <c r="U24" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>7.9809521275532574E-6</v>
       </c>
     </row>
@@ -2901,15 +2641,15 @@
         <v>-1.554881</v>
       </c>
       <c r="K25" s="6">
-        <f t="shared" ref="K25:K31" si="13">C25/G25</f>
+        <f t="shared" ref="K25:K31" si="2">C25/G25</f>
         <v>4.0000330184785557</v>
       </c>
       <c r="L25" s="6">
-        <f t="shared" ref="L25:L31" si="14">D25/H25</f>
+        <f t="shared" ref="L25:L31" si="3">D25/H25</f>
         <v>4.2112210501845233</v>
       </c>
       <c r="M25" s="6">
-        <f t="shared" ref="M25:M31" si="15">E25/I25</f>
+        <f t="shared" ref="M25:M31" si="4">E25/I25</f>
         <v>4.4000351152274675</v>
       </c>
       <c r="O25" s="7">
@@ -2925,15 +2665,15 @@
         <v>-6.8414764000000003</v>
       </c>
       <c r="S25" s="16">
-        <f t="shared" ref="S25:S31" si="16">(C25-O25)/C25</f>
+        <f t="shared" ref="S25:S31" si="5">(C25-O25)/C25</f>
         <v>8.2545515008428685E-6</v>
       </c>
       <c r="T25" s="16">
-        <f t="shared" ref="T25:T31" si="17">(D25-P25)/D25</f>
+        <f t="shared" ref="T25:T31" si="6">(D25-P25)/D25</f>
         <v>4.9985940590638778E-6</v>
       </c>
       <c r="U25" s="16">
-        <f t="shared" ref="U25:U31" si="18">(E25-Q25)/E25</f>
+        <f t="shared" ref="U25:U31" si="7">(E25-Q25)/E25</f>
         <v>7.980669823678448E-6</v>
       </c>
     </row>
@@ -2958,15 +2698,15 @@
         <v>4.1710760000000002</v>
       </c>
       <c r="K26" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>4.0000303314120371</v>
       </c>
       <c r="L26" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>4.2112322152601864</v>
       </c>
       <c r="M26" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>4.4000346673136619</v>
       </c>
       <c r="O26" s="7">
@@ -2982,15 +2722,15 @@
         <v>18.352734400000003</v>
       </c>
       <c r="S26" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>7.5827955099932293E-6</v>
       </c>
       <c r="T26" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>7.6498417897404718E-6</v>
       </c>
       <c r="U26" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>7.8788728459833448E-6</v>
       </c>
     </row>
@@ -3015,15 +2755,15 @@
         <v>0.68259800000000004</v>
       </c>
       <c r="K27" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>4.000033333888898</v>
       </c>
       <c r="L27" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>4.2112703060726489</v>
       </c>
       <c r="M27" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>4.4000348667883591</v>
       </c>
       <c r="O27" s="7">
@@ -3039,15 +2779,15 @@
         <v>3.0034312000000005</v>
       </c>
       <c r="S27" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>8.3334027782877221E-6</v>
       </c>
       <c r="T27" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>1.6694742331653704E-5</v>
       </c>
       <c r="U27" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>7.9242072878352365E-6</v>
       </c>
     </row>
@@ -3072,15 +2812,15 @@
         <v>-1.1786719999999999</v>
       </c>
       <c r="K28" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>4.0000311410064775</v>
       </c>
       <c r="L28" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>4.2112337513560663</v>
       </c>
       <c r="M28" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>4.4000341061805148</v>
       </c>
       <c r="O28" s="7">
@@ -3096,15 +2836,15 @@
         <v>-5.1861568</v>
       </c>
       <c r="S28" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>7.785191009669208E-6</v>
       </c>
       <c r="T28" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>8.0146004851083925E-6</v>
       </c>
       <c r="U28" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>7.7513445786835195E-6</v>
       </c>
     </row>
@@ -3129,15 +2869,15 @@
         <v>0.49092000000000002</v>
       </c>
       <c r="K29" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>4.0000314626184768</v>
       </c>
       <c r="L29" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>4.2112330837353333</v>
       </c>
       <c r="M29" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>4.4000366658518697</v>
       </c>
       <c r="O29" s="7">
@@ -3153,15 +2893,15 @@
         <v>2.1600480000000002</v>
       </c>
       <c r="S29" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>7.865592751150357E-6</v>
       </c>
       <c r="T29" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>7.8560684425504627E-6</v>
       </c>
       <c r="U29" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>8.3330787114150523E-6</v>
       </c>
     </row>
@@ -3189,15 +2929,15 @@
       </c>
       <c r="J30"/>
       <c r="K30" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>4.0000319285218131</v>
       </c>
       <c r="L30" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>4.2112337513560663</v>
       </c>
       <c r="M30" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>4.4000344945603693</v>
       </c>
       <c r="N30"/>
@@ -3215,15 +2955,15 @@
       </c>
       <c r="R30"/>
       <c r="S30" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>7.982066739484352E-6</v>
       </c>
       <c r="T30" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>8.0146004851083925E-6</v>
       </c>
       <c r="U30" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>7.8396113512207042E-6</v>
       </c>
       <c r="V30"/>
@@ -3250,15 +2990,15 @@
         <v>-1.354125</v>
       </c>
       <c r="K31" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>4.000030298392554</v>
       </c>
       <c r="L31" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>4.211233907619242</v>
       </c>
       <c r="M31" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>4.4000347087602698</v>
       </c>
       <c r="O31" s="7">
@@ -3274,46 +3014,46 @@
         <v>-5.9581500000000007</v>
       </c>
       <c r="S31" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>7.5745407643570609E-6</v>
       </c>
       <c r="T31" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>8.0517064562682689E-6</v>
       </c>
       <c r="U31" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>7.8882923809776914E-6</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="25"/>
       <c r="B32" s="23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C32" s="24">
         <f>SUM(C24:C31)</f>
         <v>0</v>
       </c>
       <c r="D32" s="24">
-        <f t="shared" ref="D32:E32" si="19">SUM(D24:D31)</f>
+        <f t="shared" ref="D32:E32" si="8">SUM(D24:D31)</f>
         <v>-9.9999999747524271E-7</v>
       </c>
       <c r="E32" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F32" s="24"/>
       <c r="G32" s="24">
-        <f t="shared" ref="G32" si="20">SUM(G24:G31)</f>
+        <f t="shared" ref="G32" si="9">SUM(G24:G31)</f>
         <v>0</v>
       </c>
       <c r="H32" s="24">
-        <f t="shared" ref="H32:I32" si="21">SUM(H24:H31)</f>
+        <f t="shared" ref="H32:I32" si="10">SUM(H24:H31)</f>
         <v>-1.000000000139778E-6</v>
       </c>
       <c r="I32" s="24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J32" s="24"/>
@@ -3322,15 +3062,15 @@
       <c r="M32" s="24"/>
       <c r="N32" s="24"/>
       <c r="O32" s="24">
-        <f t="shared" ref="O32" si="22">SUM(O24:O31)</f>
+        <f t="shared" ref="O32" si="11">SUM(O24:O31)</f>
         <v>0</v>
       </c>
       <c r="P32" s="24">
-        <f t="shared" ref="P32" si="23">SUM(P24:P31)</f>
+        <f t="shared" ref="P32" si="12">SUM(P24:P31)</f>
         <v>-4.2112000002703098E-6</v>
       </c>
       <c r="Q32" s="24">
-        <f t="shared" ref="Q32" si="24">SUM(Q24:Q31)</f>
+        <f t="shared" ref="Q32" si="13">SUM(Q24:Q31)</f>
         <v>0</v>
       </c>
       <c r="R32" s="24"/>
@@ -3352,78 +3092,78 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="L41" s="31" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="M41" s="31" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="L42" s="31" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="M42" s="31" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="G43" s="26" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
+        <v>87</v>
+      </c>
+      <c r="G44" t="s">
+        <v>86</v>
+      </c>
+      <c r="I44" t="s">
+        <v>105</v>
+      </c>
+      <c r="K44" t="s">
+        <v>90</v>
+      </c>
+      <c r="M44" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>105</v>
+      </c>
+      <c r="U44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C45" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="G45" t="s">
+        <v>89</v>
+      </c>
+      <c r="I45" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="K45" t="s">
+        <v>91</v>
+      </c>
+      <c r="M45" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="O45" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q45" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="S45" t="s">
         <v>92</v>
       </c>
-      <c r="G44" t="s">
-        <v>91</v>
-      </c>
-      <c r="I44" t="s">
-        <v>110</v>
-      </c>
-      <c r="K44" t="s">
-        <v>95</v>
-      </c>
-      <c r="M44" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>110</v>
-      </c>
-      <c r="U44" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C45" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="E45" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="G45" t="s">
-        <v>94</v>
-      </c>
-      <c r="I45" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="K45" t="s">
-        <v>96</v>
-      </c>
-      <c r="M45" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="O45" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q45" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="S45" t="s">
-        <v>97</v>
-      </c>
       <c r="U45" s="30" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
@@ -3477,11 +3217,11 @@
       <c r="S46" s="19">
         <v>79.399428055698706</v>
       </c>
-      <c r="T46" s="37">
+      <c r="T46" s="35">
         <f>(E46-S46)/E46</f>
         <v>-4.6450693404289721E-9</v>
       </c>
-      <c r="U46" s="38">
+      <c r="U46" s="36">
         <f>E46-S46</f>
         <v>-3.6881584719594684E-7</v>
       </c>
@@ -3494,7 +3234,7 @@
         <v>61.889170999999997</v>
       </c>
       <c r="E47" s="19">
-        <f t="shared" ref="E47:E51" si="25">D47/$H$19</f>
+        <f t="shared" ref="E47:E51" si="14">D47/$H$19</f>
         <v>61.888678916669669</v>
       </c>
       <c r="F47" s="19"/>
@@ -3502,11 +3242,11 @@
         <v>61.429245549290599</v>
       </c>
       <c r="H47" s="21">
-        <f t="shared" ref="H47:H51" si="26">(E47-G47)/E47</f>
+        <f t="shared" ref="H47:H51" si="15">(E47-G47)/E47</f>
         <v>7.4235445871720165E-3</v>
       </c>
       <c r="I47" s="19">
-        <f t="shared" ref="I47:I48" si="27">E47-G47</f>
+        <f t="shared" ref="I47:I48" si="16">E47-G47</f>
         <v>0.45943336737907003</v>
       </c>
       <c r="K47" s="19">
@@ -3537,11 +3277,11 @@
       <c r="S47" s="19">
         <v>61.888678879575501</v>
       </c>
-      <c r="T47" s="37">
+      <c r="T47" s="35">
         <f>(E47-S47)/E47</f>
         <v>5.9936919622078169E-10</v>
       </c>
-      <c r="U47" s="38">
+      <c r="U47" s="36">
         <f>E47-S47</f>
         <v>3.7094167737450334E-8</v>
       </c>
@@ -3555,7 +3295,7 @@
         <v>51.230969000000002</v>
       </c>
       <c r="E48" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>51.230561660469775</v>
       </c>
       <c r="F48" s="19"/>
@@ -3563,11 +3303,11 @@
         <v>50.765416388374803</v>
       </c>
       <c r="H48" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>9.0794490050239811E-3</v>
       </c>
       <c r="I48" s="19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>0.46514527209497203</v>
       </c>
       <c r="K48" s="19">
@@ -3598,11 +3338,11 @@
       <c r="S48" s="19">
         <v>51.230561748748499</v>
       </c>
-      <c r="T48" s="37">
+      <c r="T48" s="35">
         <f>(E48-S48)/E48</f>
         <v>-1.7231652730990652E-9</v>
       </c>
-      <c r="U48" s="38">
+      <c r="U48" s="36">
         <f>E48-S48</f>
         <v>-8.8278724774681905E-8</v>
       </c>
@@ -3616,7 +3356,7 @@
         <v>0.28902899999999998</v>
       </c>
       <c r="E49" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>0.28902670191859764</v>
       </c>
       <c r="F49" s="19"/>
@@ -3624,7 +3364,7 @@
         <v>0.28816041160299999</v>
       </c>
       <c r="H49" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>2.9972674145575503E-3</v>
       </c>
       <c r="I49" s="19">
@@ -3663,7 +3403,7 @@
         <f>(E49-S49)/E49</f>
         <v>-7.865754507286602E-7</v>
       </c>
-      <c r="U49" s="36">
+      <c r="U49" s="34">
         <f>E49-S49</f>
         <v>-2.2734130833423905E-7</v>
       </c>
@@ -3677,7 +3417,7 @@
         <v>1.0367519999999999</v>
       </c>
       <c r="E50" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>1.0367437567424374</v>
       </c>
       <c r="F50" s="19"/>
@@ -3685,11 +3425,11 @@
         <v>1.0209306932493101</v>
       </c>
       <c r="H50" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>1.525262475928831E-2</v>
       </c>
       <c r="I50" s="19">
-        <f t="shared" ref="I50:I51" si="28">E50-G50</f>
+        <f t="shared" ref="I50:I51" si="17">E50-G50</f>
         <v>1.5813063493127277E-2</v>
       </c>
       <c r="K50" s="19">
@@ -3724,7 +3464,7 @@
         <f>(E50-S50)/E50</f>
         <v>6.5754982380518801E-8</v>
       </c>
-      <c r="U50" s="36">
+      <c r="U50" s="34">
         <f>E50-S50</f>
         <v>6.8171067457711843E-8</v>
       </c>
@@ -3738,7 +3478,7 @@
         <v>0.18586</v>
       </c>
       <c r="E51" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>0.185858522219537</v>
       </c>
       <c r="F51" s="19"/>
@@ -3746,11 +3486,11 @@
         <v>0.18468974714991401</v>
       </c>
       <c r="H51" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>6.2885201908708926E-3</v>
       </c>
       <c r="I51" s="19">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>1.1687750696229848E-3</v>
       </c>
       <c r="K51" s="19">
@@ -3785,7 +3525,7 @@
         <f>(E51-S51)/E51</f>
         <v>-2.4493722782102419E-6</v>
       </c>
-      <c r="U51" s="36">
+      <c r="U51" s="34">
         <f>E51-S51</f>
         <v>-4.5523671199365623E-7</v>
       </c>
@@ -3793,7 +3533,7 @@
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="25"/>
       <c r="E52" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="S52" s="19"/>
     </row>
@@ -3853,7 +3593,7 @@
         <v>194.03183999999999</v>
       </c>
       <c r="F54" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G54" s="19">
         <f>-H18-G53</f>
@@ -3868,7 +3608,7 @@
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="25"/>
       <c r="F55" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="S55" s="19"/>
     </row>
@@ -3891,17 +3631,17 @@
       <c r="H56" s="25"/>
       <c r="I56" s="25"/>
       <c r="K56" s="25" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="L56" s="25"/>
       <c r="M56" s="25"/>
       <c r="O56" s="25" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="P56" s="25"/>
       <c r="Q56" s="25"/>
       <c r="S56" s="28" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
@@ -3942,17 +3682,17 @@
       <c r="H58" s="25"/>
       <c r="I58" s="25"/>
       <c r="K58" s="25" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L58" s="25"/>
       <c r="M58" s="25"/>
       <c r="O58" s="25" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="P58" s="25"/>
       <c r="Q58" s="25"/>
       <c r="S58" s="28" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="T58" s="19"/>
     </row>
@@ -4014,7 +3754,7 @@
       <c r="L61" s="25"/>
       <c r="M61" s="25"/>
       <c r="O61" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P61" s="25"/>
       <c r="Q61" s="25"/>
@@ -4059,7 +3799,7 @@
         <v>79.397207533797001</v>
       </c>
       <c r="P63" s="25" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="Q63" s="25"/>
       <c r="S63" s="25"/>
@@ -4251,13 +3991,13 @@
   <sheetData>
     <row r="2" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="O2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="S2" t="s">
         <v>56</v>
@@ -4265,7 +4005,7 @@
     </row>
     <row r="3" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D3">
         <v>1E-3</v>
@@ -4287,27 +4027,27 @@
     </row>
     <row r="6" spans="3:21" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" t="s">
         <v>84</v>
-      </c>
-      <c r="E6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H6" t="s">
-        <v>88</v>
-      </c>
-      <c r="I6" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="7" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D7" s="7">
         <v>-192.52819099000001</v>
@@ -4366,7 +4106,7 @@
     </row>
     <row r="8" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D8" s="7">
         <v>-192.52536520000001</v>
@@ -4425,7 +4165,7 @@
     </row>
     <row r="9" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D9" s="7">
         <v>-192.52462664999999</v>
@@ -4484,7 +4224,7 @@
     </row>
     <row r="10" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D10" s="7">
         <v>-192.51811373000001</v>
@@ -4543,7 +4283,7 @@
     </row>
     <row r="11" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D11" s="7">
         <v>-192.51822000999999</v>
@@ -4602,7 +4342,7 @@
     </row>
     <row r="12" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D12" s="7">
         <v>-192.49587088999999</v>
@@ -4661,7 +4401,7 @@
     </row>
     <row r="13" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D13" s="7">
         <v>-192.52641899</v>
@@ -4720,7 +4460,7 @@
     </row>
     <row r="14" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D14" s="7">
         <v>-192.5254262</v>
@@ -4787,8 +4527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16719550-65CE-814B-9C93-EA4162F3BE7F}">
   <dimension ref="A3:W72"/>
   <sheetViews>
-    <sheetView topLeftCell="C27" zoomScale="94" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="94" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4796,41 +4536,35 @@
     <col min="3" max="22" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D5">
         <f>D6*E6*F6</f>
-        <v>74.11712</v>
-      </c>
-    </row>
-    <row r="6" spans="3:21" x14ac:dyDescent="0.2">
+        <v>53.526400000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="6">
-        <v>4</v>
+        <v>3.89</v>
       </c>
       <c r="E6" s="6">
-        <v>4.2111999999999998</v>
+        <v>4.3</v>
       </c>
       <c r="F6" s="6">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="L6" t="s">
-        <v>70</v>
-      </c>
-      <c r="P6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="3:21" x14ac:dyDescent="0.2">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>53</v>
       </c>
@@ -4852,26 +4586,8 @@
       <c r="J7" t="s">
         <v>65</v>
       </c>
-      <c r="L7" t="s">
-        <v>66</v>
-      </c>
-      <c r="M7" t="s">
-        <v>67</v>
-      </c>
-      <c r="N7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>67</v>
-      </c>
-      <c r="R7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="3:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C8">
         <v>2</v>
       </c>
@@ -4886,7 +4602,7 @@
       </c>
       <c r="H8" s="19">
         <f>D8*D$6</f>
-        <v>0.2</v>
+        <v>0.19450000000000001</v>
       </c>
       <c r="I8" s="19">
         <f>E8*E$6</f>
@@ -4896,40 +4612,14 @@
         <f>F8*F$6</f>
         <v>0</v>
       </c>
-      <c r="L8" s="19">
-        <f>C24*H8</f>
-        <v>-1.5795262000000001</v>
-      </c>
-      <c r="M8" s="19">
-        <f t="shared" ref="M8:N15" si="0">D24*I8</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="19">
-        <f>G24*H8</f>
-        <v>-0.39487840000000002</v>
-      </c>
-      <c r="Q8" s="19">
-        <f t="shared" ref="Q8:R15" si="1">H24*I8</f>
-        <v>0</v>
-      </c>
-      <c r="R8" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <f>I8*C24*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <f>H8*D24*0.5</f>
-        <v>-0.48381830000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+    </row>
+    <row r="9" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>2</v>
       </c>
@@ -4944,50 +4634,24 @@
       </c>
       <c r="H9" s="19">
         <f>D9*D$6</f>
-        <v>2</v>
+        <v>1.9450000000000001</v>
       </c>
       <c r="I9" s="19">
         <f>E9*E$6</f>
-        <v>2.1898239999999998</v>
+        <v>2.2359999999999998</v>
       </c>
       <c r="J9" s="19">
         <f>F9*F$6</f>
         <v>0</v>
       </c>
-      <c r="L9" s="19">
-        <f t="shared" ref="L9:L15" si="2">C25*H9</f>
-        <v>-10.176204</v>
-      </c>
-      <c r="M9" s="19">
-        <f t="shared" si="0"/>
-        <v>1.2694037457919998</v>
-      </c>
-      <c r="N9" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="19">
-        <f t="shared" ref="P9:P15" si="3">G25*H9</f>
-        <v>-2.5440299999999998</v>
-      </c>
-      <c r="Q9" s="19">
-        <f t="shared" si="1"/>
-        <v>0.30143365324799998</v>
-      </c>
-      <c r="R9" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <f t="shared" ref="T9:T15" si="4">I9*C25*0.5</f>
-        <v>-5.5710239370239991</v>
-      </c>
-      <c r="U9">
-        <f t="shared" ref="U9:U15" si="5">H9*D25*0.5</f>
-        <v>0.57968299999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+    </row>
+    <row r="10" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C10">
         <v>2</v>
       </c>
@@ -5002,7 +4666,7 @@
       </c>
       <c r="H10" s="19">
         <f>D10*D$6</f>
-        <v>2</v>
+        <v>1.9450000000000001</v>
       </c>
       <c r="I10" s="19">
         <f>E10*E$6</f>
@@ -5010,42 +4674,16 @@
       </c>
       <c r="J10" s="19">
         <f>F10*F$6</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="L10" s="19">
-        <f t="shared" si="2"/>
-        <v>-8.7039139999999993</v>
-      </c>
-      <c r="M10" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="19">
-        <f t="shared" si="0"/>
-        <v>40.376333800000005</v>
-      </c>
-      <c r="P10" s="19">
-        <f t="shared" si="3"/>
-        <v>-2.1759620000000002</v>
-      </c>
-      <c r="Q10" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="19">
-        <f t="shared" si="1"/>
-        <v>9.1763672000000014</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="5"/>
-        <v>-4.7496929999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="3:21" x14ac:dyDescent="0.2">
+        <v>1.6</v>
+      </c>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+    </row>
+    <row r="11" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C11">
         <v>2</v>
       </c>
@@ -5064,46 +4702,20 @@
       </c>
       <c r="I11" s="19">
         <f>E11*E$6</f>
-        <v>2.1898239999999998</v>
+        <v>2.2359999999999998</v>
       </c>
       <c r="J11" s="19">
         <f>F11*F$6</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="L11" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="19">
-        <f t="shared" si="0"/>
-        <v>0.52908118681599992</v>
-      </c>
-      <c r="N11" s="19">
-        <f t="shared" si="0"/>
-        <v>6.6076010000000007</v>
-      </c>
-      <c r="P11" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="19">
-        <f t="shared" si="1"/>
-        <v>0.12563458252799997</v>
-      </c>
-      <c r="R11" s="19">
-        <f t="shared" si="1"/>
-        <v>1.5017156000000003</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="4"/>
-        <v>2.3649902115839998</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="3:21" x14ac:dyDescent="0.2">
+        <v>1.6</v>
+      </c>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+    </row>
+    <row r="12" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C12">
         <v>-2</v>
       </c>
@@ -5118,50 +4730,24 @@
       </c>
       <c r="H12" s="19">
         <f>D12*D$6</f>
-        <v>2</v>
+        <v>1.9450000000000001</v>
       </c>
       <c r="I12" s="19">
         <f>E12*E$6</f>
-        <v>2.1055999999999999</v>
+        <v>2.15</v>
       </c>
       <c r="J12" s="19">
         <f>F12*F$6</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="L12" s="19">
-        <f t="shared" si="2"/>
-        <v>4.1103680000000002</v>
-      </c>
-      <c r="M12" s="19">
-        <f t="shared" si="0"/>
-        <v>-12.848924972799999</v>
-      </c>
-      <c r="N12" s="19">
-        <f t="shared" si="0"/>
-        <v>-11.409633400000001</v>
-      </c>
-      <c r="P12" s="19">
-        <f t="shared" si="3"/>
-        <v>1.0275840000000001</v>
-      </c>
-      <c r="Q12" s="19">
-        <f t="shared" si="1"/>
-        <v>-3.0511070463999999</v>
-      </c>
-      <c r="R12" s="19">
-        <f t="shared" si="1"/>
-        <v>-2.5930784</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="4"/>
-        <v>2.1636977152000001</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="5"/>
-        <v>-6.1022629999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="3:21" x14ac:dyDescent="0.2">
+        <v>1.6</v>
+      </c>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C13">
         <v>-2</v>
       </c>
@@ -5176,7 +4762,7 @@
       </c>
       <c r="H13" s="19">
         <f>D13*D$6</f>
-        <v>2</v>
+        <v>1.9450000000000001</v>
       </c>
       <c r="I13" s="19">
         <f>E13*E$6</f>
@@ -5184,100 +4770,48 @@
       </c>
       <c r="J13" s="19">
         <f>F13*F$6</f>
-        <v>0.17600000000000002</v>
-      </c>
-      <c r="L13" s="19">
-        <f t="shared" si="2"/>
-        <v>48.820224000000003</v>
-      </c>
-      <c r="M13" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="19">
-        <f t="shared" si="0"/>
-        <v>0.38017161600000005</v>
-      </c>
-      <c r="P13" s="19">
-        <f t="shared" si="3"/>
-        <v>12.20496</v>
-      </c>
-      <c r="Q13" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="19">
-        <f t="shared" si="1"/>
-        <v>8.6401920000000007E-2</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="5"/>
-        <v>10.405001</v>
-      </c>
-    </row>
-    <row r="14" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0.128</v>
+      </c>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+    </row>
+    <row r="14" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C14">
         <v>-2</v>
       </c>
       <c r="D14" s="20">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="E14" s="20">
         <v>0.5</v>
       </c>
       <c r="F14" s="20">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="H14" s="19">
         <f>D14*D$6</f>
-        <v>0</v>
+        <v>-0.77800000000000002</v>
       </c>
       <c r="I14" s="19">
         <f>E14*E$6</f>
-        <v>2.1055999999999999</v>
+        <v>2.15</v>
       </c>
       <c r="J14" s="19">
         <f>F14*F$6</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="19">
-        <f t="shared" si="0"/>
-        <v>-12.848924972799999</v>
-      </c>
-      <c r="N14" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="19">
-        <f t="shared" si="1"/>
-        <v>-3.0511070463999999</v>
-      </c>
-      <c r="R14" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="4"/>
-        <v>-6.4628875807999995</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="3:21" x14ac:dyDescent="0.2">
+        <v>1.024</v>
+      </c>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+    </row>
+    <row r="15" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C15">
         <v>-2</v>
       </c>
@@ -5300,104 +4834,52 @@
       </c>
       <c r="J15" s="19">
         <f>F15*F$6</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="L15" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="19">
-        <f t="shared" si="0"/>
-        <v>-13.108033400000002</v>
-      </c>
-      <c r="P15" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="19">
-        <f t="shared" si="1"/>
-        <v>-2.9790750000000004</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="L16" s="19">
-        <f>SUM(L8:L15)</f>
-        <v>32.470947800000005</v>
-      </c>
-      <c r="M16" s="19">
-        <f t="shared" ref="M16" si="6">SUM(M8:M15)</f>
-        <v>-23.899365012992</v>
-      </c>
-      <c r="N16" s="19">
-        <f>SUM(N8:N15)</f>
-        <v>22.846439616000005</v>
-      </c>
-      <c r="T16">
-        <f>SUM(T8:T15)</f>
-        <v>-7.5052235910399983</v>
-      </c>
-      <c r="U16">
-        <f>SUM(U8:U15)</f>
-        <v>-0.35109029999999919</v>
-      </c>
+        <v>1.6</v>
+      </c>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+    </row>
+    <row r="16" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="H17" s="19"/>
       <c r="I17" t="s">
         <v>56</v>
       </c>
-      <c r="L17" s="19">
-        <f>D46/L16</f>
-        <v>2.4452645943399283</v>
-      </c>
-      <c r="M17" s="19">
-        <f>D47/M16</f>
-        <v>-2.589573863839322</v>
-      </c>
-      <c r="N17" s="19">
-        <f>D48/N16</f>
-        <v>2.2424049375344031</v>
-      </c>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>55</v>
       </c>
       <c r="D18" s="19">
-        <v>-192.52019942000001</v>
+        <v>-221.77839109000001</v>
       </c>
       <c r="G18" t="s">
         <v>60</v>
       </c>
       <c r="H18">
-        <v>-192.51866868401899</v>
+        <v>-221.77662772183899</v>
       </c>
       <c r="I18" s="22">
         <f>(D18-H18)/D18</f>
-        <v>7.9510409070447098E-6</v>
+        <v>7.9510368542013574E-6</v>
       </c>
       <c r="L18" s="19"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="H19">
         <f>D18/H18</f>
-        <v>1.0000079511041267</v>
+        <v>1.0000079511000737</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
@@ -5430,496 +4912,496 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C24" s="6">
-        <v>-7.8976309999999996</v>
+        <v>11.590095</v>
       </c>
       <c r="D24" s="6">
-        <v>-4.8381829999999999</v>
+        <v>-8.5264740000000003</v>
       </c>
       <c r="E24" s="6">
-        <v>-8.7959429999999994</v>
+        <v>-8.4428839999999994</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6">
-        <v>-1.9743919999999999</v>
+        <v>2.9794350000000001</v>
       </c>
       <c r="H24" s="6">
-        <v>-1.148876</v>
+        <v>-1.982885</v>
       </c>
       <c r="I24" s="6">
-        <v>-1.9990619999999999</v>
+        <v>-2.6383800000000002</v>
       </c>
       <c r="K24" s="6">
         <f>C24/G24</f>
-        <v>4.0000319085571663</v>
+        <v>3.8900311636266607</v>
       </c>
       <c r="L24" s="6">
-        <f t="shared" ref="L24:M31" si="7">D24/H24</f>
-        <v>4.2112316733920805</v>
+        <f t="shared" ref="L24:M31" si="0">D24/H24</f>
+        <v>4.3000345456241789</v>
       </c>
       <c r="M24" s="6">
-        <f t="shared" si="7"/>
-        <v>4.4000351164696241</v>
+        <f t="shared" si="0"/>
+        <v>3.2000257733912472</v>
       </c>
       <c r="O24" s="7">
         <f>G24*D$6</f>
-        <v>-7.8975679999999997</v>
+        <v>11.59000215</v>
       </c>
       <c r="P24" s="7">
         <f>H24*E$6</f>
-        <v>-4.8381466112</v>
+        <v>-8.5264054999999992</v>
       </c>
       <c r="Q24" s="7">
         <f>I24*F$6</f>
-        <v>-8.7958727999999997</v>
+        <v>-8.4428160000000005</v>
       </c>
       <c r="S24" s="16">
         <f>(C24-O24)/C24</f>
-        <v>7.9770756572349648E-6</v>
+        <v>8.0111509008079846E-6</v>
       </c>
       <c r="T24" s="16">
-        <f t="shared" ref="T24:U31" si="8">(D24-P24)/D24</f>
-        <v>7.5211706543340695E-6</v>
+        <f t="shared" ref="T24:U31" si="1">(D24-P24)/D24</f>
+        <v>8.0338015457664082E-6</v>
       </c>
       <c r="U24" s="16">
-        <f t="shared" si="8"/>
-        <v>7.9809521275532574E-6</v>
+        <f t="shared" si="1"/>
+        <v>8.0541198953872596E-6</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C25" s="6">
-        <v>-5.0881020000000001</v>
+        <v>-61.492097000000001</v>
       </c>
       <c r="D25" s="6">
-        <v>0.57968299999999995</v>
+        <v>11.28121</v>
       </c>
       <c r="E25" s="6">
-        <v>-6.8415309999999998</v>
+        <v>-31.598338999999999</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6">
-        <v>-1.2720149999999999</v>
+        <v>-15.807611</v>
       </c>
       <c r="H25" s="6">
-        <v>0.137652</v>
+        <v>2.623516</v>
       </c>
       <c r="I25" s="6">
-        <v>-1.554881</v>
+        <v>-9.8744029999999992</v>
       </c>
       <c r="K25" s="6">
-        <f t="shared" ref="K25:K31" si="9">C25/G25</f>
-        <v>4.0000330184785557</v>
+        <f t="shared" ref="K25:K31" si="2">C25/G25</f>
+        <v>3.8900310110110885</v>
       </c>
       <c r="L25" s="6">
-        <f t="shared" si="7"/>
-        <v>4.2112210501845233</v>
+        <f t="shared" si="0"/>
+        <v>4.3000347625095481</v>
       </c>
       <c r="M25" s="6">
-        <f t="shared" si="7"/>
-        <v>4.4000351152274675</v>
+        <f t="shared" si="0"/>
+        <v>3.2000252572231456</v>
       </c>
       <c r="O25" s="7">
         <f>G25*D$6</f>
-        <v>-5.0880599999999996</v>
+        <v>-61.491606789999999</v>
       </c>
       <c r="P25" s="7">
         <f>H25*E$6</f>
-        <v>0.57968010240000001</v>
+        <v>11.2811188</v>
       </c>
       <c r="Q25" s="7">
         <f>I25*F$6</f>
-        <v>-6.8414764000000003</v>
+        <v>-31.598089599999998</v>
       </c>
       <c r="S25" s="16">
-        <f t="shared" ref="S25:S31" si="10">(C25-O25)/C25</f>
-        <v>8.2545515008428685E-6</v>
+        <f t="shared" ref="S25:S31" si="3">(C25-O25)/C25</f>
+        <v>7.9719187329451122E-6</v>
       </c>
       <c r="T25" s="16">
-        <f t="shared" si="8"/>
-        <v>4.9985940590638778E-6</v>
+        <f t="shared" si="1"/>
+        <v>8.0842391906504702E-6</v>
       </c>
       <c r="U25" s="16">
-        <f t="shared" si="8"/>
-        <v>7.980669823678448E-6</v>
+        <f t="shared" si="1"/>
+        <v>7.8928199359240834E-6</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C26" s="6">
-        <v>-4.3519569999999996</v>
+        <v>-24.786448</v>
       </c>
       <c r="D26" s="6">
-        <v>-4.7496929999999997</v>
+        <v>-8.4853719999999999</v>
       </c>
       <c r="E26" s="6">
-        <v>18.352879000000001</v>
+        <v>28.823709000000001</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6">
-        <v>-1.0879810000000001</v>
+        <v>-6.3717870000000003</v>
       </c>
       <c r="H26" s="6">
-        <v>-1.1278630000000001</v>
+        <v>-1.9733270000000001</v>
       </c>
       <c r="I26" s="6">
-        <v>4.1710760000000002</v>
+        <v>9.0073380000000007</v>
       </c>
       <c r="K26" s="6">
-        <f t="shared" si="9"/>
-        <v>4.0000303314120371</v>
+        <f t="shared" si="2"/>
+        <v>3.890030850058233</v>
       </c>
       <c r="L26" s="6">
-        <f t="shared" si="7"/>
-        <v>4.2112322152601864</v>
+        <f t="shared" si="0"/>
+        <v>4.3000333953774517</v>
       </c>
       <c r="M26" s="6">
-        <f t="shared" si="7"/>
-        <v>4.4000346673136619</v>
+        <f t="shared" si="0"/>
+        <v>3.2000252460826939</v>
       </c>
       <c r="O26" s="7">
         <f>G26*D$6</f>
-        <v>-4.3519240000000003</v>
+        <v>-24.786251430000004</v>
       </c>
       <c r="P26" s="7">
         <f>H26*E$6</f>
-        <v>-4.7496566655999999</v>
+        <v>-8.4853061000000007</v>
       </c>
       <c r="Q26" s="7">
         <f>I26*F$6</f>
-        <v>18.352734400000003</v>
+        <v>28.823481600000004</v>
       </c>
       <c r="S26" s="16">
-        <f t="shared" si="10"/>
-        <v>7.5827955099932293E-6</v>
+        <f t="shared" si="3"/>
+        <v>7.9305433354710112E-6</v>
       </c>
       <c r="T26" s="16">
-        <f t="shared" si="8"/>
-        <v>7.6498417897404718E-6</v>
+        <f t="shared" si="1"/>
+        <v>7.7663065330753863E-6</v>
       </c>
       <c r="U26" s="16">
-        <f t="shared" si="8"/>
-        <v>7.8788728459833448E-6</v>
+        <f t="shared" si="1"/>
+        <v>7.8893385995687089E-6</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C27" s="6">
-        <v>2.1599819999999998</v>
+        <v>183.24982399999999</v>
       </c>
       <c r="D27" s="6">
-        <v>0.24160899999999999</v>
+        <v>23.726818000000002</v>
       </c>
       <c r="E27" s="6">
-        <v>3.0034550000000002</v>
+        <v>103.01253</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6">
-        <v>0.539991</v>
+        <v>47.107548999999999</v>
       </c>
       <c r="H27" s="6">
-        <v>5.7371999999999999E-2</v>
+        <v>5.5178209999999996</v>
       </c>
       <c r="I27" s="6">
-        <v>0.68259800000000004</v>
+        <v>32.191160000000004</v>
       </c>
       <c r="K27" s="6">
-        <f t="shared" si="9"/>
-        <v>4.000033333888898</v>
+        <f t="shared" si="2"/>
+        <v>3.8900309587323254</v>
       </c>
       <c r="L27" s="6">
-        <f t="shared" si="7"/>
-        <v>4.2112703060726489</v>
+        <f t="shared" si="0"/>
+        <v>4.3000340170512965</v>
       </c>
       <c r="M27" s="6">
-        <f t="shared" si="7"/>
-        <v>4.4000348667883591</v>
+        <f t="shared" si="0"/>
+        <v>3.2000254107028137</v>
       </c>
       <c r="O27" s="7">
         <f>G27*D$6</f>
-        <v>2.159964</v>
+        <v>183.24836561000001</v>
       </c>
       <c r="P27" s="7">
         <f>H27*E$6</f>
-        <v>0.24160496639999998</v>
+        <v>23.726630299999997</v>
       </c>
       <c r="Q27" s="7">
         <f>I27*F$6</f>
-        <v>3.0034312000000005</v>
+        <v>103.01171200000002</v>
       </c>
       <c r="S27" s="16">
-        <f t="shared" si="10"/>
-        <v>8.3334027782877221E-6</v>
+        <f t="shared" si="3"/>
+        <v>7.9584796762590393E-6</v>
       </c>
       <c r="T27" s="16">
-        <f t="shared" si="8"/>
-        <v>1.6694742331653704E-5</v>
+        <f t="shared" si="1"/>
+        <v>7.9108795795967598E-6</v>
       </c>
       <c r="U27" s="16">
-        <f t="shared" si="8"/>
-        <v>7.9242072878352365E-6</v>
+        <f t="shared" si="1"/>
+        <v>7.9407815726990842E-6</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C28" s="6">
-        <v>2.0551840000000001</v>
+        <v>102.554462</v>
       </c>
       <c r="D28" s="6">
-        <v>-6.1022629999999998</v>
+        <v>-13.303361000000001</v>
       </c>
       <c r="E28" s="6">
-        <v>-5.1861969999999999</v>
+        <v>-39.589776000000001</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6">
-        <v>0.51379200000000003</v>
+        <v>26.363405</v>
       </c>
       <c r="H28" s="6">
-        <v>-1.449044</v>
+        <v>-3.0937800000000002</v>
       </c>
       <c r="I28" s="6">
-        <v>-1.1786719999999999</v>
+        <v>-12.371707000000001</v>
       </c>
       <c r="K28" s="6">
-        <f t="shared" si="9"/>
-        <v>4.0000311410064775</v>
+        <f t="shared" si="2"/>
+        <v>3.8900309728580202</v>
       </c>
       <c r="L28" s="6">
-        <f t="shared" si="7"/>
-        <v>4.2112337513560663</v>
+        <f t="shared" si="0"/>
+        <v>4.3000345855232114</v>
       </c>
       <c r="M28" s="6">
-        <f t="shared" si="7"/>
-        <v>4.4000341061805148</v>
+        <f t="shared" si="0"/>
+        <v>3.2000253481593122</v>
       </c>
       <c r="O28" s="7">
         <f>G28*D$6</f>
-        <v>2.0551680000000001</v>
+        <v>102.55364545</v>
       </c>
       <c r="P28" s="7">
         <f>H28*E$6</f>
-        <v>-6.1022140927999997</v>
+        <v>-13.303254000000001</v>
       </c>
       <c r="Q28" s="7">
         <f>I28*F$6</f>
-        <v>-5.1861568</v>
+        <v>-39.589462400000002</v>
       </c>
       <c r="S28" s="16">
-        <f t="shared" si="10"/>
-        <v>7.785191009669208E-6</v>
+        <f t="shared" si="3"/>
+        <v>7.9621109025577173E-6</v>
       </c>
       <c r="T28" s="16">
-        <f t="shared" si="8"/>
-        <v>8.0146004851083925E-6</v>
+        <f t="shared" si="1"/>
+        <v>8.0430802411403558E-6</v>
       </c>
       <c r="U28" s="16">
-        <f t="shared" si="8"/>
-        <v>7.7513445786835195E-6</v>
+        <f t="shared" si="1"/>
+        <v>7.9212370385313535E-6</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C29" s="6">
-        <v>24.410112000000002</v>
+        <v>38.599438999999997</v>
       </c>
       <c r="D29" s="6">
-        <v>10.405001</v>
+        <v>12.170413999999999</v>
       </c>
       <c r="E29" s="6">
-        <v>2.160066</v>
+        <v>-10.261335000000001</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6">
-        <v>6.1024799999999999</v>
+        <v>9.9226559999999999</v>
       </c>
       <c r="H29" s="6">
-        <v>2.4707729999999999</v>
+        <v>2.8303060000000002</v>
       </c>
       <c r="I29" s="6">
-        <v>0.49092000000000002</v>
+        <v>-3.206642</v>
       </c>
       <c r="K29" s="6">
-        <f t="shared" si="9"/>
-        <v>4.0000314626184768</v>
+        <f t="shared" si="2"/>
+        <v>3.8900309554216128</v>
       </c>
       <c r="L29" s="6">
-        <f t="shared" si="7"/>
-        <v>4.2112330837353333</v>
+        <f t="shared" si="0"/>
+        <v>4.3000346958950724</v>
       </c>
       <c r="M29" s="6">
-        <f t="shared" si="7"/>
-        <v>4.4000366658518697</v>
+        <f t="shared" si="0"/>
+        <v>3.2000251353284841</v>
       </c>
       <c r="O29" s="7">
         <f>G29*D$6</f>
-        <v>24.40992</v>
+        <v>38.599131839999998</v>
       </c>
       <c r="P29" s="7">
         <f>H29*E$6</f>
-        <v>10.4049192576</v>
+        <v>12.170315800000001</v>
       </c>
       <c r="Q29" s="7">
         <f>I29*F$6</f>
-        <v>2.1600480000000002</v>
+        <v>-10.2612544</v>
       </c>
       <c r="S29" s="16">
-        <f t="shared" si="10"/>
-        <v>7.865592751150357E-6</v>
+        <f t="shared" si="3"/>
+        <v>7.9576286069447463E-6</v>
       </c>
       <c r="T29" s="16">
-        <f t="shared" si="8"/>
-        <v>7.8560684425504627E-6</v>
+        <f t="shared" si="1"/>
+        <v>8.0687477022779911E-6</v>
       </c>
       <c r="U29" s="16">
-        <f t="shared" si="8"/>
-        <v>8.3330787114150523E-6</v>
+        <f t="shared" si="1"/>
+        <v>7.854728453990667E-6</v>
       </c>
     </row>
     <row r="30" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30" s="6">
-        <v>-6.1387609999999997</v>
+        <v>-218.86935299999999</v>
       </c>
       <c r="D30" s="6">
-        <v>-6.1022629999999998</v>
+        <v>-29.104402</v>
       </c>
       <c r="E30" s="6">
-        <v>3.2654679999999998</v>
+        <v>-33.421838000000001</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6">
-        <v>-1.534678</v>
+        <v>-56.264167999999998</v>
       </c>
       <c r="H30" s="6">
-        <v>-1.449044</v>
+        <v>-6.7684119999999997</v>
       </c>
       <c r="I30" s="6">
-        <v>0.74214599999999997</v>
+        <v>-10.444241</v>
       </c>
       <c r="J30"/>
       <c r="K30" s="6">
-        <f t="shared" si="9"/>
-        <v>4.0000319285218131</v>
+        <f t="shared" si="2"/>
+        <v>3.8900309163018281</v>
       </c>
       <c r="L30" s="6">
-        <f t="shared" si="7"/>
-        <v>4.2112337513560663</v>
+        <f t="shared" si="0"/>
+        <v>4.3000340404809876</v>
       </c>
       <c r="M30" s="6">
-        <f t="shared" si="7"/>
-        <v>4.4000344945603693</v>
+        <f t="shared" si="0"/>
+        <v>3.2000255451784385</v>
       </c>
       <c r="N30"/>
       <c r="O30" s="7">
         <f>G30*D$6</f>
-        <v>-6.1387119999999999</v>
+        <v>-218.86761351999999</v>
       </c>
       <c r="P30" s="7">
         <f>H30*E$6</f>
-        <v>-6.1022140927999997</v>
+        <v>-29.104171599999997</v>
       </c>
       <c r="Q30" s="7">
         <f>I30*F$6</f>
-        <v>3.2654424</v>
+        <v>-33.421571200000002</v>
       </c>
       <c r="R30"/>
       <c r="S30" s="16">
-        <f t="shared" si="10"/>
-        <v>7.982066739484352E-6</v>
+        <f t="shared" si="3"/>
+        <v>7.9475722669938364E-6</v>
       </c>
       <c r="T30" s="16">
-        <f t="shared" si="8"/>
-        <v>8.0146004851083925E-6</v>
+        <f t="shared" si="1"/>
+        <v>7.9163282586281145E-6</v>
       </c>
       <c r="U30" s="16">
-        <f t="shared" si="8"/>
-        <v>7.8396113512207042E-6</v>
+        <f t="shared" si="1"/>
+        <v>7.9828045363204796E-6</v>
       </c>
       <c r="V30"/>
       <c r="W30"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C31" s="6">
-        <v>-5.1488269999999998</v>
+        <v>-30.845922000000002</v>
       </c>
       <c r="D31" s="6">
-        <v>10.566108</v>
+        <v>12.241166</v>
       </c>
       <c r="E31" s="6">
-        <v>-5.9581970000000002</v>
+        <v>-8.5220660000000006</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6">
-        <v>-1.2871969999999999</v>
+        <v>-7.9294799999999999</v>
       </c>
       <c r="H31" s="6">
-        <v>2.509029</v>
+        <v>2.8467600000000002</v>
       </c>
       <c r="I31" s="6">
-        <v>-1.354125</v>
+        <v>-2.6631239999999998</v>
       </c>
       <c r="K31" s="6">
-        <f t="shared" si="9"/>
-        <v>4.000030298392554</v>
+        <f t="shared" si="2"/>
+        <v>3.890030872137896</v>
       </c>
       <c r="L31" s="6">
-        <f t="shared" si="7"/>
-        <v>4.211233907619242</v>
+        <f t="shared" si="0"/>
+        <v>4.300034425100816</v>
       </c>
       <c r="M31" s="6">
-        <f t="shared" si="7"/>
-        <v>4.4000347087602698</v>
+        <f t="shared" si="0"/>
+        <v>3.200025984520436</v>
       </c>
       <c r="O31" s="7">
         <f>G31*D$6</f>
-        <v>-5.1487879999999997</v>
+        <v>-30.845677200000001</v>
       </c>
       <c r="P31" s="7">
         <f>H31*E$6</f>
-        <v>10.566022924799999</v>
+        <v>12.241068</v>
       </c>
       <c r="Q31" s="7">
         <f>I31*F$6</f>
-        <v>-5.9581500000000007</v>
+        <v>-8.5219968000000001</v>
       </c>
       <c r="S31" s="16">
-        <f t="shared" si="10"/>
-        <v>7.5745407643570609E-6</v>
+        <f t="shared" si="3"/>
+        <v>7.9362192513105019E-6</v>
       </c>
       <c r="T31" s="16">
-        <f t="shared" si="8"/>
-        <v>8.0517064562682689E-6</v>
+        <f t="shared" si="1"/>
+        <v>8.0057733061938215E-6</v>
       </c>
       <c r="U31" s="16">
-        <f t="shared" si="8"/>
-        <v>7.8882923809776914E-6</v>
+        <f t="shared" si="1"/>
+        <v>8.1200966996072993E-6</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="25"/>
       <c r="B32" s="23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C32" s="24">
         <f>SUM(C24:C31)</f>
         <v>0</v>
       </c>
       <c r="D32" s="24">
-        <f t="shared" ref="D32:E32" si="11">SUM(D24:D31)</f>
-        <v>-9.9999999747524271E-7</v>
+        <f t="shared" ref="D32:E32" si="4">SUM(D24:D31)</f>
+        <v>-1.0000000010279564E-6</v>
       </c>
       <c r="E32" s="24">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>9.9999999925159955E-7</v>
       </c>
       <c r="F32" s="24"/>
       <c r="G32" s="24">
-        <f t="shared" ref="G32:I32" si="12">SUM(G24:G31)</f>
-        <v>0</v>
+        <f t="shared" ref="G32:I32" si="5">SUM(G24:G31)</f>
+        <v>-9.9999999925159955E-7</v>
       </c>
       <c r="H32" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>-1.000000000139778E-6</v>
       </c>
       <c r="I32" s="24">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1.0000000045806701E-6</v>
       </c>
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
@@ -5927,16 +5409,16 @@
       <c r="M32" s="24"/>
       <c r="N32" s="24"/>
       <c r="O32" s="24">
-        <f t="shared" ref="O32:Q32" si="13">SUM(O24:O31)</f>
-        <v>0</v>
+        <f t="shared" ref="O32:Q32" si="6">SUM(O24:O31)</f>
+        <v>-3.8899999772468163E-6</v>
       </c>
       <c r="P32" s="24">
-        <f t="shared" si="13"/>
-        <v>-4.2112000002703098E-6</v>
+        <f t="shared" si="6"/>
+        <v>-4.3000000022885843E-6</v>
       </c>
       <c r="Q32" s="24">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>3.2000000196319434E-6</v>
       </c>
       <c r="R32" s="24"/>
       <c r="S32" s="23"/>
@@ -5955,195 +5437,118 @@
       <c r="T38" s="19"/>
       <c r="U38" s="19"/>
     </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+    </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="L41" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="M41" s="31" t="s">
-        <v>108</v>
-      </c>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="L42" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="M42" s="31" t="s">
-        <v>107</v>
-      </c>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="G43" s="26" t="s">
-        <v>90</v>
-      </c>
+      <c r="G43" s="26"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>92</v>
-      </c>
-      <c r="G44" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I44" t="s">
-        <v>110</v>
-      </c>
-      <c r="K44" t="s">
-        <v>95</v>
-      </c>
-      <c r="M44" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>110</v>
-      </c>
-      <c r="U44" t="s">
-        <v>110</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="25"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C45" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="E45" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="G45" t="s">
-        <v>94</v>
+      <c r="C45" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="G45" s="40" t="s">
+        <v>106</v>
       </c>
       <c r="I45" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="K45" t="s">
-        <v>96</v>
-      </c>
-      <c r="M45" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="O45" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q45" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="S45" t="s">
-        <v>97</v>
-      </c>
-      <c r="U45" s="30" t="s">
-        <v>109</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="M45" s="30"/>
+      <c r="Q45" s="30"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C46" s="19" t="s">
         <v>27</v>
       </c>
       <c r="D46" s="19">
-        <v>79.400058999999999</v>
+        <v>72.146089000000003</v>
       </c>
       <c r="E46" s="19">
-        <f>D46/$H$19</f>
-        <v>79.399427686882859</v>
+        <f>D46/H$19</f>
+        <v>72.145515363787482</v>
       </c>
       <c r="F46" s="19"/>
-      <c r="G46" s="19">
-        <v>78.867613601050806</v>
-      </c>
-      <c r="H46" s="21">
+      <c r="G46" s="37">
+        <v>72.145514957948507</v>
+      </c>
+      <c r="H46" s="38">
         <f>(D46-G46)/D46</f>
-        <v>6.7058564647816303E-3</v>
-      </c>
-      <c r="I46" s="19">
+        <v>7.9566620928932637E-6</v>
+      </c>
+      <c r="I46" s="39">
         <f>E46-G46</f>
-        <v>0.53181408583205325</v>
-      </c>
-      <c r="K46" s="19">
-        <v>78.912414933792107</v>
-      </c>
-      <c r="L46" s="21">
-        <f>(D46-K46)/D46</f>
-        <v>6.141608360869002E-3</v>
-      </c>
-      <c r="M46" s="19">
-        <f>E46-K46</f>
-        <v>0.48701275309075243</v>
-      </c>
-      <c r="O46" s="19">
-        <v>79.486810199279603</v>
-      </c>
-      <c r="P46" s="21">
-        <f>(D46-O46)/D46</f>
-        <v>-1.0925835619291411E-3</v>
-      </c>
-      <c r="Q46" s="19">
-        <f>E46-O46</f>
-        <v>-8.738251239674355E-2</v>
-      </c>
-      <c r="S46" s="19">
-        <v>79.531611532021003</v>
-      </c>
-      <c r="T46" s="21">
-        <f>(D46-S46)/D46</f>
-        <v>-1.6568316658430223E-3</v>
-      </c>
-      <c r="U46" s="19">
-        <f>E46-S46</f>
-        <v>-0.13218384513814385</v>
-      </c>
+        <v>4.0583897487067588E-7</v>
+      </c>
+      <c r="K46" s="19"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="19"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C47" s="19" t="s">
         <v>28</v>
       </c>
       <c r="D47" s="19">
-        <v>61.889170999999997</v>
+        <v>21.916841000000002</v>
       </c>
       <c r="E47" s="19">
-        <f t="shared" ref="E47:E51" si="14">D47/$H$19</f>
-        <v>61.888678916669669</v>
+        <f t="shared" ref="E47:E51" si="7">D47/H$19</f>
+        <v>21.916666738389484</v>
       </c>
       <c r="F47" s="19"/>
-      <c r="G47" s="19">
-        <v>61.429245549290599</v>
-      </c>
-      <c r="H47" s="21">
+      <c r="G47" s="37">
+        <v>21.916666661610201</v>
+      </c>
+      <c r="H47" s="38">
         <f>(D47-G47)/D47</f>
-        <v>7.4314366031724491E-3</v>
-      </c>
-      <c r="I47" s="19">
-        <f t="shared" ref="I47:I48" si="15">E47-G47</f>
-        <v>0.45943336737907003</v>
-      </c>
-      <c r="K47" s="19">
-        <v>61.4546697220715</v>
-      </c>
-      <c r="L47" s="21">
-        <f>(D47-K47)/D47</f>
-        <v>7.0206349658245891E-3</v>
-      </c>
-      <c r="M47" s="19">
-        <f>E47-K47</f>
-        <v>0.43400919459816834</v>
-      </c>
-      <c r="O47" s="19">
-        <v>61.995438183118097</v>
-      </c>
-      <c r="P47" s="21">
-        <f>(D47-O47)/D47</f>
-        <v>-1.7170561731728357E-3</v>
-      </c>
-      <c r="Q47" s="19">
-        <f>E47-O47</f>
-        <v>-0.10675926644842804</v>
-      </c>
-      <c r="S47" s="19">
-        <v>62.020862355898998</v>
-      </c>
-      <c r="T47" s="21">
-        <f>(D47-S47)/D47</f>
-        <v>-2.1278578105206961E-3</v>
-      </c>
-      <c r="U47" s="19">
-        <f>E47-S47</f>
-        <v>-0.13218343922932974</v>
-      </c>
+        <v>7.9545400635504621E-6</v>
+      </c>
+      <c r="I47" s="39">
+        <f>E47-G47</f>
+        <v>7.6779283375572049E-8</v>
+      </c>
+      <c r="K47" s="19"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="19"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="25"/>
@@ -6151,275 +5556,186 @@
         <v>29</v>
       </c>
       <c r="D48" s="19">
-        <v>51.230969000000002</v>
+        <v>127.715462</v>
       </c>
       <c r="E48" s="19">
-        <f t="shared" si="14"/>
-        <v>51.230561660469775</v>
+        <f t="shared" si="7"/>
+        <v>127.71444652965479</v>
       </c>
       <c r="F48" s="19"/>
-      <c r="G48" s="19">
-        <v>50.765416388374803</v>
-      </c>
-      <c r="H48" s="21">
+      <c r="G48" s="37">
+        <v>127.71444610227999</v>
+      </c>
+      <c r="H48" s="38">
         <f>(D48-G48)/D48</f>
-        <v>9.0873278548605843E-3</v>
-      </c>
-      <c r="I48" s="19">
-        <f t="shared" si="15"/>
-        <v>0.46514527209497203</v>
-      </c>
-      <c r="K48" s="19">
-        <v>50.8213578408064</v>
-      </c>
-      <c r="L48" s="21">
-        <f>(D48-K48)/D48</f>
-        <v>7.9953818401053908E-3</v>
-      </c>
-      <c r="M48" s="19">
-        <f>E48-K48</f>
-        <v>0.40920381966337516</v>
-      </c>
-      <c r="O48" s="19">
-        <v>51.306803772640599</v>
-      </c>
-      <c r="P48" s="21">
-        <f>(D48-O48)/D48</f>
-        <v>-1.4802525527205475E-3</v>
-      </c>
-      <c r="Q48" s="19">
-        <f>E48-O48</f>
-        <v>-7.6242112170824328E-2</v>
-      </c>
-      <c r="S48" s="19">
-        <v>51.362745225072103</v>
-      </c>
-      <c r="T48" s="21">
-        <f>(D48-S48)/D48</f>
-        <v>-2.572198567473938E-3</v>
-      </c>
-      <c r="U48" s="19">
-        <f>E48-S48</f>
-        <v>-0.13218356460232883</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+        <v>7.9543831584714989E-6</v>
+      </c>
+      <c r="I48" s="39">
+        <f>E48-G48</f>
+        <v>4.2737480043797405E-7</v>
+      </c>
+      <c r="K48" s="19"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="19"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="25"/>
       <c r="C49" s="19" t="s">
         <v>30</v>
       </c>
       <c r="D49" s="19">
-        <v>0.28902899999999998</v>
+        <v>2.118703</v>
       </c>
       <c r="E49" s="19">
-        <f t="shared" si="14"/>
-        <v>0.28902670191859764</v>
+        <f t="shared" si="7"/>
+        <v>2.1186861541143638</v>
       </c>
       <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="19"/>
+      <c r="G49" s="37">
+        <v>2.1186857751501398</v>
+      </c>
+      <c r="H49" s="38">
+        <f>(D49-G49)/D49</f>
+        <v>8.1299029926422463E-6</v>
+      </c>
+      <c r="I49" s="39">
+        <f>E49-G49</f>
+        <v>3.7896422400152119E-7</v>
+      </c>
       <c r="K49" s="19"/>
       <c r="L49" s="21"/>
       <c r="M49" s="19"/>
       <c r="O49" s="19"/>
       <c r="P49" s="21"/>
       <c r="Q49" s="19"/>
-      <c r="S49" s="32">
-        <v>0.28902692925990597</v>
-      </c>
-      <c r="T49" s="35">
-        <f>(D49-S49)/D49</f>
-        <v>7.1644717104745975E-6</v>
-      </c>
-      <c r="U49" s="33">
-        <f>E49-S49</f>
-        <v>-2.2734130833423905E-7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="25"/>
       <c r="C50" s="19" t="s">
         <v>31</v>
       </c>
       <c r="D50" s="19">
-        <v>1.0367519999999999</v>
+        <v>42.673124999999999</v>
       </c>
       <c r="E50" s="19">
-        <f t="shared" si="14"/>
-        <v>1.0367437567424374</v>
+        <f t="shared" si="7"/>
+        <v>42.672785704410444</v>
       </c>
       <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="19"/>
+      <c r="G50" s="37">
+        <v>42.672785391197898</v>
+      </c>
+      <c r="H50" s="38">
+        <f>(D50-G50)/D50</f>
+        <v>7.9583766621403857E-6</v>
+      </c>
+      <c r="I50" s="39">
+        <f>E50-G50</f>
+        <v>3.1321254567728829E-7</v>
+      </c>
       <c r="K50" s="19"/>
       <c r="L50" s="21"/>
       <c r="M50" s="19"/>
       <c r="O50" s="19"/>
       <c r="P50" s="21"/>
       <c r="Q50" s="19"/>
-      <c r="S50" s="32">
-        <v>1.0367436885713699</v>
-      </c>
-      <c r="T50" s="35">
-        <f>(D50-S50)/D50</f>
-        <v>8.0167953666869687E-6</v>
-      </c>
-      <c r="U50" s="33">
-        <f>E50-S50</f>
-        <v>6.8171067457711843E-8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="25"/>
       <c r="C51" s="19" t="s">
         <v>32</v>
       </c>
       <c r="D51" s="19">
-        <v>0.18586</v>
+        <v>2.7942770000000001</v>
       </c>
       <c r="E51" s="19">
-        <f t="shared" si="14"/>
-        <v>0.185858522219537</v>
+        <f t="shared" si="7"/>
+        <v>2.7942547826005923</v>
       </c>
       <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="19"/>
+      <c r="G51" s="37">
+        <v>2.7942547393436201</v>
+      </c>
+      <c r="H51" s="38">
+        <f>(D51-G51)/D51</f>
+        <v>7.9665174139865421E-6</v>
+      </c>
+      <c r="I51" s="39">
+        <f>E51-G51</f>
+        <v>4.3256972226402013E-8</v>
+      </c>
       <c r="K51" s="19"/>
       <c r="L51" s="21"/>
       <c r="M51" s="19"/>
       <c r="O51" s="19"/>
       <c r="P51" s="21"/>
       <c r="Q51" s="19"/>
-      <c r="S51" s="32">
-        <v>0.18585897745624899</v>
-      </c>
-      <c r="T51" s="35">
-        <f>(D51-S51)/D51</f>
-        <v>5.5016881039807141E-6</v>
-      </c>
-      <c r="U51" s="33">
-        <f>E51-S51</f>
-        <v>-4.5523671199365623E-7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="25"/>
       <c r="E52" t="s">
-        <v>93</v>
-      </c>
-      <c r="S52" s="19"/>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="G52" s="19"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="25"/>
       <c r="C53" t="s">
         <v>61</v>
       </c>
       <c r="D53" s="19">
         <f>SUM(D46:D48)</f>
-        <v>192.52019899999999</v>
+        <v>221.778392</v>
       </c>
       <c r="E53" s="16">
         <f>(ABS(D18)-D53)/ABS(D18)</f>
-        <v>2.1815893698709168E-9</v>
+        <v>-4.1031949887033603E-9</v>
       </c>
       <c r="G53" s="19">
         <f>SUM(G46:G48)</f>
-        <v>191.06227553871619</v>
+        <v>221.77662772183871</v>
       </c>
       <c r="H53" s="16">
         <f>(ABS(H18)-G53)/ABS(H18)</f>
-        <v>7.5649450271920203E-3</v>
-      </c>
-      <c r="K53" s="19">
-        <f>SUM(K46:K48)</f>
-        <v>191.18844249667001</v>
-      </c>
-      <c r="L53" s="16">
-        <f>(ABS(H18)-K53)/ABS(H18)</f>
-        <v>6.909595814483244E-3</v>
-      </c>
-      <c r="O53" s="19">
-        <f>SUM(O46:O48)</f>
-        <v>192.78905215503829</v>
-      </c>
-      <c r="P53" s="16">
-        <f>(ABS(H18)-O53)/ABS(H18)</f>
-        <v>-1.404453255715586E-3</v>
-      </c>
-      <c r="S53" s="19">
-        <f>SUM(S46:S48)</f>
-        <v>192.91521911299211</v>
-      </c>
-      <c r="T53" s="16">
-        <f>(ABS(H18)-S53)/ABS(H18)</f>
-        <v>-2.0598024684243626E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+        <v>1.2815466499946802E-15</v>
+      </c>
+      <c r="K53" s="19"/>
+      <c r="L53" s="16"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="16"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="25"/>
-      <c r="C54" t="s">
-        <v>62</v>
-      </c>
-      <c r="D54" s="19">
-        <f>SUM(D46:D51)</f>
-        <v>194.03183999999999</v>
-      </c>
-      <c r="F54" t="s">
-        <v>69</v>
-      </c>
-      <c r="G54" s="19">
-        <f>-H18-G53</f>
-        <v>1.4563931453027976</v>
-      </c>
-      <c r="K54" s="19">
-        <f>-H18-K53</f>
-        <v>1.330226187348984</v>
-      </c>
+      <c r="D54" s="19"/>
+      <c r="K54" s="19"/>
       <c r="S54" s="19"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="25"/>
-      <c r="F55" t="s">
-        <v>99</v>
-      </c>
       <c r="S55" s="19"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="25"/>
       <c r="B56" s="25"/>
       <c r="C56" s="25"/>
-      <c r="D56" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E56" s="27">
-        <f>SUM(E46:E48)</f>
-        <v>192.51866826402232</v>
-      </c>
-      <c r="F56" s="29">
-        <f>(-H18-E56)/-H18</f>
-        <v>2.1815892954658288E-9</v>
-      </c>
+      <c r="D56" s="25"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="29"/>
       <c r="G56" s="25"/>
       <c r="H56" s="25"/>
       <c r="I56" s="25"/>
-      <c r="K56" s="25" t="s">
-        <v>102</v>
-      </c>
+      <c r="K56" s="25"/>
       <c r="L56" s="25"/>
       <c r="M56" s="25"/>
-      <c r="O56" s="25" t="s">
-        <v>103</v>
-      </c>
+      <c r="O56" s="25"/>
       <c r="P56" s="25"/>
       <c r="Q56" s="25"/>
-      <c r="S56" s="28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S56" s="28"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="25"/>
       <c r="B57" s="25"/>
       <c r="C57" s="25"/>
@@ -6429,24 +5745,15 @@
       <c r="G57" s="25"/>
       <c r="H57" s="25"/>
       <c r="I57" s="25"/>
-      <c r="K57" s="28">
-        <f>K46-G46</f>
-        <v>4.4801332741300826E-2</v>
-      </c>
+      <c r="K57" s="28"/>
       <c r="L57" s="25"/>
       <c r="M57" s="25"/>
-      <c r="O57" s="28">
-        <f>O46-G46</f>
-        <v>0.6191965982287968</v>
-      </c>
+      <c r="O57" s="28"/>
       <c r="P57" s="28"/>
       <c r="Q57" s="25"/>
-      <c r="S57" s="28">
-        <f>S46-G46</f>
-        <v>0.6639979309701971</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S57" s="28"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="25"/>
       <c r="B58" s="25"/>
       <c r="C58" s="25"/>
@@ -6456,22 +5763,16 @@
       <c r="G58" s="25"/>
       <c r="H58" s="25"/>
       <c r="I58" s="25"/>
-      <c r="K58" s="25" t="s">
-        <v>101</v>
-      </c>
+      <c r="K58" s="25"/>
       <c r="L58" s="25"/>
       <c r="M58" s="25"/>
-      <c r="O58" s="25" t="s">
-        <v>101</v>
-      </c>
+      <c r="O58" s="25"/>
       <c r="P58" s="25"/>
       <c r="Q58" s="25"/>
-      <c r="S58" s="28" t="s">
-        <v>101</v>
-      </c>
+      <c r="S58" s="28"/>
       <c r="T58" s="19"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="25"/>
       <c r="B59" s="25"/>
       <c r="C59" s="27"/>
@@ -6481,24 +5782,15 @@
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
-      <c r="K59" s="27">
-        <f>E46-K46</f>
-        <v>0.48701275309075243</v>
-      </c>
+      <c r="K59" s="27"/>
       <c r="L59" s="27"/>
       <c r="M59" s="27"/>
-      <c r="O59" s="19">
-        <f>E46-O46</f>
-        <v>-8.738251239674355E-2</v>
-      </c>
+      <c r="O59" s="19"/>
       <c r="P59" s="27"/>
       <c r="Q59" s="27"/>
-      <c r="S59" s="28">
-        <f>E46-G46</f>
-        <v>0.53181408583205325</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S59" s="28"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="25"/>
       <c r="B60" s="25"/>
       <c r="C60" s="25"/>
@@ -6515,7 +5807,7 @@
       <c r="Q60" s="25"/>
       <c r="S60" s="25"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="25"/>
       <c r="B61" s="27"/>
       <c r="C61" s="27"/>
@@ -6528,14 +5820,11 @@
       <c r="K61" s="25"/>
       <c r="L61" s="25"/>
       <c r="M61" s="25"/>
-      <c r="O61" t="s">
-        <v>105</v>
-      </c>
       <c r="P61" s="25"/>
       <c r="Q61" s="25"/>
       <c r="S61" s="25"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="25"/>
       <c r="B62" s="27"/>
       <c r="C62" s="27"/>
@@ -6548,15 +5837,12 @@
       <c r="K62" s="25"/>
       <c r="L62" s="25"/>
       <c r="M62" s="25"/>
-      <c r="O62" s="27">
-        <f>O57-2*K57</f>
-        <v>0.52959393274619515</v>
-      </c>
+      <c r="O62" s="27"/>
       <c r="P62" s="25"/>
       <c r="Q62" s="25"/>
       <c r="S62" s="25"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="25"/>
       <c r="B63" s="27"/>
       <c r="C63" s="27"/>
@@ -6569,17 +5855,12 @@
       <c r="K63" s="25"/>
       <c r="L63" s="25"/>
       <c r="M63" s="25"/>
-      <c r="O63" s="28">
-        <f>G46+O62</f>
-        <v>79.397207533797001</v>
-      </c>
-      <c r="P63" s="25" t="s">
-        <v>106</v>
-      </c>
+      <c r="O63" s="28"/>
+      <c r="P63" s="25"/>
       <c r="Q63" s="25"/>
       <c r="S63" s="25"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="25"/>
       <c r="B64" s="27"/>
       <c r="C64" s="27"/>

--- a/EwaldTestValidation.xlsx
+++ b/EwaldTestValidation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woongkyujee/Desktop/ProjectPAX/SLAM Extension Reference/Ewald/EwaldPreResearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DE626C-763B-1444-B15C-184245FCB159}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2D2668-F550-5C42-9B6E-0844A0609010}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27380" yWindow="2240" windowWidth="37820" windowHeight="25100" activeTab="3" xr2:uid="{ED569559-3BE8-BA43-B08A-1C36884B8A7F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" activeTab="3" xr2:uid="{ED569559-3BE8-BA43-B08A-1C36884B8A7F}"/>
   </bookViews>
   <sheets>
     <sheet name="CubicTegragonalCell" sheetId="1" r:id="rId1"/>
@@ -410,11 +410,11 @@
     <numFmt numFmtId="170" formatCode="0.00000.E+00"/>
     <numFmt numFmtId="171" formatCode="0.0000000"/>
     <numFmt numFmtId="172" formatCode="0.000000000000"/>
-    <numFmt numFmtId="176" formatCode="0.000"/>
-    <numFmt numFmtId="179" formatCode="0.0000000%"/>
-    <numFmt numFmtId="185" formatCode="0.0000.E+00"/>
+    <numFmt numFmtId="173" formatCode="0.000"/>
+    <numFmt numFmtId="174" formatCode="0.0000000%"/>
+    <numFmt numFmtId="175" formatCode="0.0000.E+00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -434,12 +434,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -494,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -533,9 +527,9 @@
     <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -545,15 +539,16 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="167" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="171" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2169,8 +2164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE25B2D-FE34-0E49-B6F0-4829524F93C3}">
   <dimension ref="A3:W72"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="94" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView topLeftCell="B19" zoomScale="94" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2243,15 +2238,15 @@
         <v>0</v>
       </c>
       <c r="H8" s="19">
-        <f>D8*D$6</f>
+        <f t="shared" ref="H8:J15" si="0">D8*D$6</f>
         <v>0.2</v>
       </c>
       <c r="I8" s="19">
-        <f>E8*E$6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J8" s="19">
-        <f>F8*F$6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L8" s="19"/>
@@ -2275,15 +2270,15 @@
         <v>0</v>
       </c>
       <c r="H9" s="19">
-        <f>D9*D$6</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I9" s="19">
-        <f>E9*E$6</f>
+        <f t="shared" si="0"/>
         <v>2.1898239999999998</v>
       </c>
       <c r="J9" s="19">
-        <f>F9*F$6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L9" s="19"/>
@@ -2307,15 +2302,15 @@
         <v>0.5</v>
       </c>
       <c r="H10" s="19">
-        <f>D10*D$6</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I10" s="19">
-        <f>E10*E$6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J10" s="19">
-        <f>F10*F$6</f>
+        <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="L10" s="19"/>
@@ -2339,15 +2334,15 @@
         <v>0.5</v>
       </c>
       <c r="H11" s="19">
-        <f>D11*D$6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I11" s="19">
-        <f>E11*E$6</f>
+        <f t="shared" si="0"/>
         <v>2.1898239999999998</v>
       </c>
       <c r="J11" s="19">
-        <f>F11*F$6</f>
+        <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="L11" s="19"/>
@@ -2371,15 +2366,15 @@
         <v>0.5</v>
       </c>
       <c r="H12" s="19">
-        <f>D12*D$6</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I12" s="19">
-        <f>E12*E$6</f>
+        <f t="shared" si="0"/>
         <v>2.1055999999999999</v>
       </c>
       <c r="J12" s="19">
-        <f>F12*F$6</f>
+        <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="L12" s="19"/>
@@ -2403,15 +2398,15 @@
         <v>0.04</v>
       </c>
       <c r="H13" s="19">
-        <f>D13*D$6</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I13" s="19">
-        <f>E13*E$6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J13" s="19">
-        <f>F13*F$6</f>
+        <f t="shared" si="0"/>
         <v>0.17600000000000002</v>
       </c>
       <c r="L13" s="19"/>
@@ -2435,15 +2430,15 @@
         <v>0</v>
       </c>
       <c r="H14" s="19">
-        <f>D14*D$6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14" s="19">
-        <f>E14*E$6</f>
+        <f t="shared" si="0"/>
         <v>2.1055999999999999</v>
       </c>
       <c r="J14" s="19">
-        <f>F14*F$6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L14" s="19"/>
@@ -2467,15 +2462,15 @@
         <v>0.5</v>
       </c>
       <c r="H15" s="19">
-        <f>D15*D$6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I15" s="19">
-        <f>E15*E$6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J15" s="19">
-        <f>F15*F$6</f>
+        <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="L15" s="19"/>
@@ -2588,23 +2583,23 @@
         <v>4.0000319085571663</v>
       </c>
       <c r="L24" s="6">
-        <f t="shared" ref="L24:M24" si="0">D24/H24</f>
+        <f t="shared" ref="L24:M24" si="1">D24/H24</f>
         <v>4.2112316733920805</v>
       </c>
       <c r="M24" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.4000351164696241</v>
       </c>
       <c r="O24" s="7">
-        <f>G24*D$6</f>
+        <f t="shared" ref="O24:Q31" si="2">G24*D$6</f>
         <v>-7.8975679999999997</v>
       </c>
       <c r="P24" s="7">
-        <f>H24*E$6</f>
+        <f t="shared" si="2"/>
         <v>-4.8381466112</v>
       </c>
       <c r="Q24" s="7">
-        <f>I24*F$6</f>
+        <f t="shared" si="2"/>
         <v>-8.7958727999999997</v>
       </c>
       <c r="S24" s="16">
@@ -2612,11 +2607,11 @@
         <v>7.9770756572349648E-6</v>
       </c>
       <c r="T24" s="16">
-        <f t="shared" ref="T24:U24" si="1">(D24-P24)/D24</f>
+        <f t="shared" ref="T24:U24" si="3">(D24-P24)/D24</f>
         <v>7.5211706543340695E-6</v>
       </c>
       <c r="U24" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.9809521275532574E-6</v>
       </c>
     </row>
@@ -2641,39 +2636,39 @@
         <v>-1.554881</v>
       </c>
       <c r="K25" s="6">
-        <f t="shared" ref="K25:K31" si="2">C25/G25</f>
+        <f t="shared" ref="K25:K31" si="4">C25/G25</f>
         <v>4.0000330184785557</v>
       </c>
       <c r="L25" s="6">
-        <f t="shared" ref="L25:L31" si="3">D25/H25</f>
+        <f t="shared" ref="L25:L31" si="5">D25/H25</f>
         <v>4.2112210501845233</v>
       </c>
       <c r="M25" s="6">
-        <f t="shared" ref="M25:M31" si="4">E25/I25</f>
+        <f t="shared" ref="M25:M31" si="6">E25/I25</f>
         <v>4.4000351152274675</v>
       </c>
       <c r="O25" s="7">
-        <f>G25*D$6</f>
+        <f t="shared" si="2"/>
         <v>-5.0880599999999996</v>
       </c>
       <c r="P25" s="7">
-        <f>H25*E$6</f>
+        <f t="shared" si="2"/>
         <v>0.57968010240000001</v>
       </c>
       <c r="Q25" s="7">
-        <f>I25*F$6</f>
+        <f t="shared" si="2"/>
         <v>-6.8414764000000003</v>
       </c>
       <c r="S25" s="16">
-        <f t="shared" ref="S25:S31" si="5">(C25-O25)/C25</f>
+        <f t="shared" ref="S25:S31" si="7">(C25-O25)/C25</f>
         <v>8.2545515008428685E-6</v>
       </c>
       <c r="T25" s="16">
-        <f t="shared" ref="T25:T31" si="6">(D25-P25)/D25</f>
+        <f t="shared" ref="T25:T31" si="8">(D25-P25)/D25</f>
         <v>4.9985940590638778E-6</v>
       </c>
       <c r="U25" s="16">
-        <f t="shared" ref="U25:U31" si="7">(E25-Q25)/E25</f>
+        <f t="shared" ref="U25:U31" si="9">(E25-Q25)/E25</f>
         <v>7.980669823678448E-6</v>
       </c>
     </row>
@@ -2698,39 +2693,39 @@
         <v>4.1710760000000002</v>
       </c>
       <c r="K26" s="6">
+        <f t="shared" si="4"/>
+        <v>4.0000303314120371</v>
+      </c>
+      <c r="L26" s="6">
+        <f t="shared" si="5"/>
+        <v>4.2112322152601864</v>
+      </c>
+      <c r="M26" s="6">
+        <f t="shared" si="6"/>
+        <v>4.4000346673136619</v>
+      </c>
+      <c r="O26" s="7">
         <f t="shared" si="2"/>
-        <v>4.0000303314120371</v>
-      </c>
-      <c r="L26" s="6">
-        <f t="shared" si="3"/>
-        <v>4.2112322152601864</v>
-      </c>
-      <c r="M26" s="6">
-        <f t="shared" si="4"/>
-        <v>4.4000346673136619</v>
-      </c>
-      <c r="O26" s="7">
-        <f>G26*D$6</f>
         <v>-4.3519240000000003</v>
       </c>
       <c r="P26" s="7">
-        <f>H26*E$6</f>
+        <f t="shared" si="2"/>
         <v>-4.7496566655999999</v>
       </c>
       <c r="Q26" s="7">
-        <f>I26*F$6</f>
+        <f t="shared" si="2"/>
         <v>18.352734400000003</v>
       </c>
       <c r="S26" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.5827955099932293E-6</v>
       </c>
       <c r="T26" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.6498417897404718E-6</v>
       </c>
       <c r="U26" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.8788728459833448E-6</v>
       </c>
     </row>
@@ -2755,39 +2750,39 @@
         <v>0.68259800000000004</v>
       </c>
       <c r="K27" s="6">
+        <f t="shared" si="4"/>
+        <v>4.000033333888898</v>
+      </c>
+      <c r="L27" s="6">
+        <f t="shared" si="5"/>
+        <v>4.2112703060726489</v>
+      </c>
+      <c r="M27" s="6">
+        <f t="shared" si="6"/>
+        <v>4.4000348667883591</v>
+      </c>
+      <c r="O27" s="7">
         <f t="shared" si="2"/>
-        <v>4.000033333888898</v>
-      </c>
-      <c r="L27" s="6">
-        <f t="shared" si="3"/>
-        <v>4.2112703060726489</v>
-      </c>
-      <c r="M27" s="6">
-        <f t="shared" si="4"/>
-        <v>4.4000348667883591</v>
-      </c>
-      <c r="O27" s="7">
-        <f>G27*D$6</f>
         <v>2.159964</v>
       </c>
       <c r="P27" s="7">
-        <f>H27*E$6</f>
+        <f t="shared" si="2"/>
         <v>0.24160496639999998</v>
       </c>
       <c r="Q27" s="7">
-        <f>I27*F$6</f>
+        <f t="shared" si="2"/>
         <v>3.0034312000000005</v>
       </c>
       <c r="S27" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.3334027782877221E-6</v>
       </c>
       <c r="T27" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.6694742331653704E-5</v>
       </c>
       <c r="U27" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.9242072878352365E-6</v>
       </c>
     </row>
@@ -2812,39 +2807,39 @@
         <v>-1.1786719999999999</v>
       </c>
       <c r="K28" s="6">
+        <f t="shared" si="4"/>
+        <v>4.0000311410064775</v>
+      </c>
+      <c r="L28" s="6">
+        <f t="shared" si="5"/>
+        <v>4.2112337513560663</v>
+      </c>
+      <c r="M28" s="6">
+        <f t="shared" si="6"/>
+        <v>4.4000341061805148</v>
+      </c>
+      <c r="O28" s="7">
         <f t="shared" si="2"/>
-        <v>4.0000311410064775</v>
-      </c>
-      <c r="L28" s="6">
-        <f t="shared" si="3"/>
-        <v>4.2112337513560663</v>
-      </c>
-      <c r="M28" s="6">
-        <f t="shared" si="4"/>
-        <v>4.4000341061805148</v>
-      </c>
-      <c r="O28" s="7">
-        <f>G28*D$6</f>
         <v>2.0551680000000001</v>
       </c>
       <c r="P28" s="7">
-        <f>H28*E$6</f>
+        <f t="shared" si="2"/>
         <v>-6.1022140927999997</v>
       </c>
       <c r="Q28" s="7">
-        <f>I28*F$6</f>
+        <f t="shared" si="2"/>
         <v>-5.1861568</v>
       </c>
       <c r="S28" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.785191009669208E-6</v>
       </c>
       <c r="T28" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.0146004851083925E-6</v>
       </c>
       <c r="U28" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.7513445786835195E-6</v>
       </c>
     </row>
@@ -2869,39 +2864,39 @@
         <v>0.49092000000000002</v>
       </c>
       <c r="K29" s="6">
+        <f t="shared" si="4"/>
+        <v>4.0000314626184768</v>
+      </c>
+      <c r="L29" s="6">
+        <f t="shared" si="5"/>
+        <v>4.2112330837353333</v>
+      </c>
+      <c r="M29" s="6">
+        <f t="shared" si="6"/>
+        <v>4.4000366658518697</v>
+      </c>
+      <c r="O29" s="7">
         <f t="shared" si="2"/>
-        <v>4.0000314626184768</v>
-      </c>
-      <c r="L29" s="6">
-        <f t="shared" si="3"/>
-        <v>4.2112330837353333</v>
-      </c>
-      <c r="M29" s="6">
-        <f t="shared" si="4"/>
-        <v>4.4000366658518697</v>
-      </c>
-      <c r="O29" s="7">
-        <f>G29*D$6</f>
         <v>24.40992</v>
       </c>
       <c r="P29" s="7">
-        <f>H29*E$6</f>
+        <f t="shared" si="2"/>
         <v>10.4049192576</v>
       </c>
       <c r="Q29" s="7">
-        <f>I29*F$6</f>
+        <f t="shared" si="2"/>
         <v>2.1600480000000002</v>
       </c>
       <c r="S29" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.865592751150357E-6</v>
       </c>
       <c r="T29" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.8560684425504627E-6</v>
       </c>
       <c r="U29" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.3330787114150523E-6</v>
       </c>
     </row>
@@ -2929,41 +2924,41 @@
       </c>
       <c r="J30"/>
       <c r="K30" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.0000319285218131</v>
       </c>
       <c r="L30" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.2112337513560663</v>
       </c>
       <c r="M30" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.4000344945603693</v>
       </c>
       <c r="N30"/>
       <c r="O30" s="7">
-        <f>G30*D$6</f>
+        <f t="shared" si="2"/>
         <v>-6.1387119999999999</v>
       </c>
       <c r="P30" s="7">
-        <f>H30*E$6</f>
+        <f t="shared" si="2"/>
         <v>-6.1022140927999997</v>
       </c>
       <c r="Q30" s="7">
-        <f>I30*F$6</f>
+        <f t="shared" si="2"/>
         <v>3.2654424</v>
       </c>
       <c r="R30"/>
       <c r="S30" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.982066739484352E-6</v>
       </c>
       <c r="T30" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.0146004851083925E-6</v>
       </c>
       <c r="U30" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.8396113512207042E-6</v>
       </c>
       <c r="V30"/>
@@ -2990,39 +2985,39 @@
         <v>-1.354125</v>
       </c>
       <c r="K31" s="6">
+        <f t="shared" si="4"/>
+        <v>4.000030298392554</v>
+      </c>
+      <c r="L31" s="6">
+        <f t="shared" si="5"/>
+        <v>4.211233907619242</v>
+      </c>
+      <c r="M31" s="6">
+        <f t="shared" si="6"/>
+        <v>4.4000347087602698</v>
+      </c>
+      <c r="O31" s="7">
         <f t="shared" si="2"/>
-        <v>4.000030298392554</v>
-      </c>
-      <c r="L31" s="6">
-        <f t="shared" si="3"/>
-        <v>4.211233907619242</v>
-      </c>
-      <c r="M31" s="6">
-        <f t="shared" si="4"/>
-        <v>4.4000347087602698</v>
-      </c>
-      <c r="O31" s="7">
-        <f>G31*D$6</f>
         <v>-5.1487879999999997</v>
       </c>
       <c r="P31" s="7">
-        <f>H31*E$6</f>
+        <f t="shared" si="2"/>
         <v>10.566022924799999</v>
       </c>
       <c r="Q31" s="7">
-        <f>I31*F$6</f>
+        <f t="shared" si="2"/>
         <v>-5.9581500000000007</v>
       </c>
       <c r="S31" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.5745407643570609E-6</v>
       </c>
       <c r="T31" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.0517064562682689E-6</v>
       </c>
       <c r="U31" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.8882923809776914E-6</v>
       </c>
     </row>
@@ -3036,24 +3031,24 @@
         <v>0</v>
       </c>
       <c r="D32" s="24">
-        <f t="shared" ref="D32:E32" si="8">SUM(D24:D31)</f>
+        <f t="shared" ref="D32:E32" si="10">SUM(D24:D31)</f>
         <v>-9.9999999747524271E-7</v>
       </c>
       <c r="E32" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F32" s="24"/>
       <c r="G32" s="24">
-        <f t="shared" ref="G32" si="9">SUM(G24:G31)</f>
+        <f t="shared" ref="G32" si="11">SUM(G24:G31)</f>
         <v>0</v>
       </c>
       <c r="H32" s="24">
-        <f t="shared" ref="H32:I32" si="10">SUM(H24:H31)</f>
+        <f t="shared" ref="H32:I32" si="12">SUM(H24:H31)</f>
         <v>-1.000000000139778E-6</v>
       </c>
       <c r="I32" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J32" s="24"/>
@@ -3062,15 +3057,15 @@
       <c r="M32" s="24"/>
       <c r="N32" s="24"/>
       <c r="O32" s="24">
-        <f t="shared" ref="O32" si="11">SUM(O24:O31)</f>
+        <f t="shared" ref="O32" si="13">SUM(O24:O31)</f>
         <v>0</v>
       </c>
       <c r="P32" s="24">
-        <f t="shared" ref="P32" si="12">SUM(P24:P31)</f>
+        <f t="shared" ref="P32" si="14">SUM(P24:P31)</f>
         <v>-4.2112000002703098E-6</v>
       </c>
       <c r="Q32" s="24">
-        <f t="shared" ref="Q32" si="13">SUM(Q24:Q31)</f>
+        <f t="shared" ref="Q32" si="15">SUM(Q24:Q31)</f>
         <v>0</v>
       </c>
       <c r="R32" s="24"/>
@@ -3193,11 +3188,11 @@
         <v>78.912414933792107</v>
       </c>
       <c r="L46" s="21">
-        <f>(E46-K46)/E46</f>
+        <f t="shared" ref="L46:L51" si="16">(E46-K46)/E46</f>
         <v>6.1337060893098747E-3</v>
       </c>
       <c r="M46" s="19">
-        <f>E46-K46</f>
+        <f t="shared" ref="M46:M51" si="17">E46-K46</f>
         <v>0.48701275309075243</v>
       </c>
       <c r="O46" s="19">
@@ -3208,7 +3203,7 @@
         <v>-1.1005433533015192E-3</v>
       </c>
       <c r="Q46" s="19">
-        <f>E46-O46</f>
+        <f t="shared" ref="Q46:Q51" si="18">E46-O46</f>
         <v>-8.738251239674355E-2</v>
       </c>
       <c r="R46" s="19" t="s">
@@ -3218,11 +3213,11 @@
         <v>79.399428055698706</v>
       </c>
       <c r="T46" s="35">
-        <f>(E46-S46)/E46</f>
+        <f t="shared" ref="T46:T51" si="19">(E46-S46)/E46</f>
         <v>-4.6450693404289721E-9</v>
       </c>
       <c r="U46" s="36">
-        <f>E46-S46</f>
+        <f t="shared" ref="U46:U51" si="20">E46-S46</f>
         <v>-3.6881584719594684E-7</v>
       </c>
     </row>
@@ -3234,7 +3229,7 @@
         <v>61.889170999999997</v>
       </c>
       <c r="E47" s="19">
-        <f t="shared" ref="E47:E51" si="14">D47/$H$19</f>
+        <f t="shared" ref="E47:E51" si="21">D47/$H$19</f>
         <v>61.888678916669669</v>
       </c>
       <c r="F47" s="19"/>
@@ -3242,22 +3237,22 @@
         <v>61.429245549290599</v>
       </c>
       <c r="H47" s="21">
-        <f t="shared" ref="H47:H51" si="15">(E47-G47)/E47</f>
+        <f t="shared" ref="H47:H51" si="22">(E47-G47)/E47</f>
         <v>7.4235445871720165E-3</v>
       </c>
       <c r="I47" s="19">
-        <f t="shared" ref="I47:I48" si="16">E47-G47</f>
+        <f t="shared" ref="I47:I48" si="23">E47-G47</f>
         <v>0.45943336737907003</v>
       </c>
       <c r="K47" s="19">
         <v>61.4546697220715</v>
       </c>
       <c r="L47" s="21">
-        <f>(E47-K47)/E47</f>
+        <f t="shared" si="16"/>
         <v>7.0127396834975628E-3</v>
       </c>
       <c r="M47" s="19">
-        <f>E47-K47</f>
+        <f t="shared" si="17"/>
         <v>0.43400919459816834</v>
       </c>
       <c r="O47" s="19">
@@ -3268,7 +3263,7 @@
         <v>-1.7170561731728357E-3</v>
       </c>
       <c r="Q47" s="19">
-        <f>E47-O47</f>
+        <f t="shared" si="18"/>
         <v>-0.10675926644842804</v>
       </c>
       <c r="R47" s="19" t="s">
@@ -3278,11 +3273,11 @@
         <v>61.888678879575501</v>
       </c>
       <c r="T47" s="35">
-        <f>(E47-S47)/E47</f>
+        <f t="shared" si="19"/>
         <v>5.9936919622078169E-10</v>
       </c>
       <c r="U47" s="36">
-        <f>E47-S47</f>
+        <f t="shared" si="20"/>
         <v>3.7094167737450334E-8</v>
       </c>
     </row>
@@ -3295,7 +3290,7 @@
         <v>51.230969000000002</v>
       </c>
       <c r="E48" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>51.230561660469775</v>
       </c>
       <c r="F48" s="19"/>
@@ -3303,22 +3298,22 @@
         <v>50.765416388374803</v>
       </c>
       <c r="H48" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>9.0794490050239811E-3</v>
       </c>
       <c r="I48" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>0.46514527209497203</v>
       </c>
       <c r="K48" s="19">
         <v>50.8213578408064</v>
       </c>
       <c r="L48" s="21">
-        <f>(E48-K48)/E48</f>
+        <f t="shared" si="16"/>
         <v>7.9874943080923237E-3</v>
       </c>
       <c r="M48" s="19">
-        <f>E48-K48</f>
+        <f t="shared" si="17"/>
         <v>0.40920381966337516</v>
       </c>
       <c r="O48" s="19">
@@ -3329,7 +3324,7 @@
         <v>-1.4802525527205475E-3</v>
       </c>
       <c r="Q48" s="19">
-        <f>E48-O48</f>
+        <f t="shared" si="18"/>
         <v>-7.6242112170824328E-2</v>
       </c>
       <c r="R48" s="19" t="s">
@@ -3339,11 +3334,11 @@
         <v>51.230561748748499</v>
       </c>
       <c r="T48" s="35">
-        <f>(E48-S48)/E48</f>
+        <f t="shared" si="19"/>
         <v>-1.7231652730990652E-9</v>
       </c>
       <c r="U48" s="36">
-        <f>E48-S48</f>
+        <f t="shared" si="20"/>
         <v>-8.8278724774681905E-8</v>
       </c>
     </row>
@@ -3356,7 +3351,7 @@
         <v>0.28902899999999998</v>
       </c>
       <c r="E49" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0.28902670191859764</v>
       </c>
       <c r="F49" s="19"/>
@@ -3364,7 +3359,7 @@
         <v>0.28816041160299999</v>
       </c>
       <c r="H49" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>2.9972674145575503E-3</v>
       </c>
       <c r="I49" s="19">
@@ -3375,11 +3370,11 @@
         <v>0.32174769362121602</v>
       </c>
       <c r="L49" s="21">
-        <f>(E49-K49)/E49</f>
+        <f t="shared" si="16"/>
         <v>-0.11321096454207205</v>
       </c>
       <c r="M49" s="19">
-        <f>E49-K49</f>
+        <f t="shared" si="17"/>
         <v>-3.2720991702618385E-2</v>
       </c>
       <c r="O49" s="19">
@@ -3390,7 +3385,7 @@
         <v>0.11621447245192348</v>
       </c>
       <c r="Q49" s="19">
-        <f>E49-O49</f>
+        <f t="shared" si="18"/>
         <v>3.3587054676904649E-2</v>
       </c>
       <c r="R49" s="19" t="s">
@@ -3400,11 +3395,11 @@
         <v>0.28902692925990597</v>
       </c>
       <c r="T49" s="16">
-        <f>(E49-S49)/E49</f>
+        <f t="shared" si="19"/>
         <v>-7.865754507286602E-7</v>
       </c>
       <c r="U49" s="34">
-        <f>E49-S49</f>
+        <f t="shared" si="20"/>
         <v>-2.2734130833423905E-7</v>
       </c>
     </row>
@@ -3417,7 +3412,7 @@
         <v>1.0367519999999999</v>
       </c>
       <c r="E50" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.0367437567424374</v>
       </c>
       <c r="F50" s="19"/>
@@ -3425,22 +3420,22 @@
         <v>1.0209306932493101</v>
       </c>
       <c r="H50" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1.525262475928831E-2</v>
       </c>
       <c r="I50" s="19">
-        <f t="shared" ref="I50:I51" si="17">E50-G50</f>
+        <f t="shared" ref="I50:I51" si="24">E50-G50</f>
         <v>1.5813063493127277E-2</v>
       </c>
       <c r="K50" s="19">
         <v>0.97226979574706995</v>
       </c>
       <c r="L50" s="21">
-        <f>(E50-K50)/E50</f>
+        <f t="shared" si="16"/>
         <v>6.2188906927157832E-2</v>
       </c>
       <c r="M50" s="19">
-        <f>E50-K50</f>
+        <f t="shared" si="17"/>
         <v>6.4473960995367396E-2</v>
       </c>
       <c r="O50" s="19">
@@ -3451,7 +3446,7 @@
         <v>-4.6927892180212823E-2</v>
       </c>
       <c r="Q50" s="19">
-        <f>E50-O50</f>
+        <f t="shared" si="18"/>
         <v>-4.8660829331182542E-2</v>
       </c>
       <c r="R50" s="19" t="s">
@@ -3461,11 +3456,11 @@
         <v>1.0367436885713699</v>
       </c>
       <c r="T50" s="16">
-        <f>(E50-S50)/E50</f>
+        <f t="shared" si="19"/>
         <v>6.5754982380518801E-8</v>
       </c>
       <c r="U50" s="34">
-        <f>E50-S50</f>
+        <f t="shared" si="20"/>
         <v>6.8171067457711843E-8</v>
       </c>
     </row>
@@ -3478,7 +3473,7 @@
         <v>0.18586</v>
       </c>
       <c r="E51" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0.185858522219537</v>
       </c>
       <c r="F51" s="19"/>
@@ -3486,22 +3481,22 @@
         <v>0.18468974714991401</v>
       </c>
       <c r="H51" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>6.2885201908708926E-3</v>
       </c>
       <c r="I51" s="19">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.1687750696229848E-3</v>
       </c>
       <c r="K51" s="19">
         <v>7.4861306831214502E-2</v>
       </c>
       <c r="L51" s="21">
-        <f>(E51-K51)/E51</f>
+        <f t="shared" si="16"/>
         <v>0.59721348293737131</v>
       </c>
       <c r="M51" s="19">
-        <f>E51-K51</f>
+        <f t="shared" si="17"/>
         <v>0.1109972153883225</v>
       </c>
       <c r="O51" s="19">
@@ -3512,7 +3507,7 @@
         <v>-0.59091476258984188</v>
       </c>
       <c r="Q51" s="19">
-        <f>E51-O51</f>
+        <f t="shared" si="18"/>
         <v>-0.109828895555411</v>
       </c>
       <c r="R51" s="19" t="s">
@@ -3522,11 +3517,11 @@
         <v>0.18585897745624899</v>
       </c>
       <c r="T51" s="16">
-        <f>(E51-S51)/E51</f>
+        <f t="shared" si="19"/>
         <v>-2.4493722782102419E-6</v>
       </c>
       <c r="U51" s="34">
-        <f>E51-S51</f>
+        <f t="shared" si="20"/>
         <v>-4.5523671199365623E-7</v>
       </c>
     </row>
@@ -4527,8 +4522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16719550-65CE-814B-9C93-EA4162F3BE7F}">
   <dimension ref="A3:W72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="94" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="94" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4601,15 +4596,15 @@
         <v>0</v>
       </c>
       <c r="H8" s="19">
-        <f>D8*D$6</f>
+        <f t="shared" ref="H8:J15" si="0">D8*D$6</f>
         <v>0.19450000000000001</v>
       </c>
       <c r="I8" s="19">
-        <f>E8*E$6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J8" s="19">
-        <f>F8*F$6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L8" s="19"/>
@@ -4633,15 +4628,15 @@
         <v>0</v>
       </c>
       <c r="H9" s="19">
-        <f>D9*D$6</f>
+        <f t="shared" si="0"/>
         <v>1.9450000000000001</v>
       </c>
       <c r="I9" s="19">
-        <f>E9*E$6</f>
+        <f t="shared" si="0"/>
         <v>2.2359999999999998</v>
       </c>
       <c r="J9" s="19">
-        <f>F9*F$6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L9" s="19"/>
@@ -4665,15 +4660,15 @@
         <v>0.5</v>
       </c>
       <c r="H10" s="19">
-        <f>D10*D$6</f>
+        <f t="shared" si="0"/>
         <v>1.9450000000000001</v>
       </c>
       <c r="I10" s="19">
-        <f>E10*E$6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J10" s="19">
-        <f>F10*F$6</f>
+        <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
       <c r="L10" s="19"/>
@@ -4697,15 +4692,15 @@
         <v>0.5</v>
       </c>
       <c r="H11" s="19">
-        <f>D11*D$6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I11" s="19">
-        <f>E11*E$6</f>
+        <f t="shared" si="0"/>
         <v>2.2359999999999998</v>
       </c>
       <c r="J11" s="19">
-        <f>F11*F$6</f>
+        <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
       <c r="L11" s="19"/>
@@ -4729,15 +4724,15 @@
         <v>0.5</v>
       </c>
       <c r="H12" s="19">
-        <f>D12*D$6</f>
+        <f t="shared" si="0"/>
         <v>1.9450000000000001</v>
       </c>
       <c r="I12" s="19">
-        <f>E12*E$6</f>
+        <f t="shared" si="0"/>
         <v>2.15</v>
       </c>
       <c r="J12" s="19">
-        <f>F12*F$6</f>
+        <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
       <c r="L12" s="19"/>
@@ -4761,15 +4756,15 @@
         <v>0.04</v>
       </c>
       <c r="H13" s="19">
-        <f>D13*D$6</f>
+        <f t="shared" si="0"/>
         <v>1.9450000000000001</v>
       </c>
       <c r="I13" s="19">
-        <f>E13*E$6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J13" s="19">
-        <f>F13*F$6</f>
+        <f t="shared" si="0"/>
         <v>0.128</v>
       </c>
       <c r="L13" s="19"/>
@@ -4793,15 +4788,15 @@
         <v>0.32</v>
       </c>
       <c r="H14" s="19">
-        <f>D14*D$6</f>
+        <f t="shared" si="0"/>
         <v>-0.77800000000000002</v>
       </c>
       <c r="I14" s="19">
-        <f>E14*E$6</f>
+        <f t="shared" si="0"/>
         <v>2.15</v>
       </c>
       <c r="J14" s="19">
-        <f>F14*F$6</f>
+        <f t="shared" si="0"/>
         <v>1.024</v>
       </c>
       <c r="L14" s="19"/>
@@ -4825,15 +4820,15 @@
         <v>0.5</v>
       </c>
       <c r="H15" s="19">
-        <f>D15*D$6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I15" s="19">
-        <f>E15*E$6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J15" s="19">
-        <f>F15*F$6</f>
+        <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
       <c r="L15" s="19"/>
@@ -4868,18 +4863,18 @@
         <v>60</v>
       </c>
       <c r="H18">
-        <v>-221.77662772183899</v>
+        <v>-221.77662772182899</v>
       </c>
       <c r="I18" s="22">
         <f>(D18-H18)/D18</f>
-        <v>7.9510368542013574E-6</v>
+        <v>7.9510368993114404E-6</v>
       </c>
       <c r="L18" s="19"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="H19">
         <f>D18/H18</f>
-        <v>1.0000079511000737</v>
+        <v>1.0000079511001188</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
@@ -4935,23 +4930,23 @@
         <v>3.8900311636266607</v>
       </c>
       <c r="L24" s="6">
-        <f t="shared" ref="L24:M31" si="0">D24/H24</f>
+        <f t="shared" ref="L24:M31" si="1">D24/H24</f>
         <v>4.3000345456241789</v>
       </c>
       <c r="M24" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2000257733912472</v>
       </c>
       <c r="O24" s="7">
-        <f>G24*D$6</f>
+        <f t="shared" ref="O24:Q31" si="2">G24*D$6</f>
         <v>11.59000215</v>
       </c>
       <c r="P24" s="7">
-        <f>H24*E$6</f>
+        <f t="shared" si="2"/>
         <v>-8.5264054999999992</v>
       </c>
       <c r="Q24" s="7">
-        <f>I24*F$6</f>
+        <f t="shared" si="2"/>
         <v>-8.4428160000000005</v>
       </c>
       <c r="S24" s="16">
@@ -4959,11 +4954,11 @@
         <v>8.0111509008079846E-6</v>
       </c>
       <c r="T24" s="16">
-        <f t="shared" ref="T24:U31" si="1">(D24-P24)/D24</f>
+        <f t="shared" ref="T24:U31" si="3">(D24-P24)/D24</f>
         <v>8.0338015457664082E-6</v>
       </c>
       <c r="U24" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.0541198953872596E-6</v>
       </c>
     </row>
@@ -4988,39 +4983,39 @@
         <v>-9.8744029999999992</v>
       </c>
       <c r="K25" s="6">
-        <f t="shared" ref="K25:K31" si="2">C25/G25</f>
+        <f t="shared" ref="K25:K31" si="4">C25/G25</f>
         <v>3.8900310110110885</v>
       </c>
       <c r="L25" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.3000347625095481</v>
       </c>
       <c r="M25" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2000252572231456</v>
       </c>
       <c r="O25" s="7">
-        <f>G25*D$6</f>
+        <f t="shared" si="2"/>
         <v>-61.491606789999999</v>
       </c>
       <c r="P25" s="7">
-        <f>H25*E$6</f>
+        <f t="shared" si="2"/>
         <v>11.2811188</v>
       </c>
       <c r="Q25" s="7">
-        <f>I25*F$6</f>
+        <f t="shared" si="2"/>
         <v>-31.598089599999998</v>
       </c>
       <c r="S25" s="16">
-        <f t="shared" ref="S25:S31" si="3">(C25-O25)/C25</f>
+        <f t="shared" ref="S25:S31" si="5">(C25-O25)/C25</f>
         <v>7.9719187329451122E-6</v>
       </c>
       <c r="T25" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.0842391906504702E-6</v>
       </c>
       <c r="U25" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.8928199359240834E-6</v>
       </c>
     </row>
@@ -5045,39 +5040,39 @@
         <v>9.0073380000000007</v>
       </c>
       <c r="K26" s="6">
+        <f t="shared" si="4"/>
+        <v>3.890030850058233</v>
+      </c>
+      <c r="L26" s="6">
+        <f t="shared" si="1"/>
+        <v>4.3000333953774517</v>
+      </c>
+      <c r="M26" s="6">
+        <f t="shared" si="1"/>
+        <v>3.2000252460826939</v>
+      </c>
+      <c r="O26" s="7">
         <f t="shared" si="2"/>
-        <v>3.890030850058233</v>
-      </c>
-      <c r="L26" s="6">
-        <f t="shared" si="0"/>
-        <v>4.3000333953774517</v>
-      </c>
-      <c r="M26" s="6">
-        <f t="shared" si="0"/>
-        <v>3.2000252460826939</v>
-      </c>
-      <c r="O26" s="7">
-        <f>G26*D$6</f>
         <v>-24.786251430000004</v>
       </c>
       <c r="P26" s="7">
-        <f>H26*E$6</f>
+        <f t="shared" si="2"/>
         <v>-8.4853061000000007</v>
       </c>
       <c r="Q26" s="7">
-        <f>I26*F$6</f>
+        <f t="shared" si="2"/>
         <v>28.823481600000004</v>
       </c>
       <c r="S26" s="16">
+        <f t="shared" si="5"/>
+        <v>7.9305433354710112E-6</v>
+      </c>
+      <c r="T26" s="16">
         <f t="shared" si="3"/>
-        <v>7.9305433354710112E-6</v>
-      </c>
-      <c r="T26" s="16">
-        <f t="shared" si="1"/>
         <v>7.7663065330753863E-6</v>
       </c>
       <c r="U26" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.8893385995687089E-6</v>
       </c>
     </row>
@@ -5102,39 +5097,39 @@
         <v>32.191160000000004</v>
       </c>
       <c r="K27" s="6">
+        <f t="shared" si="4"/>
+        <v>3.8900309587323254</v>
+      </c>
+      <c r="L27" s="6">
+        <f t="shared" si="1"/>
+        <v>4.3000340170512965</v>
+      </c>
+      <c r="M27" s="6">
+        <f t="shared" si="1"/>
+        <v>3.2000254107028137</v>
+      </c>
+      <c r="O27" s="7">
         <f t="shared" si="2"/>
-        <v>3.8900309587323254</v>
-      </c>
-      <c r="L27" s="6">
-        <f t="shared" si="0"/>
-        <v>4.3000340170512965</v>
-      </c>
-      <c r="M27" s="6">
-        <f t="shared" si="0"/>
-        <v>3.2000254107028137</v>
-      </c>
-      <c r="O27" s="7">
-        <f>G27*D$6</f>
         <v>183.24836561000001</v>
       </c>
       <c r="P27" s="7">
-        <f>H27*E$6</f>
+        <f t="shared" si="2"/>
         <v>23.726630299999997</v>
       </c>
       <c r="Q27" s="7">
-        <f>I27*F$6</f>
+        <f t="shared" si="2"/>
         <v>103.01171200000002</v>
       </c>
       <c r="S27" s="16">
+        <f t="shared" si="5"/>
+        <v>7.9584796762590393E-6</v>
+      </c>
+      <c r="T27" s="16">
         <f t="shared" si="3"/>
-        <v>7.9584796762590393E-6</v>
-      </c>
-      <c r="T27" s="16">
-        <f t="shared" si="1"/>
         <v>7.9108795795967598E-6</v>
       </c>
       <c r="U27" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.9407815726990842E-6</v>
       </c>
     </row>
@@ -5159,39 +5154,39 @@
         <v>-12.371707000000001</v>
       </c>
       <c r="K28" s="6">
+        <f t="shared" si="4"/>
+        <v>3.8900309728580202</v>
+      </c>
+      <c r="L28" s="6">
+        <f t="shared" si="1"/>
+        <v>4.3000345855232114</v>
+      </c>
+      <c r="M28" s="6">
+        <f t="shared" si="1"/>
+        <v>3.2000253481593122</v>
+      </c>
+      <c r="O28" s="7">
         <f t="shared" si="2"/>
-        <v>3.8900309728580202</v>
-      </c>
-      <c r="L28" s="6">
-        <f t="shared" si="0"/>
-        <v>4.3000345855232114</v>
-      </c>
-      <c r="M28" s="6">
-        <f t="shared" si="0"/>
-        <v>3.2000253481593122</v>
-      </c>
-      <c r="O28" s="7">
-        <f>G28*D$6</f>
         <v>102.55364545</v>
       </c>
       <c r="P28" s="7">
-        <f>H28*E$6</f>
+        <f t="shared" si="2"/>
         <v>-13.303254000000001</v>
       </c>
       <c r="Q28" s="7">
-        <f>I28*F$6</f>
+        <f t="shared" si="2"/>
         <v>-39.589462400000002</v>
       </c>
       <c r="S28" s="16">
+        <f t="shared" si="5"/>
+        <v>7.9621109025577173E-6</v>
+      </c>
+      <c r="T28" s="16">
         <f t="shared" si="3"/>
-        <v>7.9621109025577173E-6</v>
-      </c>
-      <c r="T28" s="16">
-        <f t="shared" si="1"/>
         <v>8.0430802411403558E-6</v>
       </c>
       <c r="U28" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.9212370385313535E-6</v>
       </c>
     </row>
@@ -5216,39 +5211,39 @@
         <v>-3.206642</v>
       </c>
       <c r="K29" s="6">
+        <f t="shared" si="4"/>
+        <v>3.8900309554216128</v>
+      </c>
+      <c r="L29" s="6">
+        <f t="shared" si="1"/>
+        <v>4.3000346958950724</v>
+      </c>
+      <c r="M29" s="6">
+        <f t="shared" si="1"/>
+        <v>3.2000251353284841</v>
+      </c>
+      <c r="O29" s="7">
         <f t="shared" si="2"/>
-        <v>3.8900309554216128</v>
-      </c>
-      <c r="L29" s="6">
-        <f t="shared" si="0"/>
-        <v>4.3000346958950724</v>
-      </c>
-      <c r="M29" s="6">
-        <f t="shared" si="0"/>
-        <v>3.2000251353284841</v>
-      </c>
-      <c r="O29" s="7">
-        <f>G29*D$6</f>
         <v>38.599131839999998</v>
       </c>
       <c r="P29" s="7">
-        <f>H29*E$6</f>
+        <f t="shared" si="2"/>
         <v>12.170315800000001</v>
       </c>
       <c r="Q29" s="7">
-        <f>I29*F$6</f>
+        <f t="shared" si="2"/>
         <v>-10.2612544</v>
       </c>
       <c r="S29" s="16">
+        <f t="shared" si="5"/>
+        <v>7.9576286069447463E-6</v>
+      </c>
+      <c r="T29" s="16">
         <f t="shared" si="3"/>
-        <v>7.9576286069447463E-6</v>
-      </c>
-      <c r="T29" s="16">
-        <f t="shared" si="1"/>
         <v>8.0687477022779911E-6</v>
       </c>
       <c r="U29" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.854728453990667E-6</v>
       </c>
     </row>
@@ -5276,41 +5271,41 @@
       </c>
       <c r="J30"/>
       <c r="K30" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.8900309163018281</v>
       </c>
       <c r="L30" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.3000340404809876</v>
       </c>
       <c r="M30" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2000255451784385</v>
       </c>
       <c r="N30"/>
       <c r="O30" s="7">
-        <f>G30*D$6</f>
+        <f t="shared" si="2"/>
         <v>-218.86761351999999</v>
       </c>
       <c r="P30" s="7">
-        <f>H30*E$6</f>
+        <f t="shared" si="2"/>
         <v>-29.104171599999997</v>
       </c>
       <c r="Q30" s="7">
-        <f>I30*F$6</f>
+        <f t="shared" si="2"/>
         <v>-33.421571200000002</v>
       </c>
       <c r="R30"/>
       <c r="S30" s="16">
+        <f t="shared" si="5"/>
+        <v>7.9475722669938364E-6</v>
+      </c>
+      <c r="T30" s="16">
         <f t="shared" si="3"/>
-        <v>7.9475722669938364E-6</v>
-      </c>
-      <c r="T30" s="16">
-        <f t="shared" si="1"/>
         <v>7.9163282586281145E-6</v>
       </c>
       <c r="U30" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.9828045363204796E-6</v>
       </c>
       <c r="V30"/>
@@ -5337,39 +5332,39 @@
         <v>-2.6631239999999998</v>
       </c>
       <c r="K31" s="6">
+        <f t="shared" si="4"/>
+        <v>3.890030872137896</v>
+      </c>
+      <c r="L31" s="6">
+        <f t="shared" si="1"/>
+        <v>4.300034425100816</v>
+      </c>
+      <c r="M31" s="6">
+        <f t="shared" si="1"/>
+        <v>3.200025984520436</v>
+      </c>
+      <c r="O31" s="7">
         <f t="shared" si="2"/>
-        <v>3.890030872137896</v>
-      </c>
-      <c r="L31" s="6">
-        <f t="shared" si="0"/>
-        <v>4.300034425100816</v>
-      </c>
-      <c r="M31" s="6">
-        <f t="shared" si="0"/>
-        <v>3.200025984520436</v>
-      </c>
-      <c r="O31" s="7">
-        <f>G31*D$6</f>
         <v>-30.845677200000001</v>
       </c>
       <c r="P31" s="7">
-        <f>H31*E$6</f>
+        <f t="shared" si="2"/>
         <v>12.241068</v>
       </c>
       <c r="Q31" s="7">
-        <f>I31*F$6</f>
+        <f t="shared" si="2"/>
         <v>-8.5219968000000001</v>
       </c>
       <c r="S31" s="16">
+        <f t="shared" si="5"/>
+        <v>7.9362192513105019E-6</v>
+      </c>
+      <c r="T31" s="16">
         <f t="shared" si="3"/>
-        <v>7.9362192513105019E-6</v>
-      </c>
-      <c r="T31" s="16">
-        <f t="shared" si="1"/>
         <v>8.0057733061938215E-6</v>
       </c>
       <c r="U31" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.1200966996072993E-6</v>
       </c>
     </row>
@@ -5383,24 +5378,24 @@
         <v>0</v>
       </c>
       <c r="D32" s="24">
-        <f t="shared" ref="D32:E32" si="4">SUM(D24:D31)</f>
+        <f t="shared" ref="D32:E32" si="6">SUM(D24:D31)</f>
         <v>-1.0000000010279564E-6</v>
       </c>
       <c r="E32" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.9999999925159955E-7</v>
       </c>
       <c r="F32" s="24"/>
       <c r="G32" s="24">
-        <f t="shared" ref="G32:I32" si="5">SUM(G24:G31)</f>
+        <f t="shared" ref="G32:I32" si="7">SUM(G24:G31)</f>
         <v>-9.9999999925159955E-7</v>
       </c>
       <c r="H32" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.000000000139778E-6</v>
       </c>
       <c r="I32" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0000000045806701E-6</v>
       </c>
       <c r="J32" s="24"/>
@@ -5409,15 +5404,15 @@
       <c r="M32" s="24"/>
       <c r="N32" s="24"/>
       <c r="O32" s="24">
-        <f t="shared" ref="O32:Q32" si="6">SUM(O24:O31)</f>
+        <f t="shared" ref="O32:Q32" si="8">SUM(O24:O31)</f>
         <v>-3.8899999772468163E-6</v>
       </c>
       <c r="P32" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-4.3000000022885843E-6</v>
       </c>
       <c r="Q32" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.2000000196319434E-6</v>
       </c>
       <c r="R32" s="24"/>
@@ -5432,34 +5427,134 @@
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
     </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="K34" s="18">
+        <f>(D$6-K24)/D$6</f>
+        <v>-8.0112150798348321E-6</v>
+      </c>
+      <c r="L34" s="18">
+        <f t="shared" ref="L34:M34" si="9">(E$6-L24)/E$6</f>
+        <v>-8.0338660881485417E-6</v>
+      </c>
+      <c r="M34" s="18">
+        <f t="shared" si="9"/>
+        <v>-8.0541847646831144E-6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="K35" s="18">
+        <f t="shared" ref="K35:K44" si="10">(D$6-K25)/D$6</f>
+        <v>-7.9719822849299928E-6</v>
+      </c>
+      <c r="L35" s="18">
+        <f t="shared" ref="L35:L44" si="11">(E$6-L25)/E$6</f>
+        <v>-8.0843045461066127E-6</v>
+      </c>
+      <c r="M35" s="18">
+        <f t="shared" ref="M35:M44" si="12">(F$6-M25)/F$6</f>
+        <v>-7.8928822329349391E-6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="K36" s="18">
+        <f t="shared" si="10"/>
+        <v>-7.9306062295346188E-6</v>
+      </c>
+      <c r="L36" s="18">
+        <f t="shared" si="11"/>
+        <v>-7.7663668492649259E-6</v>
+      </c>
+      <c r="M36" s="18">
+        <f t="shared" si="12"/>
+        <v>-7.8894008417873529E-6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="K37" s="18">
+        <f t="shared" si="10"/>
+        <v>-7.9585430142111421E-6</v>
+      </c>
+      <c r="L37" s="18">
+        <f t="shared" si="11"/>
+        <v>-7.9109421620200969E-6</v>
+      </c>
+      <c r="M37" s="18">
+        <f t="shared" si="12"/>
+        <v>-7.9408446292117407E-6</v>
+      </c>
+    </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="K38" s="18">
+        <f t="shared" si="10"/>
+        <v>-7.962174298230694E-6</v>
+      </c>
+      <c r="L38" s="18">
+        <f t="shared" si="11"/>
+        <v>-8.0431449329211763E-6</v>
+      </c>
+      <c r="M38" s="18">
+        <f t="shared" si="12"/>
+        <v>-7.9212997849964495E-6</v>
+      </c>
       <c r="S38" s="19"/>
       <c r="T38" s="19"/>
       <c r="U38" s="19"/>
     </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="K39" s="18">
+        <f t="shared" si="10"/>
+        <v>-7.9576919312823598E-6</v>
+      </c>
+      <c r="L39" s="18">
+        <f t="shared" si="11"/>
+        <v>-8.0688128075686311E-6</v>
+      </c>
+      <c r="M39" s="18">
+        <f t="shared" si="12"/>
+        <v>-7.8547901512238116E-6</v>
+      </c>
+    </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
+      <c r="K40" s="18">
+        <f t="shared" si="10"/>
+        <v>-7.947635431347936E-6</v>
+      </c>
+      <c r="L40" s="18">
+        <f t="shared" si="11"/>
+        <v>-7.9163909273866468E-6</v>
+      </c>
+      <c r="M40" s="18">
+        <f t="shared" si="12"/>
+        <v>-7.982868261979803E-6</v>
+      </c>
       <c r="N40" s="25"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="25"/>
+      <c r="K41" s="18">
+        <f t="shared" si="10"/>
+        <v>-7.9362822354438323E-6</v>
+      </c>
+      <c r="L41" s="18">
+        <f t="shared" si="11"/>
+        <v>-8.0058373991147267E-6</v>
+      </c>
+      <c r="M41" s="18">
+        <f t="shared" si="12"/>
+        <v>-8.1201626361826484E-6</v>
+      </c>
       <c r="N41" s="25"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="25"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
       <c r="N42" s="25"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="G43" s="26"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
       <c r="N43" s="25"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
@@ -5469,9 +5564,9 @@
       <c r="I44" t="s">
         <v>105</v>
       </c>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="25"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="41"/>
       <c r="N44" s="25"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
@@ -5481,7 +5576,7 @@
       <c r="E45" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="G45" s="40" t="s">
+      <c r="G45" s="39" t="s">
         <v>106</v>
       </c>
       <c r="I45" s="30" t="s">
@@ -5499,19 +5594,19 @@
       </c>
       <c r="E46" s="19">
         <f>D46/H$19</f>
-        <v>72.145515363787482</v>
+        <v>72.145515363784227</v>
       </c>
       <c r="F46" s="19"/>
       <c r="G46" s="37">
-        <v>72.145514957948507</v>
+        <v>72.145514957797602</v>
       </c>
       <c r="H46" s="38">
-        <f>(D46-G46)/D46</f>
-        <v>7.9566620928932637E-6</v>
-      </c>
-      <c r="I46" s="39">
-        <f>E46-G46</f>
-        <v>4.0583897487067588E-7</v>
+        <f>(E46-G46)/D46</f>
+        <v>5.6272852940256653E-9</v>
+      </c>
+      <c r="I46" s="40">
+        <f t="shared" ref="I46:I51" si="13">E46-G46</f>
+        <v>4.0598662565116683E-7</v>
       </c>
       <c r="K46" s="19"/>
       <c r="L46" s="21"/>
@@ -5528,20 +5623,20 @@
         <v>21.916841000000002</v>
       </c>
       <c r="E47" s="19">
-        <f t="shared" ref="E47:E51" si="7">D47/H$19</f>
-        <v>21.916666738389484</v>
+        <f t="shared" ref="E47:E51" si="14">D47/H$19</f>
+        <v>21.916666738388496</v>
       </c>
       <c r="F47" s="19"/>
       <c r="G47" s="37">
-        <v>21.916666661610201</v>
+        <v>21.916666661632998</v>
       </c>
       <c r="H47" s="38">
-        <f>(D47-G47)/D47</f>
-        <v>7.9545400635504621E-6</v>
-      </c>
-      <c r="I47" s="39">
-        <f>E47-G47</f>
-        <v>7.6779283375572049E-8</v>
+        <f t="shared" ref="H47:H51" si="15">(E47-G47)/D47</f>
+        <v>3.5021241408601025E-9</v>
+      </c>
+      <c r="I47" s="40">
+        <f t="shared" si="13"/>
+        <v>7.675549795749248E-8</v>
       </c>
       <c r="K47" s="19"/>
       <c r="L47" s="21"/>
@@ -5559,20 +5654,20 @@
         <v>127.715462</v>
       </c>
       <c r="E48" s="19">
-        <f t="shared" si="7"/>
-        <v>127.71444652965479</v>
+        <f t="shared" si="14"/>
+        <v>127.71444652964904</v>
       </c>
       <c r="F48" s="19"/>
       <c r="G48" s="37">
-        <v>127.71444610227999</v>
+        <v>127.714446101929</v>
       </c>
       <c r="H48" s="38">
-        <f>(D48-G48)/D48</f>
-        <v>7.9543831584714989E-6</v>
-      </c>
-      <c r="I48" s="39">
-        <f>E48-G48</f>
-        <v>4.2737480043797405E-7</v>
+        <f t="shared" si="15"/>
+        <v>3.3490074909052528E-9</v>
+      </c>
+      <c r="I48" s="40">
+        <f t="shared" si="13"/>
+        <v>4.2772003894242516E-7</v>
       </c>
       <c r="K48" s="19"/>
       <c r="L48" s="21"/>
@@ -5590,20 +5685,20 @@
         <v>2.118703</v>
       </c>
       <c r="E49" s="19">
-        <f t="shared" si="7"/>
-        <v>2.1186861541143638</v>
+        <f t="shared" si="14"/>
+        <v>2.1186861541142683</v>
       </c>
       <c r="F49" s="19"/>
       <c r="G49" s="37">
-        <v>2.1186857751501398</v>
+        <v>2.1186857751411599</v>
       </c>
       <c r="H49" s="38">
-        <f>(D49-G49)/D49</f>
-        <v>8.1299029926422463E-6</v>
-      </c>
-      <c r="I49" s="39">
-        <f>E49-G49</f>
-        <v>3.7896422400152119E-7</v>
+        <f>(E49-G49)/D49</f>
+        <v>1.7887033173137218E-7</v>
+      </c>
+      <c r="I49" s="40">
+        <f t="shared" si="13"/>
+        <v>3.7897310845025345E-7</v>
       </c>
       <c r="K49" s="19"/>
       <c r="L49" s="21"/>
@@ -5621,20 +5716,20 @@
         <v>42.673124999999999</v>
       </c>
       <c r="E50" s="19">
-        <f t="shared" si="7"/>
-        <v>42.672785704410444</v>
+        <f t="shared" si="14"/>
+        <v>42.672785704408518</v>
       </c>
       <c r="F50" s="19"/>
       <c r="G50" s="37">
-        <v>42.672785391197898</v>
+        <v>42.672785391697602</v>
       </c>
       <c r="H50" s="38">
-        <f>(D50-G50)/D50</f>
-        <v>7.9583766621403857E-6</v>
-      </c>
-      <c r="I50" s="39">
-        <f>E50-G50</f>
-        <v>3.1321254567728829E-7</v>
+        <f t="shared" si="15"/>
+        <v>7.3280528837927002E-9</v>
+      </c>
+      <c r="I50" s="40">
+        <f t="shared" si="13"/>
+        <v>3.1271091671669637E-7</v>
       </c>
       <c r="K50" s="19"/>
       <c r="L50" s="21"/>
@@ -5652,20 +5747,20 @@
         <v>2.7942770000000001</v>
       </c>
       <c r="E51" s="19">
-        <f t="shared" si="7"/>
-        <v>2.7942547826005923</v>
+        <f t="shared" si="14"/>
+        <v>2.7942547826004662</v>
       </c>
       <c r="F51" s="19"/>
       <c r="G51" s="37">
-        <v>2.7942547393436201</v>
+        <v>2.7942547393551398</v>
       </c>
       <c r="H51" s="38">
-        <f>(D51-G51)/D51</f>
-        <v>7.9665174139865421E-6</v>
-      </c>
-      <c r="I51" s="39">
-        <f>E51-G51</f>
-        <v>4.3256972226402013E-8</v>
+        <f t="shared" si="15"/>
+        <v>1.54763920795837E-8</v>
+      </c>
+      <c r="I51" s="40">
+        <f t="shared" si="13"/>
+        <v>4.3245326430962905E-8</v>
       </c>
       <c r="K51" s="19"/>
       <c r="L51" s="21"/>
@@ -5696,11 +5791,11 @@
       </c>
       <c r="G53" s="19">
         <f>SUM(G46:G48)</f>
-        <v>221.77662772183871</v>
+        <v>221.7766277213596</v>
       </c>
       <c r="H53" s="16">
         <f>(ABS(H18)-G53)/ABS(H18)</f>
-        <v>1.2815466499946802E-15</v>
+        <v>2.1164742924663098E-12</v>
       </c>
       <c r="K53" s="19"/>
       <c r="L53" s="16"/>
